--- a/链接汇总.xlsx
+++ b/链接汇总.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01 Git\Caritas-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED6A54D-B35E-47E1-B001-4ACA3B20A89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E0B5C2-6164-4248-8CF7-8684F25E03B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{12AA15F0-ECEF-4F1B-8245-B996CA146F0A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{12AA15F0-ECEF-4F1B-8245-B996CA146F0A}"/>
   </bookViews>
   <sheets>
     <sheet name="链接汇总" sheetId="1" r:id="rId1"/>
@@ -5342,10 +5342,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://maifile.cn/est/d3046804294493/pdf</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.zhihu.com/answer/2117262132</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -6788,6 +6784,9 @@
   <si>
     <t>时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://maifile.cn/est/d3296811449031/pdf</t>
   </si>
 </sst>
 </file>
@@ -7431,8 +7430,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F1132"/>
   <sheetViews>
-    <sheetView topLeftCell="A312" zoomScale="72" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="E303" activeCellId="2" sqref="B1:B1048576 D1:D1048576 E1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A1101" zoomScale="72" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="D1122" sqref="D1122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7651,13 +7650,13 @@
         <v>536</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>536</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="E15" s="3">
         <v>953</v>
@@ -7725,13 +7724,13 @@
         <v>541</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>541</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="E20" s="3">
         <v>12722</v>
@@ -7745,13 +7744,13 @@
         <v>542</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>542</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="E21" s="3">
         <v>2323</v>
@@ -7811,13 +7810,13 @@
         <v>546</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>546</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="E25" s="3">
         <v>5294</v>
@@ -7837,7 +7836,7 @@
         <v>547</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="E26" s="3">
         <v>2506</v>
@@ -7897,13 +7896,13 @@
         <v>551</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>551</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="E30" s="3">
         <v>2888</v>
@@ -7950,16 +7949,16 @@
     </row>
     <row r="34" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B34" s="34" t="s">
         <v>1907</v>
       </c>
-      <c r="B34" s="34" t="s">
+      <c r="C34" s="11" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D34" s="35" t="s">
         <v>1908</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>1907</v>
-      </c>
-      <c r="D34" s="35" t="s">
-        <v>1909</v>
       </c>
       <c r="E34" s="3">
         <v>1717</v>
@@ -8222,16 +8221,16 @@
     </row>
     <row r="54" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D54" s="24" t="s">
         <v>1786</v>
-      </c>
-      <c r="B54" s="29" t="s">
-        <v>1785</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>1782</v>
-      </c>
-      <c r="D54" s="24" t="s">
-        <v>1787</v>
       </c>
       <c r="E54" s="3">
         <v>1737</v>
@@ -8431,13 +8430,13 @@
         <v>587</v>
       </c>
       <c r="B68" s="34" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="C68" s="11" t="s">
         <v>587</v>
       </c>
       <c r="D68" s="35" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="E68" s="3">
         <v>4360</v>
@@ -8487,13 +8486,13 @@
         <v>591</v>
       </c>
       <c r="B72" s="34" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="C72" s="11" t="s">
         <v>591</v>
       </c>
       <c r="D72" s="35" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="E72" s="3">
         <v>2048</v>
@@ -8531,7 +8530,7 @@
         <v>594</v>
       </c>
       <c r="B75" s="34" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="C75" s="11" t="s">
         <v>594</v>
@@ -8542,16 +8541,16 @@
     </row>
     <row r="76" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="7" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B76" s="34" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D76" s="35" t="s">
         <v>1673</v>
-      </c>
-      <c r="B76" s="34" t="s">
-        <v>1675</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>1673</v>
-      </c>
-      <c r="D76" s="35" t="s">
-        <v>1674</v>
       </c>
       <c r="E76" s="3">
         <v>596</v>
@@ -8565,13 +8564,13 @@
         <v>595</v>
       </c>
       <c r="B77" s="34" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="C77" s="11" t="s">
         <v>595</v>
       </c>
       <c r="D77" s="24" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="E77" s="3">
         <v>1958</v>
@@ -8609,7 +8608,7 @@
         <v>598</v>
       </c>
       <c r="B80" s="34" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="C80" s="11" t="s">
         <v>598</v>
@@ -8755,13 +8754,13 @@
         <v>609</v>
       </c>
       <c r="B91" s="34" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="C91" s="11" t="s">
         <v>609</v>
       </c>
       <c r="D91" s="24" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="E91" s="3">
         <v>1634</v>
@@ -8772,16 +8771,16 @@
     </row>
     <row r="92" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="7" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B92" s="34" t="s">
         <v>1866</v>
       </c>
-      <c r="B92" s="34" t="s">
+      <c r="C92" s="11" t="s">
+        <v>1865</v>
+      </c>
+      <c r="D92" s="24" t="s">
         <v>1867</v>
-      </c>
-      <c r="C92" s="11" t="s">
-        <v>1866</v>
-      </c>
-      <c r="D92" s="24" t="s">
-        <v>1868</v>
       </c>
       <c r="E92" s="3">
         <v>1717</v>
@@ -8932,11 +8931,11 @@
     </row>
     <row r="103" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="11" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="B103" s="30"/>
       <c r="C103" s="11" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D103" s="24"/>
       <c r="E103" s="3"/>
@@ -8944,11 +8943,11 @@
     </row>
     <row r="104" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="B104" s="30"/>
       <c r="C104" s="7" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="D104" s="24"/>
       <c r="E104" s="3"/>
@@ -9035,13 +9034,13 @@
         <v>626</v>
       </c>
       <c r="B111" s="34" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="C111" s="11" t="s">
         <v>626</v>
       </c>
       <c r="D111" s="35" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="E111" s="3">
         <v>603</v>
@@ -9055,13 +9054,13 @@
         <v>833</v>
       </c>
       <c r="B112" s="34" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="C112" s="11" t="s">
         <v>833</v>
       </c>
       <c r="D112" s="35" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="E112" s="3">
         <v>2192</v>
@@ -9333,7 +9332,7 @@
         <v>646</v>
       </c>
       <c r="B132" s="34" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="C132" s="11" t="s">
         <v>646</v>
@@ -9411,7 +9410,7 @@
         <v>651</v>
       </c>
       <c r="D138" s="35" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="E138" s="3">
         <v>4182</v>
@@ -9757,13 +9756,13 @@
         <v>677</v>
       </c>
       <c r="B164" s="34" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="C164" s="11" t="s">
         <v>677</v>
       </c>
       <c r="D164" s="24" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="E164" s="3">
         <v>3382</v>
@@ -9909,13 +9908,13 @@
         <v>688</v>
       </c>
       <c r="B175" s="34" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="C175" s="11" t="s">
         <v>688</v>
       </c>
       <c r="D175" s="24" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="E175" s="3">
         <v>160</v>
@@ -9941,13 +9940,13 @@
         <v>690</v>
       </c>
       <c r="B177" s="34" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="C177" s="11" t="s">
         <v>690</v>
       </c>
       <c r="D177" s="35" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="E177" s="3">
         <v>256</v>
@@ -10349,13 +10348,13 @@
         <v>720</v>
       </c>
       <c r="B207" s="34" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="C207" s="11" t="s">
         <v>720</v>
       </c>
       <c r="D207" s="35" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="E207" s="3">
         <v>3276</v>
@@ -11217,13 +11216,13 @@
         <v>782</v>
       </c>
       <c r="B269" s="34" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="C269" s="11" t="s">
         <v>782</v>
       </c>
       <c r="D269" s="35" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="E269" s="3">
         <v>3627</v>
@@ -11237,13 +11236,13 @@
         <v>783</v>
       </c>
       <c r="B270" s="34" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="C270" s="11" t="s">
         <v>783</v>
       </c>
       <c r="D270" s="24" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="E270" s="3">
         <v>1599</v>
@@ -11257,13 +11256,13 @@
         <v>784</v>
       </c>
       <c r="B271" s="34" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="C271" s="11" t="s">
         <v>784</v>
       </c>
       <c r="D271" s="24" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="E271" s="3">
         <v>6363</v>
@@ -11395,7 +11394,7 @@
         <v>794</v>
       </c>
       <c r="B281" s="34" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="C281" s="11" t="s">
         <v>794</v>
@@ -11412,16 +11411,16 @@
     </row>
     <row r="282" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A282" s="7" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B282" s="34" t="s">
         <v>1875</v>
       </c>
-      <c r="B282" s="34" t="s">
+      <c r="C282" s="7" t="s">
+        <v>1874</v>
+      </c>
+      <c r="D282" s="24" t="s">
         <v>1876</v>
-      </c>
-      <c r="C282" s="7" t="s">
-        <v>1875</v>
-      </c>
-      <c r="D282" s="24" t="s">
-        <v>1877</v>
       </c>
       <c r="E282" s="3">
         <v>2667</v>
@@ -11547,7 +11546,7 @@
         <v>803</v>
       </c>
       <c r="D291" s="35" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="E291" s="3">
         <v>994</v>
@@ -11647,7 +11646,7 @@
         <v>810</v>
       </c>
       <c r="D298" s="35" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="E298" s="3">
         <v>1051</v>
@@ -11958,16 +11957,16 @@
     </row>
     <row r="321" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A321" s="6" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B321" s="31" t="s">
+        <v>1963</v>
+      </c>
+      <c r="C321" s="6" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D321" s="36" t="s">
         <v>1962</v>
-      </c>
-      <c r="B321" s="31" t="s">
-        <v>1964</v>
-      </c>
-      <c r="C321" s="6" t="s">
-        <v>1962</v>
-      </c>
-      <c r="D321" s="36" t="s">
-        <v>1963</v>
       </c>
       <c r="E321" s="1">
         <v>1680</v>
@@ -12055,13 +12054,13 @@
         <v>840</v>
       </c>
       <c r="B328" s="34" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="C328" s="11" t="s">
         <v>840</v>
       </c>
       <c r="D328" s="24" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="E328" s="3">
         <v>3072</v>
@@ -12072,16 +12071,16 @@
     </row>
     <row r="329" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A329" s="7" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B329" s="34" t="s">
         <v>1929</v>
       </c>
-      <c r="B329" s="34" t="s">
-        <v>1930</v>
-      </c>
       <c r="C329" s="7" t="s">
-        <v>1929</v>
+        <v>1928</v>
       </c>
       <c r="D329" s="24" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="E329" s="3">
         <v>352</v>
@@ -12198,16 +12197,16 @@
     </row>
     <row r="337" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A337" s="7" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B337" s="34" t="s">
         <v>1693</v>
       </c>
-      <c r="B337" s="34" t="s">
+      <c r="C337" s="7" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D337" s="35" t="s">
         <v>1694</v>
-      </c>
-      <c r="C337" s="7" t="s">
-        <v>1693</v>
-      </c>
-      <c r="D337" s="35" t="s">
-        <v>1695</v>
       </c>
       <c r="E337" s="3">
         <v>1552</v>
@@ -12218,16 +12217,16 @@
     </row>
     <row r="338" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A338" s="6" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B338" s="34" t="s">
         <v>1707</v>
       </c>
-      <c r="B338" s="34" t="s">
-        <v>1708</v>
-      </c>
       <c r="C338" s="6" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="D338" s="35" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="E338" s="3">
         <v>886</v>
@@ -12238,16 +12237,16 @@
     </row>
     <row r="339" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A339" s="6" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B339" s="34" t="s">
         <v>1709</v>
       </c>
-      <c r="B339" s="34" t="s">
+      <c r="C339" s="6" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D339" s="35" t="s">
         <v>1710</v>
-      </c>
-      <c r="C339" s="6" t="s">
-        <v>1709</v>
-      </c>
-      <c r="D339" s="35" t="s">
-        <v>1711</v>
       </c>
       <c r="E339" s="3">
         <v>1792</v>
@@ -12456,11 +12455,11 @@
     </row>
     <row r="355" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A355" s="7" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="B355" s="30"/>
       <c r="C355" s="11" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="D355" s="3"/>
       <c r="E355" s="3"/>
@@ -12468,16 +12467,16 @@
     </row>
     <row r="356" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A356" s="7" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B356" s="34" t="s">
         <v>1943</v>
       </c>
-      <c r="B356" s="34" t="s">
+      <c r="C356" s="7" t="s">
+        <v>1942</v>
+      </c>
+      <c r="D356" s="35" t="s">
         <v>1944</v>
-      </c>
-      <c r="C356" s="7" t="s">
-        <v>1943</v>
-      </c>
-      <c r="D356" s="35" t="s">
-        <v>1945</v>
       </c>
       <c r="E356" s="3">
         <v>221</v>
@@ -12488,16 +12487,16 @@
     </row>
     <row r="357" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A357" s="7" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B357" s="34" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C357" s="7" t="s">
+        <v>1945</v>
+      </c>
+      <c r="D357" s="35" t="s">
         <v>1946</v>
-      </c>
-      <c r="B357" s="34" t="s">
-        <v>1948</v>
-      </c>
-      <c r="C357" s="7" t="s">
-        <v>1946</v>
-      </c>
-      <c r="D357" s="35" t="s">
-        <v>1947</v>
       </c>
       <c r="E357" s="3">
         <v>239</v>
@@ -12508,16 +12507,16 @@
     </row>
     <row r="358" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A358" s="7" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B358" s="34" t="s">
         <v>1899</v>
       </c>
-      <c r="B358" s="34" t="s">
+      <c r="C358" s="7" t="s">
+        <v>1898</v>
+      </c>
+      <c r="D358" s="35" t="s">
         <v>1900</v>
-      </c>
-      <c r="C358" s="7" t="s">
-        <v>1899</v>
-      </c>
-      <c r="D358" s="35" t="s">
-        <v>1901</v>
       </c>
       <c r="E358" s="3">
         <v>3173</v>
@@ -12960,13 +12959,13 @@
         <v>893</v>
       </c>
       <c r="B393" s="34" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="C393" s="11" t="s">
         <v>893</v>
       </c>
       <c r="D393" s="35" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="E393" s="3">
         <v>312</v>
@@ -13037,10 +13036,10 @@
     </row>
     <row r="399" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A399" s="7" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="B399" s="34" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="C399" s="11"/>
       <c r="D399" s="3"/>
@@ -13178,7 +13177,7 @@
         <v>908</v>
       </c>
       <c r="D409" s="35" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="E409" s="3">
         <v>6696</v>
@@ -13265,16 +13264,16 @@
     </row>
     <row r="415" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A415" s="7" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B415" s="29" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C415" s="7" t="s">
+        <v>1903</v>
+      </c>
+      <c r="D415" s="24" t="s">
         <v>1904</v>
-      </c>
-      <c r="B415" s="29" t="s">
-        <v>1906</v>
-      </c>
-      <c r="C415" s="7" t="s">
-        <v>1904</v>
-      </c>
-      <c r="D415" s="24" t="s">
-        <v>1905</v>
       </c>
       <c r="E415" s="3">
         <v>1833</v>
@@ -13506,13 +13505,13 @@
         <v>930</v>
       </c>
       <c r="B432" s="34" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="C432" s="11" t="s">
         <v>930</v>
       </c>
       <c r="D432" s="24" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="E432" s="3">
         <v>14347</v>
@@ -13840,7 +13839,7 @@
         <v>953</v>
       </c>
       <c r="D455" s="24" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="E455" s="3">
         <v>2256</v>
@@ -13887,11 +13886,11 @@
     </row>
     <row r="459" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A459" s="7" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B459" s="30"/>
       <c r="C459" s="7" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D459" s="3"/>
       <c r="E459" s="3"/>
@@ -14242,13 +14241,13 @@
         <v>982</v>
       </c>
       <c r="B485" s="34" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="C485" s="11" t="s">
         <v>982</v>
       </c>
       <c r="D485" s="35" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="E485" s="3">
         <v>1743</v>
@@ -14322,13 +14321,13 @@
         <v>987</v>
       </c>
       <c r="B491" s="34" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="C491" s="11" t="s">
         <v>987</v>
       </c>
       <c r="D491" s="35" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="E491" s="3">
         <v>649</v>
@@ -14426,13 +14425,13 @@
         <v>994</v>
       </c>
       <c r="B498" s="34" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="C498" s="11" t="s">
         <v>994</v>
       </c>
       <c r="D498" s="35" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="E498" s="3">
         <v>5829</v>
@@ -14647,16 +14646,16 @@
     </row>
     <row r="513" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A513" s="7" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B513" s="34" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C513" s="11" t="s">
         <v>1776</v>
       </c>
-      <c r="B513" s="34" t="s">
-        <v>1775</v>
-      </c>
-      <c r="C513" s="11" t="s">
-        <v>1777</v>
-      </c>
       <c r="D513" s="24" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="E513" s="3">
         <v>1632</v>
@@ -15158,13 +15157,13 @@
         <v>1045</v>
       </c>
       <c r="B550" s="34" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="C550" s="11" t="s">
         <v>1045</v>
       </c>
       <c r="D550" s="35" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="E550" s="3">
         <v>1552</v>
@@ -15199,16 +15198,16 @@
     </row>
     <row r="553" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A553" s="7" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B553" s="34" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C553" s="11" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D553" s="35" t="s">
         <v>1796</v>
-      </c>
-      <c r="B553" s="34" t="s">
-        <v>1798</v>
-      </c>
-      <c r="C553" s="11" t="s">
-        <v>1795</v>
-      </c>
-      <c r="D553" s="35" t="s">
-        <v>1797</v>
       </c>
       <c r="E553" s="3">
         <v>2048</v>
@@ -15296,13 +15295,13 @@
         <v>1054</v>
       </c>
       <c r="B560" s="34" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="C560" s="11" t="s">
         <v>1054</v>
       </c>
       <c r="D560" s="35" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="E560" s="3">
         <v>1146</v>
@@ -15328,13 +15327,13 @@
         <v>1056</v>
       </c>
       <c r="B562" s="34" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="C562" s="11" t="s">
         <v>1056</v>
       </c>
       <c r="D562" s="35" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="E562" s="3">
         <v>2445</v>
@@ -15372,13 +15371,13 @@
         <v>1059</v>
       </c>
       <c r="B565" s="34" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="C565" s="11" t="s">
         <v>1059</v>
       </c>
       <c r="D565" s="24" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="E565" s="3">
         <v>1247</v>
@@ -15593,16 +15592,16 @@
     </row>
     <row r="579" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A579" s="7" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B579" s="34" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C579" s="7" t="s">
+        <v>1788</v>
+      </c>
+      <c r="D579" s="24" t="s">
         <v>1789</v>
-      </c>
-      <c r="B579" s="34" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C579" s="7" t="s">
-        <v>1789</v>
-      </c>
-      <c r="D579" s="24" t="s">
-        <v>1790</v>
       </c>
       <c r="E579" s="3">
         <v>674</v>
@@ -15622,7 +15621,7 @@
         <v>1073</v>
       </c>
       <c r="D580" s="35" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="E580" s="3">
         <v>1869</v>
@@ -15823,16 +15822,16 @@
     </row>
     <row r="595" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A595" s="7" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B595" s="34" t="s">
         <v>1686</v>
       </c>
-      <c r="B595" s="34" t="s">
+      <c r="C595" s="7" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D595" s="24" t="s">
         <v>1687</v>
-      </c>
-      <c r="C595" s="7" t="s">
-        <v>1686</v>
-      </c>
-      <c r="D595" s="24" t="s">
-        <v>1688</v>
       </c>
       <c r="E595" s="3">
         <v>411</v>
@@ -16238,13 +16237,13 @@
         <v>1116</v>
       </c>
       <c r="B626" s="34" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="C626" s="11" t="s">
         <v>1116</v>
       </c>
       <c r="D626" s="35" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="E626" s="3">
         <v>3381</v>
@@ -16270,13 +16269,13 @@
         <v>1118</v>
       </c>
       <c r="B628" s="34" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="C628" s="11" t="s">
         <v>1118</v>
       </c>
       <c r="D628" s="35" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="E628" s="3">
         <v>1945</v>
@@ -16302,7 +16301,7 @@
         <v>1120</v>
       </c>
       <c r="B630" s="34" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="C630" s="11" t="s">
         <v>1120</v>
@@ -16313,16 +16312,16 @@
     </row>
     <row r="631" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A631" s="7" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B631" s="34" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C631" s="11" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D631" s="35" t="s">
         <v>1848</v>
-      </c>
-      <c r="B631" s="34" t="s">
-        <v>1850</v>
-      </c>
-      <c r="C631" s="11" t="s">
-        <v>1848</v>
-      </c>
-      <c r="D631" s="35" t="s">
-        <v>1849</v>
       </c>
       <c r="E631" s="3">
         <v>1715</v>
@@ -16373,16 +16372,16 @@
     </row>
     <row r="635" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A635" s="7" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="B635" s="34" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="C635" s="11" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="D635" s="24" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="E635" s="3">
         <v>5257</v>
@@ -16555,16 +16554,16 @@
     </row>
     <row r="649" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A649" s="14" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B649" s="34" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C649" s="14" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D649" s="35" t="s">
         <v>1767</v>
-      </c>
-      <c r="B649" s="34" t="s">
-        <v>1765</v>
-      </c>
-      <c r="C649" s="14" t="s">
-        <v>1766</v>
-      </c>
-      <c r="D649" s="35" t="s">
-        <v>1768</v>
       </c>
       <c r="E649" s="3">
         <v>444</v>
@@ -16575,13 +16574,13 @@
     </row>
     <row r="650" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A650" s="19" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="B650" s="34" t="s">
         <v>1564</v>
       </c>
       <c r="C650" s="19" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="D650" s="3"/>
       <c r="E650" s="3"/>
@@ -17009,11 +17008,11 @@
     </row>
     <row r="683" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A683" s="7" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="B683" s="30"/>
       <c r="C683" s="11" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="D683" s="3"/>
       <c r="E683" s="3"/>
@@ -17033,16 +17032,16 @@
     </row>
     <row r="685" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A685" s="7" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B685" s="34" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C685" s="7" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D685" s="35" t="s">
         <v>1855</v>
-      </c>
-      <c r="B685" s="34" t="s">
-        <v>1857</v>
-      </c>
-      <c r="C685" s="7" t="s">
-        <v>1855</v>
-      </c>
-      <c r="D685" s="35" t="s">
-        <v>1856</v>
       </c>
       <c r="E685" s="3">
         <v>1082</v>
@@ -17085,16 +17084,16 @@
     </row>
     <row r="688" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A688" s="7" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B688" s="29" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="C688" s="11" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="D688" s="24" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="E688" s="3">
         <v>1770</v>
@@ -17438,13 +17437,13 @@
         <v>1192</v>
       </c>
       <c r="B714" s="34" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="C714" s="11" t="s">
         <v>1192</v>
       </c>
       <c r="D714" s="35" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="E714" s="3">
         <v>2028</v>
@@ -17613,16 +17612,16 @@
     </row>
     <row r="726" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A726" s="7" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B726" s="29" t="s">
         <v>1959</v>
       </c>
-      <c r="B726" s="29" t="s">
+      <c r="C726" s="7" t="s">
+        <v>1958</v>
+      </c>
+      <c r="D726" s="35" t="s">
         <v>1960</v>
-      </c>
-      <c r="C726" s="7" t="s">
-        <v>1959</v>
-      </c>
-      <c r="D726" s="35" t="s">
-        <v>1961</v>
       </c>
       <c r="E726" s="3">
         <v>5097</v>
@@ -17732,13 +17731,13 @@
         <v>1212</v>
       </c>
       <c r="B735" s="34" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="C735" s="11" t="s">
         <v>1212</v>
       </c>
       <c r="D735" s="35" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="E735" s="3">
         <v>402</v>
@@ -17879,16 +17878,16 @@
     </row>
     <row r="744" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A744" s="6" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B744" s="34" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C744" s="6" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D744" s="35" t="s">
         <v>1679</v>
-      </c>
-      <c r="B744" s="34" t="s">
-        <v>1681</v>
-      </c>
-      <c r="C744" s="6" t="s">
-        <v>1679</v>
-      </c>
-      <c r="D744" s="35" t="s">
-        <v>1680</v>
       </c>
       <c r="E744" s="3">
         <v>324</v>
@@ -17911,16 +17910,16 @@
     </row>
     <row r="746" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A746" s="7" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B746" s="34" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C746" s="11" t="s">
         <v>1886</v>
       </c>
-      <c r="B746" s="34" t="s">
+      <c r="D746" s="35" t="s">
         <v>1884</v>
-      </c>
-      <c r="C746" s="11" t="s">
-        <v>1887</v>
-      </c>
-      <c r="D746" s="35" t="s">
-        <v>1885</v>
       </c>
       <c r="E746" s="3">
         <v>1265</v>
@@ -17931,16 +17930,16 @@
     </row>
     <row r="747" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A747" s="7" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="B747" s="34" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C747" s="7" t="s">
         <v>1889</v>
       </c>
-      <c r="C747" s="7" t="s">
-        <v>1890</v>
-      </c>
       <c r="D747" s="35" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="E747" s="3">
         <v>1039</v>
@@ -18216,13 +18215,13 @@
         <v>1239</v>
       </c>
       <c r="B767" s="34" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="C767" s="11" t="s">
         <v>1239</v>
       </c>
       <c r="D767" s="35" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="E767" s="3">
         <v>4715</v>
@@ -18269,16 +18268,16 @@
     </row>
     <row r="771" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A771" s="7" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="B771" s="34" t="s">
+        <v>1799</v>
+      </c>
+      <c r="C771" s="7" t="s">
         <v>1800</v>
       </c>
-      <c r="C771" s="7" t="s">
-        <v>1801</v>
-      </c>
       <c r="D771" s="35" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="E771" s="3">
         <v>2075</v>
@@ -18360,13 +18359,13 @@
         <v>1248</v>
       </c>
       <c r="B777" s="34" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="C777" s="11" t="s">
         <v>1248</v>
       </c>
       <c r="D777" s="35" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="E777" s="3">
         <v>3305</v>
@@ -18554,13 +18553,13 @@
         <v>1262</v>
       </c>
       <c r="B791" s="34" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="C791" s="11" t="s">
         <v>1262</v>
       </c>
       <c r="D791" s="35" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="E791" s="3">
         <v>1700</v>
@@ -18700,13 +18699,13 @@
         <v>1272</v>
       </c>
       <c r="B801" s="34" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="C801" s="11" t="s">
         <v>1272</v>
       </c>
       <c r="D801" s="35" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="E801" s="3">
         <v>2040</v>
@@ -18720,7 +18719,7 @@
         <v>1273</v>
       </c>
       <c r="B802" s="34" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="C802" s="11" t="s">
         <v>1273</v>
@@ -18986,7 +18985,7 @@
         <v>1293</v>
       </c>
       <c r="B822" s="34" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="C822" s="11" t="s">
         <v>1293</v>
@@ -19117,11 +19116,11 @@
     </row>
     <row r="832" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A832" s="7" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="B832" s="30"/>
       <c r="C832" s="7" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="D832" s="3"/>
       <c r="E832" s="3"/>
@@ -19234,7 +19233,7 @@
         <v>1310</v>
       </c>
       <c r="B840" s="34" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="C840" s="11" t="s">
         <v>1310</v>
@@ -19249,16 +19248,16 @@
     </row>
     <row r="841" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A841" s="7" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B841" s="34" t="s">
         <v>1923</v>
       </c>
-      <c r="B841" s="34" t="s">
+      <c r="C841" s="7" t="s">
+        <v>1922</v>
+      </c>
+      <c r="D841" s="24" t="s">
         <v>1924</v>
-      </c>
-      <c r="C841" s="7" t="s">
-        <v>1923</v>
-      </c>
-      <c r="D841" s="24" t="s">
-        <v>1925</v>
       </c>
       <c r="E841" s="3">
         <v>1631</v>
@@ -19269,16 +19268,16 @@
     </row>
     <row r="842" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A842" s="7" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B842" s="34" t="s">
+        <v>1927</v>
+      </c>
+      <c r="C842" s="7" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D842" s="24" t="s">
         <v>1926</v>
-      </c>
-      <c r="B842" s="34" t="s">
-        <v>1928</v>
-      </c>
-      <c r="C842" s="7" t="s">
-        <v>1926</v>
-      </c>
-      <c r="D842" s="24" t="s">
-        <v>1927</v>
       </c>
       <c r="E842" s="3">
         <v>1054</v>
@@ -19365,16 +19364,16 @@
     </row>
     <row r="849" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A849" s="7" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B849" s="34" t="s">
         <v>1953</v>
       </c>
-      <c r="B849" s="34" t="s">
+      <c r="C849" s="7" t="s">
+        <v>1952</v>
+      </c>
+      <c r="D849" s="24" t="s">
         <v>1954</v>
-      </c>
-      <c r="C849" s="7" t="s">
-        <v>1953</v>
-      </c>
-      <c r="D849" s="24" t="s">
-        <v>1955</v>
       </c>
       <c r="E849" s="3">
         <v>882</v>
@@ -19415,11 +19414,11 @@
     </row>
     <row r="852" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A852" s="7" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="B852" s="30"/>
       <c r="C852" s="7" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D852" s="3"/>
       <c r="E852" s="3"/>
@@ -19536,13 +19535,13 @@
         <v>1326</v>
       </c>
       <c r="B861" s="34" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="C861" s="11" t="s">
         <v>1326</v>
       </c>
       <c r="D861" s="35" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="E861" s="3">
         <v>800</v>
@@ -19636,13 +19635,13 @@
         <v>1333</v>
       </c>
       <c r="B868" s="34" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="C868" s="11" t="s">
         <v>1333</v>
       </c>
       <c r="D868" s="35" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="E868" s="3">
         <v>5178</v>
@@ -19691,16 +19690,16 @@
     </row>
     <row r="872" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A872" s="11" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B872" s="34" t="s">
         <v>1824</v>
       </c>
-      <c r="B872" s="34" t="s">
+      <c r="C872" s="11" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D872" s="35" t="s">
         <v>1825</v>
-      </c>
-      <c r="C872" s="11" t="s">
-        <v>1824</v>
-      </c>
-      <c r="D872" s="35" t="s">
-        <v>1826</v>
       </c>
       <c r="E872" s="3">
         <v>838</v>
@@ -19711,16 +19710,16 @@
     </row>
     <row r="873" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A873" s="11" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="B873" s="34" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="C873" s="11" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="D873" s="35" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="E873" s="3">
         <v>1351</v>
@@ -19803,16 +19802,16 @@
     </row>
     <row r="880" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A880" s="7" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B880" s="34" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C880" s="11" t="s">
+        <v>1820</v>
+      </c>
+      <c r="D880" s="35" t="s">
         <v>1822</v>
-      </c>
-      <c r="B880" s="34" t="s">
-        <v>1820</v>
-      </c>
-      <c r="C880" s="11" t="s">
-        <v>1821</v>
-      </c>
-      <c r="D880" s="35" t="s">
-        <v>1823</v>
       </c>
       <c r="E880" s="3">
         <v>1999</v>
@@ -19850,13 +19849,13 @@
         <v>1345</v>
       </c>
       <c r="B883" s="34" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="C883" s="11" t="s">
         <v>1345</v>
       </c>
       <c r="D883" s="35" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="E883" s="3">
         <v>733</v>
@@ -20040,13 +20039,13 @@
         <v>1357</v>
       </c>
       <c r="B897" s="34" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C897" s="11" t="s">
         <v>1357</v>
       </c>
       <c r="D897" s="35" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="E897" s="3">
         <v>1382</v>
@@ -20243,16 +20242,16 @@
     </row>
     <row r="912" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A912" s="7" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B912" s="34" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C912" s="7" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D912" s="24" t="s">
         <v>1631</v>
-      </c>
-      <c r="B912" s="34" t="s">
-        <v>1633</v>
-      </c>
-      <c r="C912" s="7" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D912" s="24" t="s">
-        <v>1632</v>
       </c>
       <c r="E912" s="3">
         <v>1744</v>
@@ -20278,13 +20277,13 @@
         <v>8</v>
       </c>
       <c r="B914" s="34" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="C914" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D914" s="35" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="E914" s="3">
         <v>2639</v>
@@ -20367,19 +20366,19 @@
     </row>
     <row r="921" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A921" s="7" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B921" s="34" t="s">
         <v>1918</v>
       </c>
-      <c r="B921" s="34" t="s">
+      <c r="C921" s="7" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D921" s="35" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E921" s="3" t="s">
         <v>1919</v>
-      </c>
-      <c r="C921" s="7" t="s">
-        <v>1918</v>
-      </c>
-      <c r="D921" s="35" t="s">
-        <v>1921</v>
-      </c>
-      <c r="E921" s="3" t="s">
-        <v>1920</v>
       </c>
       <c r="F921" s="3" t="s">
         <v>1578</v>
@@ -20644,13 +20643,13 @@
         <v>1386</v>
       </c>
       <c r="B942" s="34" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="C942" s="11" t="s">
         <v>1386</v>
       </c>
       <c r="D942" s="35" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="E942" s="3">
         <v>4730</v>
@@ -20661,16 +20660,16 @@
     </row>
     <row r="943" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A943" s="7" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B943" s="34" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C943" s="7" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D943" s="35" t="s">
         <v>1732</v>
-      </c>
-      <c r="B943" s="34" t="s">
-        <v>1734</v>
-      </c>
-      <c r="C943" s="7" t="s">
-        <v>1732</v>
-      </c>
-      <c r="D943" s="35" t="s">
-        <v>1733</v>
       </c>
       <c r="E943" s="3">
         <v>177</v>
@@ -20728,7 +20727,7 @@
         <v>1390</v>
       </c>
       <c r="D947" s="24" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="E947" s="3">
         <v>9494</v>
@@ -20739,11 +20738,11 @@
     </row>
     <row r="948" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A948" s="7" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="B948" s="34"/>
       <c r="C948" s="11" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="D948" s="24"/>
       <c r="E948" s="3"/>
@@ -20918,13 +20917,13 @@
         <v>1403</v>
       </c>
       <c r="B961" s="34" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="C961" s="11" t="s">
         <v>1403</v>
       </c>
       <c r="D961" s="35" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="E961" s="3">
         <v>328</v>
@@ -21116,7 +21115,7 @@
         <v>452</v>
       </c>
       <c r="B976" s="34" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="C976" s="11" t="s">
         <v>452</v>
@@ -21127,13 +21126,13 @@
     </row>
     <row r="977" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A977" s="7" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B977" s="34" t="s">
         <v>1663</v>
       </c>
-      <c r="B977" s="34" t="s">
-        <v>1664</v>
-      </c>
       <c r="C977" s="7" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="D977" s="24"/>
       <c r="E977" s="3"/>
@@ -21639,16 +21638,16 @@
     </row>
     <row r="1014" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1014" s="7" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B1014" s="34" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C1014" s="7" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D1014" s="24" t="s">
         <v>1802</v>
-      </c>
-      <c r="B1014" s="34" t="s">
-        <v>1804</v>
-      </c>
-      <c r="C1014" s="7" t="s">
-        <v>1802</v>
-      </c>
-      <c r="D1014" s="24" t="s">
-        <v>1803</v>
       </c>
       <c r="E1014" s="3">
         <v>521</v>
@@ -21788,13 +21787,13 @@
         <v>1457</v>
       </c>
       <c r="B1024" s="34" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="C1024" s="11" t="s">
         <v>1457</v>
       </c>
       <c r="D1024" s="35" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="E1024" s="3">
         <v>839</v>
@@ -21805,16 +21804,16 @@
     </row>
     <row r="1025" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1025" s="7" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B1025" s="34" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C1025" s="7" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D1025" s="35" t="s">
         <v>1647</v>
-      </c>
-      <c r="B1025" s="34" t="s">
-        <v>1646</v>
-      </c>
-      <c r="C1025" s="7" t="s">
-        <v>1647</v>
-      </c>
-      <c r="D1025" s="35" t="s">
-        <v>1648</v>
       </c>
       <c r="E1025" s="3">
         <v>632</v>
@@ -22103,16 +22102,16 @@
     </row>
     <row r="1046" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1046" s="7" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B1046" s="34" t="s">
         <v>1704</v>
       </c>
-      <c r="B1046" s="34" t="s">
+      <c r="C1046" s="7" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D1046" s="35" t="s">
         <v>1705</v>
-      </c>
-      <c r="C1046" s="7" t="s">
-        <v>1704</v>
-      </c>
-      <c r="D1046" s="35" t="s">
-        <v>1706</v>
       </c>
       <c r="E1046" s="3">
         <v>2129</v>
@@ -22126,13 +22125,13 @@
         <v>1477</v>
       </c>
       <c r="B1047" s="34" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="C1047" s="11" t="s">
         <v>1477</v>
       </c>
       <c r="D1047" s="35" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="E1047" s="3">
         <v>2832</v>
@@ -22512,7 +22511,7 @@
         <v>1502</v>
       </c>
       <c r="D1075" s="35" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="E1075" s="3">
         <v>2726</v>
@@ -22532,7 +22531,7 @@
         <v>1503</v>
       </c>
       <c r="D1076" s="35" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="E1076" s="3">
         <v>3498</v>
@@ -22601,16 +22600,16 @@
     </row>
     <row r="1080" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1080" s="7" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B1080" s="29" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C1080" s="7" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D1080" s="24" t="s">
         <v>1602</v>
-      </c>
-      <c r="B1080" s="29" t="s">
-        <v>1604</v>
-      </c>
-      <c r="C1080" s="7" t="s">
-        <v>1602</v>
-      </c>
-      <c r="D1080" s="24" t="s">
-        <v>1603</v>
       </c>
       <c r="E1080" s="3">
         <v>996</v>
@@ -22621,16 +22620,16 @@
     </row>
     <row r="1081" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1081" s="7" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B1081" s="29" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C1081" s="7" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D1081" s="24" t="s">
         <v>1599</v>
-      </c>
-      <c r="B1081" s="29" t="s">
-        <v>1601</v>
-      </c>
-      <c r="C1081" s="7" t="s">
-        <v>1599</v>
-      </c>
-      <c r="D1081" s="24" t="s">
-        <v>1600</v>
       </c>
       <c r="E1081" s="3">
         <v>1186</v>
@@ -22641,16 +22640,16 @@
     </row>
     <row r="1082" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1082" s="7" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B1082" s="29" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C1082" s="7" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D1082" s="24" t="s">
         <v>1605</v>
-      </c>
-      <c r="B1082" s="29" t="s">
-        <v>1607</v>
-      </c>
-      <c r="C1082" s="7" t="s">
-        <v>1605</v>
-      </c>
-      <c r="D1082" s="24" t="s">
-        <v>1606</v>
       </c>
       <c r="E1082" s="3">
         <v>1706</v>
@@ -22661,16 +22660,16 @@
     </row>
     <row r="1083" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1083" s="11" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B1083" s="29" t="s">
         <v>1609</v>
       </c>
-      <c r="B1083" s="29" t="s">
-        <v>1610</v>
-      </c>
       <c r="C1083" s="11" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="D1083" s="24" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="E1083" s="3">
         <v>2580</v>
@@ -22724,7 +22723,7 @@
         <v>15</v>
       </c>
       <c r="D1086" s="24" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="E1086" s="3">
         <v>1061</v>
@@ -22888,16 +22887,16 @@
     </row>
     <row r="1100" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1100" s="6" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B1100" s="31" t="s">
         <v>1771</v>
       </c>
-      <c r="B1100" s="31" t="s">
+      <c r="C1100" s="6" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D1100" s="36" t="s">
         <v>1772</v>
-      </c>
-      <c r="C1100" s="6" t="s">
-        <v>1771</v>
-      </c>
-      <c r="D1100" s="36" t="s">
-        <v>1773</v>
       </c>
       <c r="E1100" s="1">
         <v>724</v>
@@ -23020,16 +23019,16 @@
     </row>
     <row r="1107" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1107" s="7" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B1107" s="38" t="s">
         <v>1915</v>
       </c>
-      <c r="B1107" s="38" t="s">
+      <c r="C1107" s="11" t="s">
+        <v>1914</v>
+      </c>
+      <c r="D1107" s="38" t="s">
         <v>1916</v>
-      </c>
-      <c r="C1107" s="11" t="s">
-        <v>1915</v>
-      </c>
-      <c r="D1107" s="38" t="s">
-        <v>1917</v>
       </c>
       <c r="E1107" s="3">
         <v>3509</v>
@@ -23106,16 +23105,16 @@
     </row>
     <row r="1112" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1112" s="6" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B1112" s="32" t="s">
         <v>1670</v>
       </c>
-      <c r="B1112" s="32" t="s">
+      <c r="C1112" s="6" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D1112" s="33" t="s">
         <v>1671</v>
-      </c>
-      <c r="C1112" s="6" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D1112" s="33" t="s">
-        <v>1672</v>
       </c>
       <c r="E1112" s="27">
         <v>950</v>
@@ -23273,13 +23272,13 @@
         <v>1593</v>
       </c>
       <c r="B1122" s="31" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="C1122" s="6" t="s">
         <v>1593</v>
       </c>
       <c r="D1122" s="36" t="s">
-        <v>1594</v>
+        <v>1965</v>
       </c>
       <c r="E1122" s="1">
         <v>817</v>
@@ -23290,16 +23289,16 @@
     </row>
     <row r="1123" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1123" s="6" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B1123" s="31" t="s">
         <v>1597</v>
       </c>
-      <c r="B1123" s="31" t="s">
-        <v>1598</v>
-      </c>
       <c r="C1123" s="6" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="D1123" s="36" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="E1123" s="1">
         <v>898</v>
@@ -23310,16 +23309,16 @@
     </row>
     <row r="1124" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1124" s="6" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B1124" s="37" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C1124" s="6" t="s">
+        <v>1618</v>
+      </c>
+      <c r="D1124" s="36" t="s">
         <v>1619</v>
-      </c>
-      <c r="B1124" s="37" t="s">
-        <v>1621</v>
-      </c>
-      <c r="C1124" s="6" t="s">
-        <v>1619</v>
-      </c>
-      <c r="D1124" s="36" t="s">
-        <v>1620</v>
       </c>
       <c r="E1124" s="1">
         <v>2051</v>
@@ -23330,16 +23329,16 @@
     </row>
     <row r="1125" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1125" s="6" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B1125" s="31" t="s">
         <v>1658</v>
       </c>
-      <c r="B1125" s="31" t="s">
+      <c r="C1125" s="6" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D1125" s="36" t="s">
         <v>1659</v>
-      </c>
-      <c r="C1125" s="6" t="s">
-        <v>1658</v>
-      </c>
-      <c r="D1125" s="36" t="s">
-        <v>1660</v>
       </c>
       <c r="E1125" s="1">
         <v>783</v>
@@ -23350,16 +23349,16 @@
     </row>
     <row r="1126" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1126" s="6" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="B1126" s="31" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C1126" s="6" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D1126" s="36" t="s">
         <v>1740</v>
-      </c>
-      <c r="C1126" s="6" t="s">
-        <v>1737</v>
-      </c>
-      <c r="D1126" s="36" t="s">
-        <v>1741</v>
       </c>
       <c r="E1126" s="1">
         <v>1067</v>
@@ -23370,16 +23369,16 @@
     </row>
     <row r="1127" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1127" s="6" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="B1127" s="31" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="C1127" s="6" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="D1127" s="36" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="E1127" s="1">
         <v>7781</v>
@@ -23390,16 +23389,16 @@
     </row>
     <row r="1128" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1128" s="6" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B1128" s="31" t="s">
         <v>1756</v>
       </c>
-      <c r="B1128" s="31" t="s">
+      <c r="C1128" s="6" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D1128" s="36" t="s">
         <v>1757</v>
-      </c>
-      <c r="C1128" s="6" t="s">
-        <v>1756</v>
-      </c>
-      <c r="D1128" s="36" t="s">
-        <v>1758</v>
       </c>
       <c r="E1128" s="1">
         <v>1390</v>
@@ -23410,16 +23409,16 @@
     </row>
     <row r="1129" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1129" s="6" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="B1129" s="31" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C1129" s="6" t="s">
         <v>1761</v>
       </c>
-      <c r="C1129" s="6" t="s">
-        <v>1762</v>
-      </c>
       <c r="D1129" s="36" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="E1129" s="1">
         <v>206</v>
@@ -23430,16 +23429,16 @@
     </row>
     <row r="1130" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1130" s="6" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="B1130" s="31" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C1130" s="6" t="s">
+        <v>1836</v>
+      </c>
+      <c r="D1130" s="36" t="s">
         <v>1839</v>
-      </c>
-      <c r="C1130" s="6" t="s">
-        <v>1837</v>
-      </c>
-      <c r="D1130" s="36" t="s">
-        <v>1840</v>
       </c>
       <c r="E1130" s="1">
         <v>2154</v>
@@ -23450,16 +23449,16 @@
     </row>
     <row r="1131" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1131" s="6" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B1131" s="31" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C1131" s="6" t="s">
         <v>1841</v>
       </c>
-      <c r="B1131" s="31" t="s">
+      <c r="D1131" s="36" t="s">
         <v>1843</v>
-      </c>
-      <c r="C1131" s="6" t="s">
-        <v>1842</v>
-      </c>
-      <c r="D1131" s="36" t="s">
-        <v>1844</v>
       </c>
       <c r="E1131" s="1">
         <v>1005</v>
@@ -23470,16 +23469,16 @@
     </row>
     <row r="1132" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1132" s="6" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B1132" s="31" t="s">
         <v>1863</v>
       </c>
-      <c r="B1132" s="31" t="s">
+      <c r="C1132" s="6" t="s">
+        <v>1862</v>
+      </c>
+      <c r="D1132" s="36" t="s">
         <v>1864</v>
-      </c>
-      <c r="C1132" s="6" t="s">
-        <v>1863</v>
-      </c>
-      <c r="D1132" s="36" t="s">
-        <v>1865</v>
       </c>
       <c r="E1132" s="1">
         <v>1539</v>
@@ -23934,205 +23933,204 @@
     <hyperlink ref="B765" r:id="rId438" xr:uid="{3029165A-7D55-4E93-905F-AFDD347A257E}"/>
     <hyperlink ref="D576" r:id="rId439" xr:uid="{D226F5E9-7E9D-4886-B8F4-4682196B302E}"/>
     <hyperlink ref="B576" r:id="rId440" xr:uid="{43511C25-750E-432B-AD9F-D0A3EFB14E88}"/>
-    <hyperlink ref="D1122" r:id="rId441" xr:uid="{0E0BB562-09B8-47FD-8F10-940012AB5FBF}"/>
-    <hyperlink ref="B1122" r:id="rId442" xr:uid="{07B391AE-5946-4981-8037-7D7007BA4B48}"/>
-    <hyperlink ref="D1123" r:id="rId443" xr:uid="{50B3C860-655B-46B4-B35D-ADF7DA5C36E3}"/>
-    <hyperlink ref="B1123" r:id="rId444" xr:uid="{C5DC3C7E-2124-4C99-9A4E-D61F23F1EB3F}"/>
-    <hyperlink ref="B1080" r:id="rId445" xr:uid="{4E176757-05D7-43EF-8D91-B7CC2A5FF687}"/>
-    <hyperlink ref="B1083" r:id="rId446" xr:uid="{670A6523-7387-4052-AA4A-00B719CEC93B}"/>
-    <hyperlink ref="D897" r:id="rId447" xr:uid="{D1D045E7-335A-4135-99D2-E736D1163F60}"/>
-    <hyperlink ref="B897" r:id="rId448" xr:uid="{DE37B11A-0E4D-41C8-821B-6D13789938DA}"/>
-    <hyperlink ref="D861" r:id="rId449" xr:uid="{7494C7DD-01F7-4113-88C9-827BD7EB36CF}"/>
-    <hyperlink ref="B861" r:id="rId450" xr:uid="{61DBE9CA-C223-4D3C-87E6-7FCFCDECA17E}"/>
-    <hyperlink ref="D177" r:id="rId451" xr:uid="{E4B4CACF-EAE5-4C04-BE31-F195FF4CA3DB}"/>
-    <hyperlink ref="B177" r:id="rId452" xr:uid="{FCD07469-74A4-497A-BB7C-1F1CD8E1B5A2}"/>
-    <hyperlink ref="D714" r:id="rId453" xr:uid="{B33BB05A-AD38-4B90-AB69-7B7BE9E4C125}"/>
-    <hyperlink ref="B714" r:id="rId454" xr:uid="{97E546D9-771F-4611-A8F7-A28CCCC64EF5}"/>
-    <hyperlink ref="D1124" r:id="rId455" xr:uid="{9B8B9315-59CB-4C84-943D-F70D96621977}"/>
-    <hyperlink ref="B1124" r:id="rId456" xr:uid="{2D375770-A8C8-4208-9A8B-F7F840A4CA8F}"/>
-    <hyperlink ref="D883" r:id="rId457" xr:uid="{4EBDA85A-A8A4-452E-BA2A-F5B475F66C21}"/>
-    <hyperlink ref="B883" r:id="rId458" xr:uid="{A6468EB7-3ADA-4672-BFAD-D67BEA2187B3}"/>
-    <hyperlink ref="D628" r:id="rId459" xr:uid="{4AE9BE7F-3073-41C3-ACBE-84E952574694}"/>
-    <hyperlink ref="B628" r:id="rId460" xr:uid="{8F2F7149-524E-455A-B318-03CF264E9245}"/>
-    <hyperlink ref="D580" r:id="rId461" xr:uid="{0A65202A-5592-40DB-B614-B5DBF65CD84F}"/>
-    <hyperlink ref="D491" r:id="rId462" xr:uid="{272FF95A-5259-4214-B538-9596679F10AD}"/>
-    <hyperlink ref="B491" r:id="rId463" xr:uid="{511D4815-6158-40A9-AE6B-6DF8999DACD9}"/>
-    <hyperlink ref="B550" r:id="rId464" xr:uid="{EE4CB52C-D72E-4753-8F08-F95AB48FAFA9}"/>
-    <hyperlink ref="D550" r:id="rId465" xr:uid="{B4AE499B-B856-4CB8-85EB-317C0E41FC8A}"/>
-    <hyperlink ref="B912" r:id="rId466" xr:uid="{FD20F948-7C14-43F0-91A5-F7D4D7E25A80}"/>
-    <hyperlink ref="D498" r:id="rId467" xr:uid="{1FCE279C-4A1D-426B-896B-7F6C1F733455}"/>
-    <hyperlink ref="B498" r:id="rId468" xr:uid="{97F8221E-B37A-46F7-A8C5-E6BCAAA4B74E}"/>
-    <hyperlink ref="B432" r:id="rId469" xr:uid="{D5474B3C-4698-4638-968B-8D74AFCA0313}"/>
-    <hyperlink ref="D409" r:id="rId470" xr:uid="{5C9DEDD6-AC06-4B71-8A97-39D8D529D53E}"/>
-    <hyperlink ref="D298" r:id="rId471" xr:uid="{27B1B4AF-A35B-44CA-B2A7-F48FD089E445}"/>
-    <hyperlink ref="D15" r:id="rId472" xr:uid="{44E22B81-51F2-4C9F-87D8-34F97D8D9990}"/>
-    <hyperlink ref="B15" r:id="rId473" xr:uid="{EB81A75E-0502-4D82-BFD1-1266CBFF44DE}"/>
-    <hyperlink ref="D1024" r:id="rId474" xr:uid="{FACF2C8C-49C6-4071-81AE-C7557F64D74A}"/>
-    <hyperlink ref="B1024" r:id="rId475" xr:uid="{96685B2C-A600-441B-A3F4-4D7818D2DB5D}"/>
-    <hyperlink ref="B1025" r:id="rId476" xr:uid="{F1394B5B-B948-4328-A298-7FD3AD25159C}"/>
-    <hyperlink ref="D1076" r:id="rId477" xr:uid="{267599C9-8031-4247-B36B-110323D74622}"/>
-    <hyperlink ref="B75" r:id="rId478" xr:uid="{50A2E7E7-7F17-4CA2-8CD9-AD91642B307E}"/>
-    <hyperlink ref="B565" r:id="rId479" xr:uid="{EBA89B21-B627-4262-B036-9B7B763682AA}"/>
-    <hyperlink ref="B1125" r:id="rId480" xr:uid="{F777CB0B-CF29-4F10-84AD-389868A8F2B1}"/>
-    <hyperlink ref="D1125" r:id="rId481" xr:uid="{48D7257C-B331-4DAD-9CF2-BE110979FC6F}"/>
-    <hyperlink ref="B976" r:id="rId482" xr:uid="{5A37F183-E8F4-4712-8C2E-90DF773381F8}"/>
-    <hyperlink ref="B977" r:id="rId483" xr:uid="{B975BDE8-226B-49A1-90D7-96C178509537}"/>
-    <hyperlink ref="D25" r:id="rId484" xr:uid="{E9EBBA20-E1D9-40B8-AF6B-D8C275B3C72A}"/>
-    <hyperlink ref="B25" r:id="rId485" xr:uid="{5E6DF5E0-24D3-4F89-9E7D-6D9A6C3ACF5F}"/>
-    <hyperlink ref="B20" r:id="rId486" xr:uid="{25DA848F-1BB7-4E2F-875A-D5819A38AA33}"/>
-    <hyperlink ref="B1112" r:id="rId487" xr:uid="{03270EBC-E58D-4DE7-B4AC-2AF3466EDF8C}"/>
-    <hyperlink ref="D1112" r:id="rId488" xr:uid="{05F6D115-6BA9-4F55-B798-F7D2746BAC71}"/>
-    <hyperlink ref="D76" r:id="rId489" xr:uid="{1A83DC5D-092A-4142-A9C5-013E1A0F7BB7}"/>
-    <hyperlink ref="B76" r:id="rId490" xr:uid="{20B08C63-FF8F-4D82-90E9-82C7746B59E5}"/>
-    <hyperlink ref="D744" r:id="rId491" xr:uid="{ECCD40B9-01A9-49E7-B530-DAA46DAC126D}"/>
-    <hyperlink ref="B744" r:id="rId492" xr:uid="{52D5500E-A43B-4490-8C14-9B7DA298B8BB}"/>
-    <hyperlink ref="B77" r:id="rId493" xr:uid="{85298341-5C89-4968-BF19-72110BED8C17}"/>
-    <hyperlink ref="B270" r:id="rId494" xr:uid="{AF8097D4-3514-4A6C-A406-0AE2E9E04CBD}"/>
-    <hyperlink ref="B595" r:id="rId495" xr:uid="{C14FF422-ABAD-4901-B0AB-F821413E0A17}"/>
-    <hyperlink ref="D595" r:id="rId496" xr:uid="{E4196CEC-B5F4-4289-90B9-086397146214}"/>
-    <hyperlink ref="D21" r:id="rId497" xr:uid="{5CEC4FAF-ED98-4FF8-AB04-835D60A36800}"/>
-    <hyperlink ref="B21" r:id="rId498" xr:uid="{9A8DAE3B-9FAA-473F-9DDC-0F1C6254F817}"/>
-    <hyperlink ref="B337" r:id="rId499" xr:uid="{EEE21C52-AC12-440E-9E10-37731C7A1B54}"/>
-    <hyperlink ref="D337" r:id="rId500" xr:uid="{928AA68A-95C6-4074-8438-928C256B0D55}"/>
-    <hyperlink ref="D269" r:id="rId501" xr:uid="{BEE119AC-D328-470B-AFAE-CCA76E268602}"/>
-    <hyperlink ref="B269" r:id="rId502" xr:uid="{1E2193B6-EDCF-4B5D-B52A-A73828B956AE}"/>
-    <hyperlink ref="D688" r:id="rId503" xr:uid="{F8922E0E-1C9D-4D2C-94C5-2E8A84BEADDD}"/>
-    <hyperlink ref="B688" r:id="rId504" xr:uid="{F8C4D6E2-CACD-4FA0-9E42-6121116E519A}"/>
-    <hyperlink ref="D1047" r:id="rId505" xr:uid="{2B64C0B5-A7E9-4FED-AE0A-4A06ADFA3FC1}"/>
-    <hyperlink ref="B1047" r:id="rId506" xr:uid="{0644A571-BBFB-40D0-AC87-0AA6A024115B}"/>
-    <hyperlink ref="B1046" r:id="rId507" xr:uid="{E3135438-2E6E-4A70-ACA9-BF27088F8EB4}"/>
-    <hyperlink ref="D1046" r:id="rId508" xr:uid="{CAD8B6E5-2858-437F-A1D7-02D015D890F3}"/>
-    <hyperlink ref="B338" r:id="rId509" xr:uid="{6CFA0601-5DCE-426F-AB2D-8017A6BECD8D}"/>
-    <hyperlink ref="B339" r:id="rId510" xr:uid="{95C931FE-C1D4-49DF-83CE-54E97153E648}"/>
-    <hyperlink ref="B271" r:id="rId511" xr:uid="{379BF6B8-0222-4B18-BC5A-C92C06BB8059}"/>
-    <hyperlink ref="B175" r:id="rId512" xr:uid="{ABF2BA8D-23B3-4299-A053-F4893287982E}"/>
-    <hyperlink ref="B822" r:id="rId513" xr:uid="{EAF59A80-D74F-4F64-8399-4469CAFCF802}"/>
-    <hyperlink ref="B164" r:id="rId514" xr:uid="{C339D852-F6F1-4E36-8A8E-E95640A113B1}"/>
-    <hyperlink ref="D801" r:id="rId515" xr:uid="{44135364-AFC0-49E5-8131-58361465EFDC}"/>
-    <hyperlink ref="B801" r:id="rId516" xr:uid="{9D10C2F9-F353-45A0-BA72-DDB3ED904862}"/>
-    <hyperlink ref="B626" r:id="rId517" xr:uid="{924D477D-A847-425F-A556-B59106F219B7}"/>
-    <hyperlink ref="D626" r:id="rId518" xr:uid="{5A4AA0CD-2D57-42B5-9B0C-3199D19C0C64}"/>
-    <hyperlink ref="D943" r:id="rId519" xr:uid="{FB5A265E-9166-4D05-B761-A256CE61E6AC}"/>
-    <hyperlink ref="B943" r:id="rId520" xr:uid="{944AB004-EA1B-4A1F-86FB-C38C2E35848A}"/>
-    <hyperlink ref="D961" r:id="rId521" xr:uid="{49864206-7B19-4729-BA67-2ACD17FA64F4}"/>
-    <hyperlink ref="B961" r:id="rId522" xr:uid="{05535C34-A75C-4503-9C35-5E3D587F1160}"/>
-    <hyperlink ref="B1126" r:id="rId523" xr:uid="{8E94957E-70AE-4DB0-BDC2-AC4F90BD07F4}"/>
-    <hyperlink ref="D1126" r:id="rId524" xr:uid="{B6CD8A95-BEFE-4065-BD8F-1AA91AE5B830}"/>
-    <hyperlink ref="B1127" r:id="rId525" xr:uid="{95896BA2-ED86-475C-9894-4D8C77944E2D}"/>
-    <hyperlink ref="B399" r:id="rId526" xr:uid="{E6557EB3-3A1D-4956-9BB7-9284F7106C3C}"/>
-    <hyperlink ref="B1128" r:id="rId527" xr:uid="{D551714E-3C11-4AE7-9427-B2458F9D1A95}"/>
-    <hyperlink ref="D1127" r:id="rId528" xr:uid="{C87CAD26-EE73-4119-9852-A02BCFAF13B0}"/>
-    <hyperlink ref="D1129" r:id="rId529" xr:uid="{CA9E9C45-7A71-4676-BDA6-FFCC3C7BFD89}"/>
-    <hyperlink ref="B1129" r:id="rId530" xr:uid="{77A51B37-DBDC-4D95-835B-7085787860BF}"/>
-    <hyperlink ref="B649" r:id="rId531" xr:uid="{DE42FC59-BCC1-47D3-94C7-16B4F2B29C55}"/>
-    <hyperlink ref="D649" r:id="rId532" xr:uid="{6E87EA17-8BDD-422F-80B2-B957B2A0163D}"/>
-    <hyperlink ref="D767" r:id="rId533" xr:uid="{33AC5AC9-036D-44E9-B378-0D923A5B7DAE}"/>
-    <hyperlink ref="B767" r:id="rId534" xr:uid="{5633AA61-BE61-423F-9FF4-E7261A2CC5AB}"/>
-    <hyperlink ref="B1100" r:id="rId535" xr:uid="{7C7B3F4B-54AE-4141-8FFD-55600EA0DDBC}"/>
-    <hyperlink ref="D1100" r:id="rId536" xr:uid="{61D461CA-2846-4FB6-83FC-F85C4E67CD2E}"/>
-    <hyperlink ref="D513" r:id="rId537" xr:uid="{FC25D8B4-302E-41C6-A782-E92EAEADFE10}"/>
-    <hyperlink ref="B513" r:id="rId538" xr:uid="{CEA47847-CF3C-4065-AADE-80238C211C80}"/>
-    <hyperlink ref="D735" r:id="rId539" xr:uid="{335D8AD6-266E-4BB6-818F-6A5F831F59E9}"/>
-    <hyperlink ref="B735" r:id="rId540" xr:uid="{E8A98206-CB3F-4B1D-B57C-8EE96F53F796}"/>
-    <hyperlink ref="B54" r:id="rId541" xr:uid="{70147BC3-01C5-4131-B7D8-2F6C8C9C9FF8}"/>
-    <hyperlink ref="B579" r:id="rId542" xr:uid="{6E6C39B2-9C8B-4D58-A296-289ECE9AEA2A}"/>
-    <hyperlink ref="D579" r:id="rId543" xr:uid="{1A810901-466D-4B21-82B6-E83A95DD0974}"/>
-    <hyperlink ref="D72" r:id="rId544" xr:uid="{EC074ED2-0862-41AB-87AF-8E8BEBBEA1FB}"/>
-    <hyperlink ref="B72" r:id="rId545" xr:uid="{D37FF0E0-9898-4E6F-90B0-1BB3958A0451}"/>
-    <hyperlink ref="D553" r:id="rId546" xr:uid="{28A3D0A8-2C98-4957-A7D5-980219E4A71E}"/>
-    <hyperlink ref="B553" r:id="rId547" xr:uid="{6B3EFB47-9C33-4C5B-A8F1-4A8D6E776A22}"/>
-    <hyperlink ref="D771" r:id="rId548" xr:uid="{9B53D83E-5128-4161-9EC2-00C1841FE5C4}"/>
-    <hyperlink ref="B771" r:id="rId549" xr:uid="{381B7F6B-7115-4DCD-BF8C-94284BE1ECE9}"/>
-    <hyperlink ref="B1014" r:id="rId550" xr:uid="{F8BC4638-7292-4CF3-A0EF-FD7BBFB74294}"/>
-    <hyperlink ref="B393" r:id="rId551" xr:uid="{D4B0635E-DF3C-4129-9F98-55ED96747F6F}"/>
-    <hyperlink ref="D393" r:id="rId552" xr:uid="{C95B8479-D4BF-444C-B218-EE3327BAC486}"/>
-    <hyperlink ref="B635" r:id="rId553" xr:uid="{136CACC9-5DC7-4800-99AA-76A3E0237931}"/>
-    <hyperlink ref="D111" r:id="rId554" xr:uid="{511E02F2-81CE-4EC9-84C5-9619857EE00F}"/>
-    <hyperlink ref="B111" r:id="rId555" xr:uid="{6A861C24-7176-41E9-941C-090D7A5A0E67}"/>
-    <hyperlink ref="B91" r:id="rId556" xr:uid="{05A7911C-05BB-4AC1-8A0B-9D09ABF54618}"/>
-    <hyperlink ref="D868" r:id="rId557" xr:uid="{2757559B-B7FB-491E-A5DA-62F929D6AAD9}"/>
-    <hyperlink ref="B868" r:id="rId558" xr:uid="{9A9B79ED-C079-4515-A59C-4976474EE528}"/>
-    <hyperlink ref="B880" r:id="rId559" xr:uid="{3F95F9DA-16AF-4EBA-8070-DAEFCA75B99E}"/>
-    <hyperlink ref="D880" r:id="rId560" xr:uid="{B693B78D-FFF6-40CF-ABB4-5DB129A5B92C}"/>
-    <hyperlink ref="B872" r:id="rId561" xr:uid="{ABD0EF18-A399-4588-A1DA-DD3EAF47B4D9}"/>
-    <hyperlink ref="D872" r:id="rId562" xr:uid="{E58D6502-F46A-47E3-9C70-F13F85D43B69}"/>
-    <hyperlink ref="B80" r:id="rId563" xr:uid="{3A811EB8-0011-4779-81B0-945D171D73A6}"/>
-    <hyperlink ref="D873" r:id="rId564" xr:uid="{2C7E429C-5B0B-486F-9EDE-2F1C69A412F7}"/>
-    <hyperlink ref="B873" r:id="rId565" xr:uid="{0571C53B-ADB7-41DB-AA69-152C2C1E6BF3}"/>
-    <hyperlink ref="B1130" r:id="rId566" xr:uid="{99C4FAAC-CAFA-4AA8-8AF3-42FBAE1E90B8}"/>
-    <hyperlink ref="D1130" r:id="rId567" xr:uid="{4533B646-C5B7-4919-B8A1-5799310DAF7F}"/>
-    <hyperlink ref="B1131" r:id="rId568" xr:uid="{61B8AE5D-8849-49DF-A6EC-27025BBDBC6E}"/>
-    <hyperlink ref="D1131" r:id="rId569" xr:uid="{7AD56BF3-3235-4227-B7E7-2CFABE58203D}"/>
-    <hyperlink ref="D30" r:id="rId570" xr:uid="{341B89FD-2185-41E9-A6C7-21E5E92794C7}"/>
-    <hyperlink ref="B30" r:id="rId571" xr:uid="{8A195F81-1A3B-408C-B13D-483831D8C11C}"/>
-    <hyperlink ref="D631" r:id="rId572" xr:uid="{ADE056C0-ACA4-41A8-BF36-1846BEB0280D}"/>
-    <hyperlink ref="B631" r:id="rId573" xr:uid="{9B7C1A8B-5BD9-4A60-AA83-6869C9391D47}"/>
-    <hyperlink ref="B630" r:id="rId574" xr:uid="{A43B4DBC-905E-4ECC-B664-1C1AC734C387}"/>
-    <hyperlink ref="D560" r:id="rId575" xr:uid="{53AC5AD2-90FD-4594-8B6E-A040D81D1622}"/>
-    <hyperlink ref="B560" r:id="rId576" xr:uid="{FAF561CF-2B78-4EBA-92F3-8234F7F16E3F}"/>
-    <hyperlink ref="D685" r:id="rId577" xr:uid="{92C2DFED-4D6C-4A6C-B845-26E30C94B4B6}"/>
-    <hyperlink ref="B685" r:id="rId578" xr:uid="{3B18259B-2597-4404-B0D6-9A41812B69B3}"/>
-    <hyperlink ref="B132" r:id="rId579" xr:uid="{53117569-1A7F-40E0-B6F5-B035689CAF58}"/>
-    <hyperlink ref="B1132" r:id="rId580" xr:uid="{E013512B-6412-4490-8D23-C9542E2E9F89}"/>
-    <hyperlink ref="D1132" r:id="rId581" xr:uid="{B0632B8F-64BF-4AA7-8AD0-2FA507F20158}"/>
-    <hyperlink ref="D92" r:id="rId582" xr:uid="{26511810-2814-4E63-842F-4A9ADD80DDDD}"/>
-    <hyperlink ref="D777" r:id="rId583" xr:uid="{577A13DA-B168-4564-9FFA-F334A24FCE85}"/>
-    <hyperlink ref="B777" r:id="rId584" xr:uid="{ABA48AAD-9ED3-4DB9-BF87-5ACEE8FC9E92}"/>
-    <hyperlink ref="D138" r:id="rId585" xr:uid="{733DCAA9-7D44-401E-B72A-9B230B2FB698}"/>
-    <hyperlink ref="B282" r:id="rId586" xr:uid="{3C0FB985-1889-413A-817D-E9617E59F3CF}"/>
-    <hyperlink ref="D282" r:id="rId587" xr:uid="{B786FC1F-85ED-4657-8CF2-9CF1D8D0064A}"/>
-    <hyperlink ref="B281" r:id="rId588" xr:uid="{B55AAEFB-F3A3-47B7-8EF3-098767A1EE21}"/>
-    <hyperlink ref="D942" r:id="rId589" xr:uid="{CD64835A-E31E-49EA-A798-9C91B14BB364}"/>
-    <hyperlink ref="B942" r:id="rId590" xr:uid="{C1561C7C-694C-4086-A890-AB9DD01DFEB1}"/>
-    <hyperlink ref="B746" r:id="rId591" xr:uid="{E49DD8C7-7A09-4EB8-BB2E-A11B14DB3C01}"/>
-    <hyperlink ref="D746" r:id="rId592" xr:uid="{05C4F732-35DC-4F8E-A8E5-1AB1C213374C}"/>
-    <hyperlink ref="D747" r:id="rId593" xr:uid="{C7703C0E-AAD3-4F9B-9A80-8B45512B268A}"/>
-    <hyperlink ref="B747" r:id="rId594" xr:uid="{35769DF7-F3F3-4220-95F8-53E116D1DA01}"/>
-    <hyperlink ref="D947" r:id="rId595" xr:uid="{F315B06D-5838-4F0D-9634-543814985852}"/>
-    <hyperlink ref="D358" r:id="rId596" xr:uid="{D4E7F56F-8BEC-4C45-A5BD-13872996738D}"/>
-    <hyperlink ref="B562" r:id="rId597" xr:uid="{A736B246-DD80-46D7-93C6-6CB3273D2A17}"/>
-    <hyperlink ref="D562" r:id="rId598" xr:uid="{1DC84D8B-0C3A-4CA0-BD88-1A974E7F4E09}"/>
-    <hyperlink ref="B415" r:id="rId599" xr:uid="{F180520D-B5B2-4304-8171-076B170BF592}"/>
-    <hyperlink ref="B34" r:id="rId600" xr:uid="{5E3E8089-6D13-400A-B8F2-419A95CBF471}"/>
-    <hyperlink ref="D34" r:id="rId601" xr:uid="{97FED713-F69B-49E5-80D0-9A1482A83BD4}"/>
-    <hyperlink ref="D914" r:id="rId602" xr:uid="{401EF341-72D3-4300-A236-A1201084F654}"/>
-    <hyperlink ref="B914" r:id="rId603" xr:uid="{9E09F618-94B5-48D9-AA0F-9804E2AE76FF}"/>
-    <hyperlink ref="D1075" r:id="rId604" xr:uid="{DB0448BE-03C4-45AB-9138-B07A2E01465F}"/>
-    <hyperlink ref="B485" r:id="rId605" xr:uid="{198F1703-7E7C-4062-AD1C-F03FE6A0C95B}"/>
-    <hyperlink ref="D485" r:id="rId606" xr:uid="{BC36775A-741C-472D-8906-E27B41A46425}"/>
-    <hyperlink ref="B1107" r:id="rId607" xr:uid="{060EEB2E-72A3-474B-B48B-4489FB4E0019}"/>
-    <hyperlink ref="D1107" r:id="rId608" xr:uid="{866826E0-B049-428D-9449-170659E4D2E1}"/>
-    <hyperlink ref="B921" r:id="rId609" xr:uid="{B59F4D6E-520D-4AF5-9E05-B7A4D93EB92C}"/>
-    <hyperlink ref="D921" r:id="rId610" xr:uid="{ECEB81C1-A28D-4E50-8542-9E45B295B0B6}"/>
-    <hyperlink ref="B840" r:id="rId611" xr:uid="{C8487B09-A6EE-473B-AAE7-43FCC34FE759}"/>
-    <hyperlink ref="B841" r:id="rId612" xr:uid="{7FABCDD4-1A07-4619-BC48-EC56A2AEA943}"/>
-    <hyperlink ref="D841" r:id="rId613" xr:uid="{45A3AB8B-4935-4060-8095-CA02593321AF}"/>
-    <hyperlink ref="D842" r:id="rId614" xr:uid="{0F53F844-48C6-43DD-9E43-9972B91F5C2F}"/>
-    <hyperlink ref="B842" r:id="rId615" xr:uid="{E335446D-A753-4827-9258-FA9EEEB6FD9B}"/>
-    <hyperlink ref="B329" r:id="rId616" xr:uid="{6E332B1F-C8AA-4A19-B856-83E6C1C46F51}"/>
-    <hyperlink ref="B328" r:id="rId617" xr:uid="{E6F2D404-F547-43CE-AA71-41C59AF0D047}"/>
-    <hyperlink ref="D329" r:id="rId618" xr:uid="{70AB0045-1887-4C91-90DD-475F25FD9F75}"/>
-    <hyperlink ref="B207" r:id="rId619" xr:uid="{FF0EB79F-41B4-4D3F-958F-C731B3927666}"/>
-    <hyperlink ref="D207" r:id="rId620" xr:uid="{EE6647C0-8AF5-4793-90C0-AE2F8D5D1592}"/>
-    <hyperlink ref="D791" r:id="rId621" xr:uid="{061D3D33-50A2-4DF7-A8F5-1F08AF91CF76}"/>
-    <hyperlink ref="B791" r:id="rId622" xr:uid="{528710D4-502C-4757-B654-D6C9DFD1ADC0}"/>
-    <hyperlink ref="D112" r:id="rId623" xr:uid="{25AF43E7-D1EA-47CF-B86E-08C3CCC1FDF0}"/>
-    <hyperlink ref="B112" r:id="rId624" xr:uid="{F47203AF-82AF-45A4-8346-BA015BACC699}"/>
-    <hyperlink ref="B356" r:id="rId625" xr:uid="{BFC5DC13-5AFC-4824-A1AD-C8C498C5A753}"/>
-    <hyperlink ref="D356" r:id="rId626" xr:uid="{C8630277-4B06-44B0-9685-F652BCC33C65}"/>
-    <hyperlink ref="B358" r:id="rId627" xr:uid="{F08B8DCC-348A-4129-BB98-0EC4D72610C5}"/>
-    <hyperlink ref="B68" r:id="rId628" xr:uid="{20D050CA-9E57-46DA-A8B5-D28163E1257C}"/>
-    <hyperlink ref="D68" r:id="rId629" xr:uid="{607ED8B2-7CC7-4738-82E0-A389FC9E1744}"/>
-    <hyperlink ref="B802" r:id="rId630" xr:uid="{D4BECB0B-65AB-4CC7-A8CA-A1917758A9FC}"/>
-    <hyperlink ref="B849" r:id="rId631" xr:uid="{B599C0C3-C9DE-44D8-85EC-ED814756B5BD}"/>
-    <hyperlink ref="D291" r:id="rId632" xr:uid="{2C9A179A-1BB5-4375-9B28-104CA3F7B40C}"/>
-    <hyperlink ref="B726" r:id="rId633" xr:uid="{C3BB5FA0-DBE9-4E00-ADBF-BCF3D1FE3A6F}"/>
-    <hyperlink ref="D726" r:id="rId634" xr:uid="{DED0AC56-3F6F-465F-A52B-A4D58DBE1309}"/>
-    <hyperlink ref="D321" r:id="rId635" xr:uid="{83E541EB-DA46-4589-B390-F62B5A0E823E}"/>
-    <hyperlink ref="B321" r:id="rId636" xr:uid="{C1D1F303-8EF1-486C-ADA1-7249001947B4}"/>
+    <hyperlink ref="B1122" r:id="rId441" xr:uid="{07B391AE-5946-4981-8037-7D7007BA4B48}"/>
+    <hyperlink ref="D1123" r:id="rId442" xr:uid="{50B3C860-655B-46B4-B35D-ADF7DA5C36E3}"/>
+    <hyperlink ref="B1123" r:id="rId443" xr:uid="{C5DC3C7E-2124-4C99-9A4E-D61F23F1EB3F}"/>
+    <hyperlink ref="B1080" r:id="rId444" xr:uid="{4E176757-05D7-43EF-8D91-B7CC2A5FF687}"/>
+    <hyperlink ref="B1083" r:id="rId445" xr:uid="{670A6523-7387-4052-AA4A-00B719CEC93B}"/>
+    <hyperlink ref="D897" r:id="rId446" xr:uid="{D1D045E7-335A-4135-99D2-E736D1163F60}"/>
+    <hyperlink ref="B897" r:id="rId447" xr:uid="{DE37B11A-0E4D-41C8-821B-6D13789938DA}"/>
+    <hyperlink ref="D861" r:id="rId448" xr:uid="{7494C7DD-01F7-4113-88C9-827BD7EB36CF}"/>
+    <hyperlink ref="B861" r:id="rId449" xr:uid="{61DBE9CA-C223-4D3C-87E6-7FCFCDECA17E}"/>
+    <hyperlink ref="D177" r:id="rId450" xr:uid="{E4B4CACF-EAE5-4C04-BE31-F195FF4CA3DB}"/>
+    <hyperlink ref="B177" r:id="rId451" xr:uid="{FCD07469-74A4-497A-BB7C-1F1CD8E1B5A2}"/>
+    <hyperlink ref="D714" r:id="rId452" xr:uid="{B33BB05A-AD38-4B90-AB69-7B7BE9E4C125}"/>
+    <hyperlink ref="B714" r:id="rId453" xr:uid="{97E546D9-771F-4611-A8F7-A28CCCC64EF5}"/>
+    <hyperlink ref="D1124" r:id="rId454" xr:uid="{9B8B9315-59CB-4C84-943D-F70D96621977}"/>
+    <hyperlink ref="B1124" r:id="rId455" xr:uid="{2D375770-A8C8-4208-9A8B-F7F840A4CA8F}"/>
+    <hyperlink ref="D883" r:id="rId456" xr:uid="{4EBDA85A-A8A4-452E-BA2A-F5B475F66C21}"/>
+    <hyperlink ref="B883" r:id="rId457" xr:uid="{A6468EB7-3ADA-4672-BFAD-D67BEA2187B3}"/>
+    <hyperlink ref="D628" r:id="rId458" xr:uid="{4AE9BE7F-3073-41C3-ACBE-84E952574694}"/>
+    <hyperlink ref="B628" r:id="rId459" xr:uid="{8F2F7149-524E-455A-B318-03CF264E9245}"/>
+    <hyperlink ref="D580" r:id="rId460" xr:uid="{0A65202A-5592-40DB-B614-B5DBF65CD84F}"/>
+    <hyperlink ref="D491" r:id="rId461" xr:uid="{272FF95A-5259-4214-B538-9596679F10AD}"/>
+    <hyperlink ref="B491" r:id="rId462" xr:uid="{511D4815-6158-40A9-AE6B-6DF8999DACD9}"/>
+    <hyperlink ref="B550" r:id="rId463" xr:uid="{EE4CB52C-D72E-4753-8F08-F95AB48FAFA9}"/>
+    <hyperlink ref="D550" r:id="rId464" xr:uid="{B4AE499B-B856-4CB8-85EB-317C0E41FC8A}"/>
+    <hyperlink ref="B912" r:id="rId465" xr:uid="{FD20F948-7C14-43F0-91A5-F7D4D7E25A80}"/>
+    <hyperlink ref="D498" r:id="rId466" xr:uid="{1FCE279C-4A1D-426B-896B-7F6C1F733455}"/>
+    <hyperlink ref="B498" r:id="rId467" xr:uid="{97F8221E-B37A-46F7-A8C5-E6BCAAA4B74E}"/>
+    <hyperlink ref="B432" r:id="rId468" xr:uid="{D5474B3C-4698-4638-968B-8D74AFCA0313}"/>
+    <hyperlink ref="D409" r:id="rId469" xr:uid="{5C9DEDD6-AC06-4B71-8A97-39D8D529D53E}"/>
+    <hyperlink ref="D298" r:id="rId470" xr:uid="{27B1B4AF-A35B-44CA-B2A7-F48FD089E445}"/>
+    <hyperlink ref="D15" r:id="rId471" xr:uid="{44E22B81-51F2-4C9F-87D8-34F97D8D9990}"/>
+    <hyperlink ref="B15" r:id="rId472" xr:uid="{EB81A75E-0502-4D82-BFD1-1266CBFF44DE}"/>
+    <hyperlink ref="D1024" r:id="rId473" xr:uid="{FACF2C8C-49C6-4071-81AE-C7557F64D74A}"/>
+    <hyperlink ref="B1024" r:id="rId474" xr:uid="{96685B2C-A600-441B-A3F4-4D7818D2DB5D}"/>
+    <hyperlink ref="B1025" r:id="rId475" xr:uid="{F1394B5B-B948-4328-A298-7FD3AD25159C}"/>
+    <hyperlink ref="D1076" r:id="rId476" xr:uid="{267599C9-8031-4247-B36B-110323D74622}"/>
+    <hyperlink ref="B75" r:id="rId477" xr:uid="{50A2E7E7-7F17-4CA2-8CD9-AD91642B307E}"/>
+    <hyperlink ref="B565" r:id="rId478" xr:uid="{EBA89B21-B627-4262-B036-9B7B763682AA}"/>
+    <hyperlink ref="B1125" r:id="rId479" xr:uid="{F777CB0B-CF29-4F10-84AD-389868A8F2B1}"/>
+    <hyperlink ref="D1125" r:id="rId480" xr:uid="{48D7257C-B331-4DAD-9CF2-BE110979FC6F}"/>
+    <hyperlink ref="B976" r:id="rId481" xr:uid="{5A37F183-E8F4-4712-8C2E-90DF773381F8}"/>
+    <hyperlink ref="B977" r:id="rId482" xr:uid="{B975BDE8-226B-49A1-90D7-96C178509537}"/>
+    <hyperlink ref="D25" r:id="rId483" xr:uid="{E9EBBA20-E1D9-40B8-AF6B-D8C275B3C72A}"/>
+    <hyperlink ref="B25" r:id="rId484" xr:uid="{5E6DF5E0-24D3-4F89-9E7D-6D9A6C3ACF5F}"/>
+    <hyperlink ref="B20" r:id="rId485" xr:uid="{25DA848F-1BB7-4E2F-875A-D5819A38AA33}"/>
+    <hyperlink ref="B1112" r:id="rId486" xr:uid="{03270EBC-E58D-4DE7-B4AC-2AF3466EDF8C}"/>
+    <hyperlink ref="D1112" r:id="rId487" xr:uid="{05F6D115-6BA9-4F55-B798-F7D2746BAC71}"/>
+    <hyperlink ref="D76" r:id="rId488" xr:uid="{1A83DC5D-092A-4142-A9C5-013E1A0F7BB7}"/>
+    <hyperlink ref="B76" r:id="rId489" xr:uid="{20B08C63-FF8F-4D82-90E9-82C7746B59E5}"/>
+    <hyperlink ref="D744" r:id="rId490" xr:uid="{ECCD40B9-01A9-49E7-B530-DAA46DAC126D}"/>
+    <hyperlink ref="B744" r:id="rId491" xr:uid="{52D5500E-A43B-4490-8C14-9B7DA298B8BB}"/>
+    <hyperlink ref="B77" r:id="rId492" xr:uid="{85298341-5C89-4968-BF19-72110BED8C17}"/>
+    <hyperlink ref="B270" r:id="rId493" xr:uid="{AF8097D4-3514-4A6C-A406-0AE2E9E04CBD}"/>
+    <hyperlink ref="B595" r:id="rId494" xr:uid="{C14FF422-ABAD-4901-B0AB-F821413E0A17}"/>
+    <hyperlink ref="D595" r:id="rId495" xr:uid="{E4196CEC-B5F4-4289-90B9-086397146214}"/>
+    <hyperlink ref="D21" r:id="rId496" xr:uid="{5CEC4FAF-ED98-4FF8-AB04-835D60A36800}"/>
+    <hyperlink ref="B21" r:id="rId497" xr:uid="{9A8DAE3B-9FAA-473F-9DDC-0F1C6254F817}"/>
+    <hyperlink ref="B337" r:id="rId498" xr:uid="{EEE21C52-AC12-440E-9E10-37731C7A1B54}"/>
+    <hyperlink ref="D337" r:id="rId499" xr:uid="{928AA68A-95C6-4074-8438-928C256B0D55}"/>
+    <hyperlink ref="D269" r:id="rId500" xr:uid="{BEE119AC-D328-470B-AFAE-CCA76E268602}"/>
+    <hyperlink ref="B269" r:id="rId501" xr:uid="{1E2193B6-EDCF-4B5D-B52A-A73828B956AE}"/>
+    <hyperlink ref="D688" r:id="rId502" xr:uid="{F8922E0E-1C9D-4D2C-94C5-2E8A84BEADDD}"/>
+    <hyperlink ref="B688" r:id="rId503" xr:uid="{F8C4D6E2-CACD-4FA0-9E42-6121116E519A}"/>
+    <hyperlink ref="D1047" r:id="rId504" xr:uid="{2B64C0B5-A7E9-4FED-AE0A-4A06ADFA3FC1}"/>
+    <hyperlink ref="B1047" r:id="rId505" xr:uid="{0644A571-BBFB-40D0-AC87-0AA6A024115B}"/>
+    <hyperlink ref="B1046" r:id="rId506" xr:uid="{E3135438-2E6E-4A70-ACA9-BF27088F8EB4}"/>
+    <hyperlink ref="D1046" r:id="rId507" xr:uid="{CAD8B6E5-2858-437F-A1D7-02D015D890F3}"/>
+    <hyperlink ref="B338" r:id="rId508" xr:uid="{6CFA0601-5DCE-426F-AB2D-8017A6BECD8D}"/>
+    <hyperlink ref="B339" r:id="rId509" xr:uid="{95C931FE-C1D4-49DF-83CE-54E97153E648}"/>
+    <hyperlink ref="B271" r:id="rId510" xr:uid="{379BF6B8-0222-4B18-BC5A-C92C06BB8059}"/>
+    <hyperlink ref="B175" r:id="rId511" xr:uid="{ABF2BA8D-23B3-4299-A053-F4893287982E}"/>
+    <hyperlink ref="B822" r:id="rId512" xr:uid="{EAF59A80-D74F-4F64-8399-4469CAFCF802}"/>
+    <hyperlink ref="B164" r:id="rId513" xr:uid="{C339D852-F6F1-4E36-8A8E-E95640A113B1}"/>
+    <hyperlink ref="D801" r:id="rId514" xr:uid="{44135364-AFC0-49E5-8131-58361465EFDC}"/>
+    <hyperlink ref="B801" r:id="rId515" xr:uid="{9D10C2F9-F353-45A0-BA72-DDB3ED904862}"/>
+    <hyperlink ref="B626" r:id="rId516" xr:uid="{924D477D-A847-425F-A556-B59106F219B7}"/>
+    <hyperlink ref="D626" r:id="rId517" xr:uid="{5A4AA0CD-2D57-42B5-9B0C-3199D19C0C64}"/>
+    <hyperlink ref="D943" r:id="rId518" xr:uid="{FB5A265E-9166-4D05-B761-A256CE61E6AC}"/>
+    <hyperlink ref="B943" r:id="rId519" xr:uid="{944AB004-EA1B-4A1F-86FB-C38C2E35848A}"/>
+    <hyperlink ref="D961" r:id="rId520" xr:uid="{49864206-7B19-4729-BA67-2ACD17FA64F4}"/>
+    <hyperlink ref="B961" r:id="rId521" xr:uid="{05535C34-A75C-4503-9C35-5E3D587F1160}"/>
+    <hyperlink ref="B1126" r:id="rId522" xr:uid="{8E94957E-70AE-4DB0-BDC2-AC4F90BD07F4}"/>
+    <hyperlink ref="D1126" r:id="rId523" xr:uid="{B6CD8A95-BEFE-4065-BD8F-1AA91AE5B830}"/>
+    <hyperlink ref="B1127" r:id="rId524" xr:uid="{95896BA2-ED86-475C-9894-4D8C77944E2D}"/>
+    <hyperlink ref="B399" r:id="rId525" xr:uid="{E6557EB3-3A1D-4956-9BB7-9284F7106C3C}"/>
+    <hyperlink ref="B1128" r:id="rId526" xr:uid="{D551714E-3C11-4AE7-9427-B2458F9D1A95}"/>
+    <hyperlink ref="D1127" r:id="rId527" xr:uid="{C87CAD26-EE73-4119-9852-A02BCFAF13B0}"/>
+    <hyperlink ref="D1129" r:id="rId528" xr:uid="{CA9E9C45-7A71-4676-BDA6-FFCC3C7BFD89}"/>
+    <hyperlink ref="B1129" r:id="rId529" xr:uid="{77A51B37-DBDC-4D95-835B-7085787860BF}"/>
+    <hyperlink ref="B649" r:id="rId530" xr:uid="{DE42FC59-BCC1-47D3-94C7-16B4F2B29C55}"/>
+    <hyperlink ref="D649" r:id="rId531" xr:uid="{6E87EA17-8BDD-422F-80B2-B957B2A0163D}"/>
+    <hyperlink ref="D767" r:id="rId532" xr:uid="{33AC5AC9-036D-44E9-B378-0D923A5B7DAE}"/>
+    <hyperlink ref="B767" r:id="rId533" xr:uid="{5633AA61-BE61-423F-9FF4-E7261A2CC5AB}"/>
+    <hyperlink ref="B1100" r:id="rId534" xr:uid="{7C7B3F4B-54AE-4141-8FFD-55600EA0DDBC}"/>
+    <hyperlink ref="D1100" r:id="rId535" xr:uid="{61D461CA-2846-4FB6-83FC-F85C4E67CD2E}"/>
+    <hyperlink ref="D513" r:id="rId536" xr:uid="{FC25D8B4-302E-41C6-A782-E92EAEADFE10}"/>
+    <hyperlink ref="B513" r:id="rId537" xr:uid="{CEA47847-CF3C-4065-AADE-80238C211C80}"/>
+    <hyperlink ref="D735" r:id="rId538" xr:uid="{335D8AD6-266E-4BB6-818F-6A5F831F59E9}"/>
+    <hyperlink ref="B735" r:id="rId539" xr:uid="{E8A98206-CB3F-4B1D-B57C-8EE96F53F796}"/>
+    <hyperlink ref="B54" r:id="rId540" xr:uid="{70147BC3-01C5-4131-B7D8-2F6C8C9C9FF8}"/>
+    <hyperlink ref="B579" r:id="rId541" xr:uid="{6E6C39B2-9C8B-4D58-A296-289ECE9AEA2A}"/>
+    <hyperlink ref="D579" r:id="rId542" xr:uid="{1A810901-466D-4B21-82B6-E83A95DD0974}"/>
+    <hyperlink ref="D72" r:id="rId543" xr:uid="{EC074ED2-0862-41AB-87AF-8E8BEBBEA1FB}"/>
+    <hyperlink ref="B72" r:id="rId544" xr:uid="{D37FF0E0-9898-4E6F-90B0-1BB3958A0451}"/>
+    <hyperlink ref="D553" r:id="rId545" xr:uid="{28A3D0A8-2C98-4957-A7D5-980219E4A71E}"/>
+    <hyperlink ref="B553" r:id="rId546" xr:uid="{6B3EFB47-9C33-4C5B-A8F1-4A8D6E776A22}"/>
+    <hyperlink ref="D771" r:id="rId547" xr:uid="{9B53D83E-5128-4161-9EC2-00C1841FE5C4}"/>
+    <hyperlink ref="B771" r:id="rId548" xr:uid="{381B7F6B-7115-4DCD-BF8C-94284BE1ECE9}"/>
+    <hyperlink ref="B1014" r:id="rId549" xr:uid="{F8BC4638-7292-4CF3-A0EF-FD7BBFB74294}"/>
+    <hyperlink ref="B393" r:id="rId550" xr:uid="{D4B0635E-DF3C-4129-9F98-55ED96747F6F}"/>
+    <hyperlink ref="D393" r:id="rId551" xr:uid="{C95B8479-D4BF-444C-B218-EE3327BAC486}"/>
+    <hyperlink ref="B635" r:id="rId552" xr:uid="{136CACC9-5DC7-4800-99AA-76A3E0237931}"/>
+    <hyperlink ref="D111" r:id="rId553" xr:uid="{511E02F2-81CE-4EC9-84C5-9619857EE00F}"/>
+    <hyperlink ref="B111" r:id="rId554" xr:uid="{6A861C24-7176-41E9-941C-090D7A5A0E67}"/>
+    <hyperlink ref="B91" r:id="rId555" xr:uid="{05A7911C-05BB-4AC1-8A0B-9D09ABF54618}"/>
+    <hyperlink ref="D868" r:id="rId556" xr:uid="{2757559B-B7FB-491E-A5DA-62F929D6AAD9}"/>
+    <hyperlink ref="B868" r:id="rId557" xr:uid="{9A9B79ED-C079-4515-A59C-4976474EE528}"/>
+    <hyperlink ref="B880" r:id="rId558" xr:uid="{3F95F9DA-16AF-4EBA-8070-DAEFCA75B99E}"/>
+    <hyperlink ref="D880" r:id="rId559" xr:uid="{B693B78D-FFF6-40CF-ABB4-5DB129A5B92C}"/>
+    <hyperlink ref="B872" r:id="rId560" xr:uid="{ABD0EF18-A399-4588-A1DA-DD3EAF47B4D9}"/>
+    <hyperlink ref="D872" r:id="rId561" xr:uid="{E58D6502-F46A-47E3-9C70-F13F85D43B69}"/>
+    <hyperlink ref="B80" r:id="rId562" xr:uid="{3A811EB8-0011-4779-81B0-945D171D73A6}"/>
+    <hyperlink ref="D873" r:id="rId563" xr:uid="{2C7E429C-5B0B-486F-9EDE-2F1C69A412F7}"/>
+    <hyperlink ref="B873" r:id="rId564" xr:uid="{0571C53B-ADB7-41DB-AA69-152C2C1E6BF3}"/>
+    <hyperlink ref="B1130" r:id="rId565" xr:uid="{99C4FAAC-CAFA-4AA8-8AF3-42FBAE1E90B8}"/>
+    <hyperlink ref="D1130" r:id="rId566" xr:uid="{4533B646-C5B7-4919-B8A1-5799310DAF7F}"/>
+    <hyperlink ref="B1131" r:id="rId567" xr:uid="{61B8AE5D-8849-49DF-A6EC-27025BBDBC6E}"/>
+    <hyperlink ref="D1131" r:id="rId568" xr:uid="{7AD56BF3-3235-4227-B7E7-2CFABE58203D}"/>
+    <hyperlink ref="D30" r:id="rId569" xr:uid="{341B89FD-2185-41E9-A6C7-21E5E92794C7}"/>
+    <hyperlink ref="B30" r:id="rId570" xr:uid="{8A195F81-1A3B-408C-B13D-483831D8C11C}"/>
+    <hyperlink ref="D631" r:id="rId571" xr:uid="{ADE056C0-ACA4-41A8-BF36-1846BEB0280D}"/>
+    <hyperlink ref="B631" r:id="rId572" xr:uid="{9B7C1A8B-5BD9-4A60-AA83-6869C9391D47}"/>
+    <hyperlink ref="B630" r:id="rId573" xr:uid="{A43B4DBC-905E-4ECC-B664-1C1AC734C387}"/>
+    <hyperlink ref="D560" r:id="rId574" xr:uid="{53AC5AD2-90FD-4594-8B6E-A040D81D1622}"/>
+    <hyperlink ref="B560" r:id="rId575" xr:uid="{FAF561CF-2B78-4EBA-92F3-8234F7F16E3F}"/>
+    <hyperlink ref="D685" r:id="rId576" xr:uid="{92C2DFED-4D6C-4A6C-B845-26E30C94B4B6}"/>
+    <hyperlink ref="B685" r:id="rId577" xr:uid="{3B18259B-2597-4404-B0D6-9A41812B69B3}"/>
+    <hyperlink ref="B132" r:id="rId578" xr:uid="{53117569-1A7F-40E0-B6F5-B035689CAF58}"/>
+    <hyperlink ref="B1132" r:id="rId579" xr:uid="{E013512B-6412-4490-8D23-C9542E2E9F89}"/>
+    <hyperlink ref="D1132" r:id="rId580" xr:uid="{B0632B8F-64BF-4AA7-8AD0-2FA507F20158}"/>
+    <hyperlink ref="D92" r:id="rId581" xr:uid="{26511810-2814-4E63-842F-4A9ADD80DDDD}"/>
+    <hyperlink ref="D777" r:id="rId582" xr:uid="{577A13DA-B168-4564-9FFA-F334A24FCE85}"/>
+    <hyperlink ref="B777" r:id="rId583" xr:uid="{ABA48AAD-9ED3-4DB9-BF87-5ACEE8FC9E92}"/>
+    <hyperlink ref="D138" r:id="rId584" xr:uid="{733DCAA9-7D44-401E-B72A-9B230B2FB698}"/>
+    <hyperlink ref="B282" r:id="rId585" xr:uid="{3C0FB985-1889-413A-817D-E9617E59F3CF}"/>
+    <hyperlink ref="D282" r:id="rId586" xr:uid="{B786FC1F-85ED-4657-8CF2-9CF1D8D0064A}"/>
+    <hyperlink ref="B281" r:id="rId587" xr:uid="{B55AAEFB-F3A3-47B7-8EF3-098767A1EE21}"/>
+    <hyperlink ref="D942" r:id="rId588" xr:uid="{CD64835A-E31E-49EA-A798-9C91B14BB364}"/>
+    <hyperlink ref="B942" r:id="rId589" xr:uid="{C1561C7C-694C-4086-A890-AB9DD01DFEB1}"/>
+    <hyperlink ref="B746" r:id="rId590" xr:uid="{E49DD8C7-7A09-4EB8-BB2E-A11B14DB3C01}"/>
+    <hyperlink ref="D746" r:id="rId591" xr:uid="{05C4F732-35DC-4F8E-A8E5-1AB1C213374C}"/>
+    <hyperlink ref="D747" r:id="rId592" xr:uid="{C7703C0E-AAD3-4F9B-9A80-8B45512B268A}"/>
+    <hyperlink ref="B747" r:id="rId593" xr:uid="{35769DF7-F3F3-4220-95F8-53E116D1DA01}"/>
+    <hyperlink ref="D947" r:id="rId594" xr:uid="{F315B06D-5838-4F0D-9634-543814985852}"/>
+    <hyperlink ref="D358" r:id="rId595" xr:uid="{D4E7F56F-8BEC-4C45-A5BD-13872996738D}"/>
+    <hyperlink ref="B562" r:id="rId596" xr:uid="{A736B246-DD80-46D7-93C6-6CB3273D2A17}"/>
+    <hyperlink ref="D562" r:id="rId597" xr:uid="{1DC84D8B-0C3A-4CA0-BD88-1A974E7F4E09}"/>
+    <hyperlink ref="B415" r:id="rId598" xr:uid="{F180520D-B5B2-4304-8171-076B170BF592}"/>
+    <hyperlink ref="B34" r:id="rId599" xr:uid="{5E3E8089-6D13-400A-B8F2-419A95CBF471}"/>
+    <hyperlink ref="D34" r:id="rId600" xr:uid="{97FED713-F69B-49E5-80D0-9A1482A83BD4}"/>
+    <hyperlink ref="D914" r:id="rId601" xr:uid="{401EF341-72D3-4300-A236-A1201084F654}"/>
+    <hyperlink ref="B914" r:id="rId602" xr:uid="{9E09F618-94B5-48D9-AA0F-9804E2AE76FF}"/>
+    <hyperlink ref="D1075" r:id="rId603" xr:uid="{DB0448BE-03C4-45AB-9138-B07A2E01465F}"/>
+    <hyperlink ref="B485" r:id="rId604" xr:uid="{198F1703-7E7C-4062-AD1C-F03FE6A0C95B}"/>
+    <hyperlink ref="D485" r:id="rId605" xr:uid="{BC36775A-741C-472D-8906-E27B41A46425}"/>
+    <hyperlink ref="B1107" r:id="rId606" xr:uid="{060EEB2E-72A3-474B-B48B-4489FB4E0019}"/>
+    <hyperlink ref="D1107" r:id="rId607" xr:uid="{866826E0-B049-428D-9449-170659E4D2E1}"/>
+    <hyperlink ref="B921" r:id="rId608" xr:uid="{B59F4D6E-520D-4AF5-9E05-B7A4D93EB92C}"/>
+    <hyperlink ref="D921" r:id="rId609" xr:uid="{ECEB81C1-A28D-4E50-8542-9E45B295B0B6}"/>
+    <hyperlink ref="B840" r:id="rId610" xr:uid="{C8487B09-A6EE-473B-AAE7-43FCC34FE759}"/>
+    <hyperlink ref="B841" r:id="rId611" xr:uid="{7FABCDD4-1A07-4619-BC48-EC56A2AEA943}"/>
+    <hyperlink ref="D841" r:id="rId612" xr:uid="{45A3AB8B-4935-4060-8095-CA02593321AF}"/>
+    <hyperlink ref="D842" r:id="rId613" xr:uid="{0F53F844-48C6-43DD-9E43-9972B91F5C2F}"/>
+    <hyperlink ref="B842" r:id="rId614" xr:uid="{E335446D-A753-4827-9258-FA9EEEB6FD9B}"/>
+    <hyperlink ref="B329" r:id="rId615" xr:uid="{6E332B1F-C8AA-4A19-B856-83E6C1C46F51}"/>
+    <hyperlink ref="B328" r:id="rId616" xr:uid="{E6F2D404-F547-43CE-AA71-41C59AF0D047}"/>
+    <hyperlink ref="D329" r:id="rId617" xr:uid="{70AB0045-1887-4C91-90DD-475F25FD9F75}"/>
+    <hyperlink ref="B207" r:id="rId618" xr:uid="{FF0EB79F-41B4-4D3F-958F-C731B3927666}"/>
+    <hyperlink ref="D207" r:id="rId619" xr:uid="{EE6647C0-8AF5-4793-90C0-AE2F8D5D1592}"/>
+    <hyperlink ref="D791" r:id="rId620" xr:uid="{061D3D33-50A2-4DF7-A8F5-1F08AF91CF76}"/>
+    <hyperlink ref="B791" r:id="rId621" xr:uid="{528710D4-502C-4757-B654-D6C9DFD1ADC0}"/>
+    <hyperlink ref="D112" r:id="rId622" xr:uid="{25AF43E7-D1EA-47CF-B86E-08C3CCC1FDF0}"/>
+    <hyperlink ref="B112" r:id="rId623" xr:uid="{F47203AF-82AF-45A4-8346-BA015BACC699}"/>
+    <hyperlink ref="B356" r:id="rId624" xr:uid="{BFC5DC13-5AFC-4824-A1AD-C8C498C5A753}"/>
+    <hyperlink ref="D356" r:id="rId625" xr:uid="{C8630277-4B06-44B0-9685-F652BCC33C65}"/>
+    <hyperlink ref="B358" r:id="rId626" xr:uid="{F08B8DCC-348A-4129-BB98-0EC4D72610C5}"/>
+    <hyperlink ref="B68" r:id="rId627" xr:uid="{20D050CA-9E57-46DA-A8B5-D28163E1257C}"/>
+    <hyperlink ref="D68" r:id="rId628" xr:uid="{607ED8B2-7CC7-4738-82E0-A389FC9E1744}"/>
+    <hyperlink ref="B802" r:id="rId629" xr:uid="{D4BECB0B-65AB-4CC7-A8CA-A1917758A9FC}"/>
+    <hyperlink ref="B849" r:id="rId630" xr:uid="{B599C0C3-C9DE-44D8-85EC-ED814756B5BD}"/>
+    <hyperlink ref="D291" r:id="rId631" xr:uid="{2C9A179A-1BB5-4375-9B28-104CA3F7B40C}"/>
+    <hyperlink ref="B726" r:id="rId632" xr:uid="{C3BB5FA0-DBE9-4E00-ADBF-BCF3D1FE3A6F}"/>
+    <hyperlink ref="D726" r:id="rId633" xr:uid="{DED0AC56-3F6F-465F-A52B-A4D58DBE1309}"/>
+    <hyperlink ref="D321" r:id="rId634" xr:uid="{83E541EB-DA46-4589-B390-F62B5A0E823E}"/>
+    <hyperlink ref="B321" r:id="rId635" xr:uid="{C1D1F303-8EF1-486C-ADA1-7249001947B4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId637"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId636"/>
 </worksheet>
 </file>
 
@@ -24140,7 +24138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B295A9-F646-4D05-9ABC-30A8FA955D11}">
   <dimension ref="A1:H485"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A475" zoomScale="94" workbookViewId="0">
+    <sheetView topLeftCell="A475" zoomScale="94" workbookViewId="0">
       <selection activeCell="C486" sqref="C486"/>
     </sheetView>
   </sheetViews>
@@ -27637,7 +27635,7 @@
     </row>
     <row r="256" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="10" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="B256" s="6" t="str">
         <f>链接汇总!A409</f>
@@ -27770,12 +27768,12 @@
     </row>
     <row r="262" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B262" s="6" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="263" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B263" s="6" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="265" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
@@ -27864,7 +27862,7 @@
     </row>
     <row r="270" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="10" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="B270" s="6" t="str">
         <f>链接汇总!A408</f>
@@ -27971,7 +27969,7 @@
     </row>
     <row r="274" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="10" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="B274" s="19" t="str">
         <f>链接汇总!A102</f>
@@ -28104,7 +28102,7 @@
     </row>
     <row r="283" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="10" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="B283" s="6" t="str">
         <f>链接汇总!A302</f>
@@ -28159,7 +28157,7 @@
     </row>
     <row r="287" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="10" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="B287" s="6" t="str">
         <f>链接汇总!A76</f>
@@ -28428,7 +28426,7 @@
     </row>
     <row r="305" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="10" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="B305" s="6" t="str">
         <f>链接汇总!A54</f>
@@ -28437,7 +28435,7 @@
     </row>
     <row r="306" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="10" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="B306" s="6" t="str">
         <f>链接汇总!A1100</f>
@@ -28518,17 +28516,17 @@
     </row>
     <row r="311" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="10" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="313" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="10" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="315" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="10" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="B315" s="6" t="str">
         <f>链接汇总!A207</f>
@@ -28609,7 +28607,7 @@
     </row>
     <row r="320" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="10" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="B320" s="6" t="str">
         <f>链接汇总!A1112</f>
@@ -28820,7 +28818,7 @@
     </row>
     <row r="332" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="10" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="B332" s="6" t="str">
         <f>链接汇总!A281</f>
@@ -28875,7 +28873,7 @@
     </row>
     <row r="336" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="10" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="B336" s="6" t="str">
         <f>链接汇总!A80</f>
@@ -28904,7 +28902,7 @@
     </row>
     <row r="337" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="10" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="B337" s="6" t="str">
         <f>链接汇总!A942</f>
@@ -28933,7 +28931,7 @@
     </row>
     <row r="340" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="10" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="B340" s="6" t="str">
         <f>链接汇总!A685</f>
@@ -28988,7 +28986,7 @@
     </row>
     <row r="344" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="10" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="347" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
@@ -29071,7 +29069,7 @@
     </row>
     <row r="352" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="10" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="B352" s="6" t="str">
         <f>链接汇总!A461</f>
@@ -29285,7 +29283,7 @@
     </row>
     <row r="362" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="10" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="B362" s="6" t="str">
         <f>链接汇总!A687</f>
@@ -29366,7 +29364,7 @@
     </row>
     <row r="367" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="10" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="B367" s="6" t="str">
         <f>链接汇总!A1123</f>
@@ -29421,7 +29419,7 @@
     </row>
     <row r="371" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="10" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B371" s="6" t="str">
         <f>链接汇总!A801</f>
@@ -29450,7 +29448,7 @@
     </row>
     <row r="372" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="10" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="B372" s="6" t="str">
         <f>链接汇总!A688</f>
@@ -29479,7 +29477,7 @@
     </row>
     <row r="373" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="10" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="B373" s="6" t="str">
         <f>链接汇总!A25</f>
@@ -29560,7 +29558,7 @@
     </row>
     <row r="378" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="10" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="B378" s="6" t="str">
         <f>链接汇总!A552</f>
@@ -29589,7 +29587,7 @@
     </row>
     <row r="379" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B379" s="6" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="382" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
@@ -29620,12 +29618,12 @@
     </row>
     <row r="383" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="10" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="386" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="10" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="B386" s="6" t="str">
         <f>链接汇总!A1130</f>
@@ -29654,20 +29652,20 @@
     </row>
     <row r="390" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="10" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="B390" s="6" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="391" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B391" s="6" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="399" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="10" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="B399" s="6" t="str">
         <f>链接汇总!A1047</f>
@@ -29700,24 +29698,24 @@
         <v>内卷</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="D400" s="6" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="E400" s="1" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="F400" s="1" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="G400" s="1" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="404" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="10" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="B404" s="6" t="str">
         <f>链接汇总!A127</f>
@@ -29746,7 +29744,7 @@
     </row>
     <row r="407" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="10" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="B407" s="6" t="str">
         <f>链接汇总!A943</f>
@@ -29801,7 +29799,7 @@
     </row>
     <row r="411" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="10" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="B411" s="6" t="str">
         <f>链接汇总!A1126</f>
@@ -29908,7 +29906,7 @@
     </row>
     <row r="417" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="10" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="B417" s="6" t="str">
         <f>链接汇总!A288</f>
@@ -29937,7 +29935,7 @@
     </row>
     <row r="418" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="10" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="B418" s="6" t="str">
         <f>链接汇总!A399</f>
@@ -29966,7 +29964,7 @@
     </row>
     <row r="419" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="10" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="B419" s="6" t="str">
         <f>链接汇总!A478</f>
@@ -29995,40 +29993,40 @@
     </row>
     <row r="421" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B421" s="6" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="422" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B422" s="6" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="423" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B423" s="6" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="424" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B424" s="6" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="426" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="10" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="429" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B429" s="6" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="430" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B430" s="6" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="431" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
@@ -30059,7 +30057,7 @@
     </row>
     <row r="433" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="10" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="B433" s="6" t="str">
         <f>链接汇总!A873</f>
@@ -30088,7 +30086,7 @@
     </row>
     <row r="436" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="10" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="B436" s="6" t="str">
         <f>链接汇总!A1014</f>
@@ -30169,12 +30167,12 @@
     </row>
     <row r="440" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="10" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="442" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="10" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="B442" s="6" t="str">
         <f>链接汇总!A635</f>
@@ -30203,7 +30201,7 @@
     </row>
     <row r="445" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="10" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="B445" s="6" t="str">
         <f>链接汇总!A873</f>
@@ -30284,7 +30282,7 @@
     </row>
     <row r="450" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="10" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="B450" s="6" t="str">
         <f>链接汇总!A92</f>
@@ -30339,7 +30337,7 @@
     </row>
     <row r="452" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="10" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="B452" s="6" t="str">
         <f>链接汇总!A777</f>
@@ -30394,7 +30392,7 @@
     </row>
     <row r="456" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="10" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="B456" s="6" t="str">
         <f>链接汇总!A872</f>
@@ -30423,7 +30421,7 @@
     </row>
     <row r="459" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="10" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="B459" s="6" t="str">
         <f>链接汇总!A947</f>
@@ -30478,12 +30476,12 @@
     </row>
     <row r="463" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="10" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="466" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="10" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="B466" s="6" t="str">
         <f>链接汇总!A409</f>
@@ -30642,7 +30640,7 @@
     </row>
     <row r="476" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="10" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="B476" s="6" t="str">
         <f>链接汇总!C68</f>
@@ -30697,7 +30695,7 @@
     </row>
     <row r="480" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="10" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="B480" s="6" t="str">
         <f>链接汇总!A849</f>
@@ -30726,12 +30724,12 @@
     </row>
     <row r="481" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="10" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="484" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="10" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="B484" s="6" t="str">
         <f>链接汇总!A320</f>

--- a/链接汇总.xlsx
+++ b/链接汇总.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01 Git\Caritas-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E0B5C2-6164-4248-8CF7-8684F25E03B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC358334-439C-4BB1-A76A-82349FE71914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{12AA15F0-ECEF-4F1B-8245-B996CA146F0A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3395" uniqueCount="1966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3403" uniqueCount="1972">
   <si>
     <t>TheWholePackage</t>
   </si>
@@ -6787,6 +6787,29 @@
   </si>
   <si>
     <t>https://maifile.cn/est/d3296811449031/pdf</t>
+  </si>
+  <si>
+    <t>https://maifile.cn/est/d2896811684842/pdf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/answer/2977792415</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>俄罗斯艺术之谜</t>
+  </si>
+  <si>
+    <t>俄罗斯艺术之谜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/answer/523130387</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://maifile.cn/est/d3186811700539/pdf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7428,10 +7451,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A265AAD3-25B0-46B8-A229-676051D12208}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F1132"/>
+  <dimension ref="A1:F1133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1101" zoomScale="72" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="D1122" sqref="D1122"/>
+    <sheetView tabSelected="1" topLeftCell="B62" zoomScale="72" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8449,13 +8472,21 @@
       <c r="A69" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="B69" s="30"/>
+      <c r="B69" s="34" t="s">
+        <v>1970</v>
+      </c>
       <c r="C69" s="11" t="s">
         <v>588</v>
       </c>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
+      <c r="D69" s="35" t="s">
+        <v>1971</v>
+      </c>
+      <c r="E69" s="3">
+        <v>6751</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>1578</v>
+      </c>
     </row>
     <row r="70" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
@@ -22447,40 +22478,46 @@
       <c r="F1070" s="3"/>
     </row>
     <row r="1071" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1071" s="7">
-        <v>1170</v>
-      </c>
-      <c r="B1071" s="30"/>
-      <c r="C1071" s="11">
-        <v>1170</v>
-      </c>
-      <c r="D1071" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="E1071" s="3"/>
-      <c r="F1071" s="3"/>
+      <c r="A1071" s="7" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B1071" s="34" t="s">
+        <v>1967</v>
+      </c>
+      <c r="C1071" s="11" t="s">
+        <v>1968</v>
+      </c>
+      <c r="D1071" s="35" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E1071" s="3">
+        <v>1925</v>
+      </c>
+      <c r="F1071" s="3" t="s">
+        <v>1578</v>
+      </c>
     </row>
     <row r="1072" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1072" s="7">
-        <v>35</v>
+        <v>1170</v>
       </c>
       <c r="B1072" s="30"/>
       <c r="C1072" s="11">
-        <v>35</v>
-      </c>
-      <c r="D1072" s="3"/>
+        <v>1170</v>
+      </c>
+      <c r="D1072" s="24" t="s">
+        <v>282</v>
+      </c>
       <c r="E1072" s="3"/>
       <c r="F1072" s="3"/>
     </row>
     <row r="1073" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1073" s="7" t="s">
-        <v>1500</v>
-      </c>
-      <c r="B1073" s="29" t="s">
-        <v>335</v>
-      </c>
-      <c r="C1073" s="11" t="s">
-        <v>1500</v>
+      <c r="A1073" s="7">
+        <v>35</v>
+      </c>
+      <c r="B1073" s="30"/>
+      <c r="C1073" s="11">
+        <v>35</v>
       </c>
       <c r="D1073" s="3"/>
       <c r="E1073" s="3"/>
@@ -22488,13 +22525,13 @@
     </row>
     <row r="1074" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1074" s="7" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B1074" s="29" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C1074" s="11" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="D1074" s="3"/>
       <c r="E1074" s="3"/>
@@ -22502,39 +22539,33 @@
     </row>
     <row r="1075" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1075" s="7" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B1075" s="29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C1075" s="11" t="s">
-        <v>1502</v>
-      </c>
-      <c r="D1075" s="35" t="s">
-        <v>1911</v>
-      </c>
-      <c r="E1075" s="3">
-        <v>2726</v>
-      </c>
-      <c r="F1075" s="3" t="s">
-        <v>1578</v>
-      </c>
+        <v>1501</v>
+      </c>
+      <c r="D1075" s="3"/>
+      <c r="E1075" s="3"/>
+      <c r="F1075" s="3"/>
     </row>
     <row r="1076" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1076" s="7" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="B1076" s="29" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C1076" s="11" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="D1076" s="35" t="s">
-        <v>1648</v>
+        <v>1911</v>
       </c>
       <c r="E1076" s="3">
-        <v>3498</v>
+        <v>2726</v>
       </c>
       <c r="F1076" s="3" t="s">
         <v>1578</v>
@@ -22542,57 +22573,57 @@
     </row>
     <row r="1077" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1077" s="7" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="B1077" s="29" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C1077" s="11" t="s">
-        <v>1504</v>
-      </c>
-      <c r="D1077" s="24" t="s">
-        <v>283</v>
+        <v>1503</v>
+      </c>
+      <c r="D1077" s="35" t="s">
+        <v>1648</v>
       </c>
       <c r="E1077" s="3">
-        <v>4276</v>
+        <v>3498</v>
       </c>
       <c r="F1077" s="3" t="s">
-        <v>368</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="1078" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1078" s="7" t="s">
-        <v>1505</v>
-      </c>
-      <c r="B1078" s="30"/>
+        <v>1504</v>
+      </c>
+      <c r="B1078" s="29" t="s">
+        <v>339</v>
+      </c>
       <c r="C1078" s="11" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="D1078" s="24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E1078" s="3">
-        <v>635</v>
+        <v>4276</v>
       </c>
       <c r="F1078" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="1079" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1079" s="7" t="s">
-        <v>1506</v>
-      </c>
-      <c r="B1079" s="29" t="s">
-        <v>340</v>
-      </c>
+        <v>1505</v>
+      </c>
+      <c r="B1079" s="30"/>
       <c r="C1079" s="11" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="D1079" s="24" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E1079" s="3">
-        <v>817</v>
+        <v>635</v>
       </c>
       <c r="F1079" s="3" t="s">
         <v>367</v>
@@ -22600,39 +22631,39 @@
     </row>
     <row r="1080" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1080" s="7" t="s">
-        <v>1601</v>
+        <v>1506</v>
       </c>
       <c r="B1080" s="29" t="s">
-        <v>1603</v>
-      </c>
-      <c r="C1080" s="7" t="s">
-        <v>1601</v>
+        <v>340</v>
+      </c>
+      <c r="C1080" s="11" t="s">
+        <v>1506</v>
       </c>
       <c r="D1080" s="24" t="s">
-        <v>1602</v>
+        <v>285</v>
       </c>
       <c r="E1080" s="3">
-        <v>996</v>
+        <v>817</v>
       </c>
       <c r="F1080" s="3" t="s">
-        <v>1578</v>
+        <v>367</v>
       </c>
     </row>
     <row r="1081" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1081" s="7" t="s">
-        <v>1598</v>
+        <v>1601</v>
       </c>
       <c r="B1081" s="29" t="s">
-        <v>1600</v>
+        <v>1603</v>
       </c>
       <c r="C1081" s="7" t="s">
-        <v>1598</v>
+        <v>1601</v>
       </c>
       <c r="D1081" s="24" t="s">
-        <v>1599</v>
+        <v>1602</v>
       </c>
       <c r="E1081" s="3">
-        <v>1186</v>
+        <v>996</v>
       </c>
       <c r="F1081" s="3" t="s">
         <v>1578</v>
@@ -22640,135 +22671,141 @@
     </row>
     <row r="1082" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1082" s="7" t="s">
-        <v>1604</v>
+        <v>1598</v>
       </c>
       <c r="B1082" s="29" t="s">
-        <v>1606</v>
+        <v>1600</v>
       </c>
       <c r="C1082" s="7" t="s">
-        <v>1604</v>
+        <v>1598</v>
       </c>
       <c r="D1082" s="24" t="s">
-        <v>1605</v>
+        <v>1599</v>
       </c>
       <c r="E1082" s="3">
-        <v>1706</v>
+        <v>1186</v>
       </c>
       <c r="F1082" s="3" t="s">
         <v>1578</v>
       </c>
     </row>
     <row r="1083" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1083" s="11" t="s">
-        <v>1608</v>
+      <c r="A1083" s="7" t="s">
+        <v>1604</v>
       </c>
       <c r="B1083" s="29" t="s">
-        <v>1609</v>
-      </c>
-      <c r="C1083" s="11" t="s">
-        <v>1608</v>
+        <v>1606</v>
+      </c>
+      <c r="C1083" s="7" t="s">
+        <v>1604</v>
       </c>
       <c r="D1083" s="24" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="E1083" s="3">
-        <v>2580</v>
+        <v>1706</v>
       </c>
       <c r="F1083" s="3" t="s">
         <v>1578</v>
       </c>
     </row>
     <row r="1084" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1084" s="7" t="s">
-        <v>1507</v>
+      <c r="A1084" s="11" t="s">
+        <v>1608</v>
       </c>
       <c r="B1084" s="29" t="s">
-        <v>341</v>
+        <v>1609</v>
       </c>
       <c r="C1084" s="11" t="s">
-        <v>1507</v>
+        <v>1608</v>
       </c>
       <c r="D1084" s="24" t="s">
-        <v>286</v>
+        <v>1607</v>
       </c>
       <c r="E1084" s="3">
-        <v>1373</v>
+        <v>2580</v>
       </c>
       <c r="F1084" s="3" t="s">
-        <v>367</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="1085" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1085" s="7" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B1085" s="29" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C1085" s="11" t="s">
-        <v>1508</v>
-      </c>
-      <c r="D1085" s="3"/>
-      <c r="E1085" s="3"/>
-      <c r="F1085" s="3"/>
+        <v>1507</v>
+      </c>
+      <c r="D1085" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="E1085" s="3">
+        <v>1373</v>
+      </c>
+      <c r="F1085" s="3" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="1086" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1086" s="7" t="s">
-        <v>15</v>
+        <v>1508</v>
       </c>
       <c r="B1086" s="29" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C1086" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1086" s="24" t="s">
-        <v>1890</v>
-      </c>
-      <c r="E1086" s="3">
-        <v>1061</v>
-      </c>
-      <c r="F1086" s="3" t="s">
-        <v>1578</v>
-      </c>
+        <v>1508</v>
+      </c>
+      <c r="D1086" s="3"/>
+      <c r="E1086" s="3"/>
+      <c r="F1086" s="3"/>
     </row>
     <row r="1087" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1087" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1087" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="C1087" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1087" s="24" t="s">
+        <v>1890</v>
+      </c>
+      <c r="E1087" s="3">
+        <v>1061</v>
+      </c>
+      <c r="F1087" s="3" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1088" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="B1087" s="30"/>
-      <c r="C1087" s="11" t="s">
+      <c r="B1088" s="30"/>
+      <c r="C1088" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="D1087" s="24" t="s">
+      <c r="D1088" s="24" t="s">
         <v>287</v>
       </c>
-      <c r="E1087" s="3"/>
-      <c r="F1087" s="3"/>
-    </row>
-    <row r="1088" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1088" s="13" t="s">
-        <v>1509</v>
-      </c>
-      <c r="B1088" s="31" t="s">
-        <v>352</v>
-      </c>
-      <c r="C1088" s="13" t="s">
-        <v>1509</v>
-      </c>
-      <c r="D1088" s="3"/>
       <c r="E1088" s="3"/>
       <c r="F1088" s="3"/>
     </row>
     <row r="1089" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1089" s="13" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="B1089" s="31" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C1089" s="13" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D1089" s="3"/>
       <c r="E1089" s="3"/>
@@ -22776,13 +22813,13 @@
     </row>
     <row r="1090" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1090" s="13" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="B1090" s="31" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C1090" s="13" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="D1090" s="3"/>
       <c r="E1090" s="3"/>
@@ -22790,136 +22827,130 @@
     </row>
     <row r="1091" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1091" s="13" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B1091" s="31" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C1091" s="13" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="D1091" s="3"/>
       <c r="E1091" s="3"/>
       <c r="F1091" s="3"/>
     </row>
-    <row r="1092" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1092" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1092" s="13" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="B1092" s="31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C1092" s="13" t="s">
-        <v>1513</v>
-      </c>
+        <v>1512</v>
+      </c>
+      <c r="D1092" s="3"/>
+      <c r="E1092" s="3"/>
+      <c r="F1092" s="3"/>
     </row>
     <row r="1093" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1093" s="13" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B1093" s="31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C1093" s="13" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="1094" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1094" s="13" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B1094" s="31" t="s">
+        <v>357</v>
+      </c>
+      <c r="C1094" s="13" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1095" s="13" t="s">
         <v>1515</v>
       </c>
-      <c r="B1094" s="31" t="s">
+      <c r="B1095" s="31" t="s">
         <v>358</v>
       </c>
-      <c r="C1094" s="13" t="s">
+      <c r="C1095" s="13" t="s">
         <v>1515</v>
       </c>
     </row>
-    <row r="1095" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1095" s="13" t="s">
+    <row r="1096" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1096" s="13" t="s">
         <v>1516</v>
       </c>
-      <c r="B1095" s="31" t="s">
+      <c r="B1096" s="31" t="s">
         <v>359</v>
       </c>
-      <c r="C1095" s="13" t="s">
+      <c r="C1096" s="13" t="s">
         <v>1516</v>
       </c>
     </row>
-    <row r="1096" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1096" s="7" t="s">
+    <row r="1097" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1097" s="7" t="s">
         <v>1517</v>
       </c>
-      <c r="B1096" s="30"/>
-      <c r="C1096" s="11" t="s">
+      <c r="B1097" s="30"/>
+      <c r="C1097" s="11" t="s">
         <v>1517</v>
       </c>
-      <c r="D1096" s="3"/>
-      <c r="E1096" s="3"/>
-      <c r="F1096" s="3"/>
-    </row>
-    <row r="1097" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1097" s="13" t="s">
-        <v>1518</v>
-      </c>
-      <c r="B1097" s="31"/>
-      <c r="C1097" s="13" t="s">
-        <v>1518</v>
-      </c>
+      <c r="D1097" s="3"/>
+      <c r="E1097" s="3"/>
+      <c r="F1097" s="3"/>
     </row>
     <row r="1098" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1098" s="13" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="B1098" s="31"/>
       <c r="C1098" s="13" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1099" s="13" t="s">
         <v>1519</v>
       </c>
-    </row>
-    <row r="1099" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1099" s="6" t="s">
-        <v>1520</v>
-      </c>
       <c r="B1099" s="31"/>
-      <c r="C1099" s="6" t="s">
-        <v>1520</v>
+      <c r="C1099" s="13" t="s">
+        <v>1519</v>
       </c>
     </row>
     <row r="1100" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1100" s="6" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B1100" s="31"/>
+      <c r="C1100" s="6" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1101" s="6" t="s">
         <v>1770</v>
       </c>
-      <c r="B1100" s="31" t="s">
+      <c r="B1101" s="31" t="s">
         <v>1771</v>
       </c>
-      <c r="C1100" s="6" t="s">
+      <c r="C1101" s="6" t="s">
         <v>1770</v>
       </c>
-      <c r="D1100" s="36" t="s">
+      <c r="D1101" s="36" t="s">
         <v>1772</v>
       </c>
-      <c r="E1100" s="1">
+      <c r="E1101" s="1">
         <v>724</v>
-      </c>
-      <c r="F1100" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="1101" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1101" s="13" t="s">
-        <v>1521</v>
-      </c>
-      <c r="B1101" s="31" t="s">
-        <v>380</v>
-      </c>
-      <c r="C1101" s="6" t="s">
-        <v>1521</v>
-      </c>
-      <c r="D1101" s="26" t="s">
-        <v>379</v>
-      </c>
-      <c r="E1101" s="1">
-        <v>2626</v>
       </c>
       <c r="F1101" s="1" t="s">
         <v>372</v>
@@ -22927,19 +22958,19 @@
     </row>
     <row r="1102" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1102" s="13" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="B1102" s="31" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C1102" s="6" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="D1102" s="26" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E1102" s="1">
-        <v>773</v>
+        <v>2626</v>
       </c>
       <c r="F1102" s="1" t="s">
         <v>372</v>
@@ -22947,19 +22978,19 @@
     </row>
     <row r="1103" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1103" s="13" t="s">
-        <v>1557</v>
+        <v>1522</v>
       </c>
       <c r="B1103" s="31" t="s">
-        <v>1558</v>
-      </c>
-      <c r="C1103" s="13" t="s">
-        <v>1557</v>
+        <v>377</v>
+      </c>
+      <c r="C1103" s="6" t="s">
+        <v>1522</v>
       </c>
       <c r="D1103" s="26" t="s">
-        <v>1559</v>
+        <v>378</v>
       </c>
       <c r="E1103" s="1">
-        <v>741</v>
+        <v>773</v>
       </c>
       <c r="F1103" s="1" t="s">
         <v>372</v>
@@ -22967,201 +22998,209 @@
     </row>
     <row r="1104" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1104" s="13" t="s">
-        <v>1523</v>
+        <v>1557</v>
       </c>
       <c r="B1104" s="31" t="s">
-        <v>360</v>
+        <v>1558</v>
       </c>
       <c r="C1104" s="13" t="s">
-        <v>1523</v>
+        <v>1557</v>
       </c>
       <c r="D1104" s="26" t="s">
-        <v>376</v>
+        <v>1559</v>
       </c>
       <c r="E1104" s="1">
-        <v>4022</v>
+        <v>741</v>
       </c>
       <c r="F1104" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="1105" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1105" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1105" s="13" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B1105" s="31" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="C1105" s="13" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D1105" s="26" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E1105" s="1">
-        <v>3765</v>
+        <v>4022</v>
       </c>
       <c r="F1105" s="1" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="1106" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1106" s="7" t="s">
-        <v>1525</v>
-      </c>
-      <c r="B1106" s="30"/>
-      <c r="C1106" s="11" t="s">
-        <v>1525</v>
-      </c>
-      <c r="D1106" s="3"/>
-      <c r="E1106" s="3"/>
-      <c r="F1106" s="3"/>
+      <c r="A1106" s="13" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B1106" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="C1106" s="13" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D1106" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="E1106" s="1">
+        <v>3765</v>
+      </c>
+      <c r="F1106" s="1" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="1107" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1107" s="7" t="s">
-        <v>1914</v>
-      </c>
-      <c r="B1107" s="38" t="s">
-        <v>1915</v>
-      </c>
+        <v>1525</v>
+      </c>
+      <c r="B1107" s="30"/>
       <c r="C1107" s="11" t="s">
-        <v>1914</v>
-      </c>
-      <c r="D1107" s="38" t="s">
-        <v>1916</v>
-      </c>
-      <c r="E1107" s="3">
-        <v>3509</v>
-      </c>
-      <c r="F1107" s="3" t="s">
-        <v>1578</v>
-      </c>
+        <v>1525</v>
+      </c>
+      <c r="D1107" s="3"/>
+      <c r="E1107" s="3"/>
+      <c r="F1107" s="3"/>
     </row>
     <row r="1108" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1108" s="7" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B1108" s="38" t="s">
+        <v>1915</v>
+      </c>
+      <c r="C1108" s="11" t="s">
+        <v>1914</v>
+      </c>
+      <c r="D1108" s="38" t="s">
+        <v>1916</v>
+      </c>
+      <c r="E1108" s="3">
+        <v>3509</v>
+      </c>
+      <c r="F1108" s="3" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1109" s="7" t="s">
         <v>1526</v>
       </c>
-      <c r="B1108" s="30"/>
-      <c r="C1108" s="11" t="s">
+      <c r="B1109" s="30"/>
+      <c r="C1109" s="11" t="s">
         <v>1526</v>
       </c>
-      <c r="D1108" s="3"/>
-      <c r="E1108" s="3"/>
-      <c r="F1108" s="3"/>
-    </row>
-    <row r="1109" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1109" s="14" t="s">
+      <c r="D1109" s="3"/>
+      <c r="E1109" s="3"/>
+      <c r="F1109" s="3"/>
+    </row>
+    <row r="1110" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1110" s="14" t="s">
         <v>1527</v>
       </c>
-      <c r="B1109" s="32" t="s">
+      <c r="B1110" s="32" t="s">
         <v>385</v>
       </c>
-      <c r="C1109" s="14" t="s">
+      <c r="C1110" s="14" t="s">
         <v>1527</v>
       </c>
-      <c r="D1109" s="33" t="s">
+      <c r="D1110" s="33" t="s">
         <v>386</v>
       </c>
-      <c r="E1109" s="27">
+      <c r="E1110" s="27">
         <v>2883</v>
       </c>
-      <c r="F1109" s="27" t="s">
+      <c r="F1110" s="27" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="1110" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1110" s="15" t="s">
+    <row r="1111" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1111" s="15" t="s">
         <v>1528</v>
       </c>
-      <c r="B1110" s="32" t="s">
+      <c r="B1111" s="32" t="s">
         <v>387</v>
       </c>
-      <c r="C1110" s="15" t="s">
+      <c r="C1111" s="15" t="s">
         <v>1528</v>
       </c>
-      <c r="D1110" s="33"/>
-      <c r="E1110" s="27"/>
-      <c r="F1110" s="27"/>
-    </row>
-    <row r="1111" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1111" s="6" t="s">
-        <v>1529</v>
-      </c>
-      <c r="B1111" s="32" t="s">
-        <v>409</v>
-      </c>
-      <c r="C1111" s="6" t="s">
-        <v>1529</v>
-      </c>
-      <c r="D1111" s="33" t="s">
-        <v>410</v>
-      </c>
-      <c r="E1111" s="27">
-        <v>539</v>
-      </c>
-      <c r="F1111" s="1" t="s">
-        <v>372</v>
-      </c>
+      <c r="D1111" s="33"/>
+      <c r="E1111" s="27"/>
+      <c r="F1111" s="27"/>
     </row>
     <row r="1112" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1112" s="6" t="s">
-        <v>1669</v>
+        <v>1529</v>
       </c>
       <c r="B1112" s="32" t="s">
-        <v>1670</v>
+        <v>409</v>
       </c>
       <c r="C1112" s="6" t="s">
-        <v>1668</v>
+        <v>1529</v>
       </c>
       <c r="D1112" s="33" t="s">
-        <v>1671</v>
+        <v>410</v>
       </c>
       <c r="E1112" s="27">
-        <v>950</v>
+        <v>539</v>
       </c>
       <c r="F1112" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="1113" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1113" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1113" s="6" t="s">
-        <v>1530</v>
-      </c>
-      <c r="B1113" s="25" t="s">
-        <v>361</v>
+        <v>1669</v>
+      </c>
+      <c r="B1113" s="32" t="s">
+        <v>1670</v>
       </c>
       <c r="C1113" s="6" t="s">
-        <v>1530</v>
-      </c>
-      <c r="D1113" s="26" t="s">
-        <v>362</v>
-      </c>
-      <c r="E1113" s="1">
-        <v>620</v>
+        <v>1668</v>
+      </c>
+      <c r="D1113" s="33" t="s">
+        <v>1671</v>
+      </c>
+      <c r="E1113" s="27">
+        <v>950</v>
       </c>
       <c r="F1113" s="1" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="1114" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1114" s="7" t="s">
-        <v>1531</v>
-      </c>
-      <c r="B1114" s="30"/>
-      <c r="C1114" s="11" t="s">
-        <v>1531</v>
-      </c>
-      <c r="D1114" s="3"/>
-      <c r="E1114" s="3"/>
-      <c r="F1114" s="3"/>
+      <c r="A1114" s="6" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B1114" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1114" s="6" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D1114" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="E1114" s="1">
+        <v>620</v>
+      </c>
+      <c r="F1114" s="1" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="1115" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1115" s="7" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="B1115" s="30"/>
       <c r="C1115" s="11" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="D1115" s="3"/>
       <c r="E1115" s="3"/>
@@ -23169,71 +23208,63 @@
     </row>
     <row r="1116" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1116" s="7" t="s">
-        <v>1533</v>
-      </c>
-      <c r="B1116" s="29" t="s">
-        <v>315</v>
-      </c>
+        <v>1532</v>
+      </c>
+      <c r="B1116" s="30"/>
       <c r="C1116" s="11" t="s">
-        <v>1533</v>
-      </c>
-      <c r="D1116" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1116" s="3">
-        <v>1968</v>
-      </c>
-      <c r="F1116" s="3" t="s">
-        <v>367</v>
-      </c>
+        <v>1532</v>
+      </c>
+      <c r="D1116" s="3"/>
+      <c r="E1116" s="3"/>
+      <c r="F1116" s="3"/>
     </row>
     <row r="1117" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1117" s="7" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B1117" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1117" s="11" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D1117" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1117" s="3">
+        <v>1968</v>
+      </c>
+      <c r="F1117" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1118" s="7" t="s">
         <v>1534</v>
       </c>
-      <c r="B1117" s="30"/>
-      <c r="C1117" s="11" t="s">
+      <c r="B1118" s="30"/>
+      <c r="C1118" s="11" t="s">
         <v>1534</v>
       </c>
-      <c r="D1117" s="3"/>
-      <c r="E1117" s="3"/>
-      <c r="F1117" s="3"/>
-    </row>
-    <row r="1118" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1118" s="6" t="s">
-        <v>1535</v>
-      </c>
-      <c r="B1118" s="25" t="s">
-        <v>389</v>
-      </c>
-      <c r="C1118" s="6" t="s">
-        <v>1535</v>
-      </c>
-      <c r="D1118" s="26" t="s">
-        <v>388</v>
-      </c>
-      <c r="E1118" s="1">
-        <v>3466</v>
-      </c>
-      <c r="F1118" s="1" t="s">
-        <v>372</v>
-      </c>
+      <c r="D1118" s="3"/>
+      <c r="E1118" s="3"/>
+      <c r="F1118" s="3"/>
     </row>
     <row r="1119" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1119" s="6" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="B1119" s="25" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C1119" s="6" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="D1119" s="26" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E1119" s="1">
-        <v>2191</v>
+        <v>3466</v>
       </c>
       <c r="F1119" s="1" t="s">
         <v>372</v>
@@ -23241,19 +23272,19 @@
     </row>
     <row r="1120" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1120" s="6" t="s">
-        <v>1537</v>
-      </c>
-      <c r="B1120" s="31" t="s">
-        <v>395</v>
+        <v>1536</v>
+      </c>
+      <c r="B1120" s="25" t="s">
+        <v>391</v>
       </c>
       <c r="C1120" s="6" t="s">
-        <v>1537</v>
-      </c>
-      <c r="D1120" s="36" t="s">
-        <v>396</v>
+        <v>1536</v>
+      </c>
+      <c r="D1120" s="26" t="s">
+        <v>390</v>
       </c>
       <c r="E1120" s="1">
-        <v>7846</v>
+        <v>2191</v>
       </c>
       <c r="F1120" s="1" t="s">
         <v>372</v>
@@ -23261,47 +23292,47 @@
     </row>
     <row r="1121" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1121" s="6" t="s">
-        <v>1538</v>
+        <v>1537</v>
+      </c>
+      <c r="B1121" s="31" t="s">
+        <v>395</v>
       </c>
       <c r="C1121" s="6" t="s">
-        <v>1538</v>
+        <v>1537</v>
+      </c>
+      <c r="D1121" s="36" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1121" s="1">
+        <v>7846</v>
+      </c>
+      <c r="F1121" s="1" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="1122" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1122" s="6" t="s">
-        <v>1593</v>
-      </c>
-      <c r="B1122" s="31" t="s">
-        <v>1594</v>
+        <v>1538</v>
       </c>
       <c r="C1122" s="6" t="s">
-        <v>1593</v>
-      </c>
-      <c r="D1122" s="36" t="s">
-        <v>1965</v>
-      </c>
-      <c r="E1122" s="1">
-        <v>817</v>
-      </c>
-      <c r="F1122" s="1" t="s">
-        <v>372</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="1123" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1123" s="6" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="B1123" s="31" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="C1123" s="6" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="D1123" s="36" t="s">
-        <v>1595</v>
+        <v>1965</v>
       </c>
       <c r="E1123" s="1">
-        <v>898</v>
+        <v>817</v>
       </c>
       <c r="F1123" s="1" t="s">
         <v>372</v>
@@ -23309,19 +23340,19 @@
     </row>
     <row r="1124" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1124" s="6" t="s">
-        <v>1618</v>
-      </c>
-      <c r="B1124" s="37" t="s">
-        <v>1620</v>
+        <v>1596</v>
+      </c>
+      <c r="B1124" s="31" t="s">
+        <v>1597</v>
       </c>
       <c r="C1124" s="6" t="s">
-        <v>1618</v>
+        <v>1596</v>
       </c>
       <c r="D1124" s="36" t="s">
-        <v>1619</v>
+        <v>1595</v>
       </c>
       <c r="E1124" s="1">
-        <v>2051</v>
+        <v>898</v>
       </c>
       <c r="F1124" s="1" t="s">
         <v>372</v>
@@ -23329,19 +23360,19 @@
     </row>
     <row r="1125" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1125" s="6" t="s">
-        <v>1657</v>
-      </c>
-      <c r="B1125" s="31" t="s">
-        <v>1658</v>
+        <v>1618</v>
+      </c>
+      <c r="B1125" s="37" t="s">
+        <v>1620</v>
       </c>
       <c r="C1125" s="6" t="s">
-        <v>1657</v>
+        <v>1618</v>
       </c>
       <c r="D1125" s="36" t="s">
-        <v>1659</v>
+        <v>1619</v>
       </c>
       <c r="E1125" s="1">
-        <v>783</v>
+        <v>2051</v>
       </c>
       <c r="F1125" s="1" t="s">
         <v>372</v>
@@ -23349,19 +23380,19 @@
     </row>
     <row r="1126" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1126" s="6" t="s">
-        <v>1736</v>
+        <v>1657</v>
       </c>
       <c r="B1126" s="31" t="s">
-        <v>1739</v>
+        <v>1658</v>
       </c>
       <c r="C1126" s="6" t="s">
-        <v>1736</v>
+        <v>1657</v>
       </c>
       <c r="D1126" s="36" t="s">
-        <v>1740</v>
+        <v>1659</v>
       </c>
       <c r="E1126" s="1">
-        <v>1067</v>
+        <v>783</v>
       </c>
       <c r="F1126" s="1" t="s">
         <v>372</v>
@@ -23369,19 +23400,19 @@
     </row>
     <row r="1127" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1127" s="6" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="B1127" s="31" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="C1127" s="6" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="D1127" s="36" t="s">
-        <v>1758</v>
+        <v>1740</v>
       </c>
       <c r="E1127" s="1">
-        <v>7781</v>
+        <v>1067</v>
       </c>
       <c r="F1127" s="1" t="s">
         <v>372</v>
@@ -23389,19 +23420,19 @@
     </row>
     <row r="1128" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1128" s="6" t="s">
-        <v>1755</v>
+        <v>1737</v>
       </c>
       <c r="B1128" s="31" t="s">
-        <v>1756</v>
+        <v>1741</v>
       </c>
       <c r="C1128" s="6" t="s">
-        <v>1755</v>
+        <v>1737</v>
       </c>
       <c r="D1128" s="36" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="E1128" s="1">
-        <v>1390</v>
+        <v>7781</v>
       </c>
       <c r="F1128" s="1" t="s">
         <v>372</v>
@@ -23409,19 +23440,19 @@
     </row>
     <row r="1129" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1129" s="6" t="s">
-        <v>1761</v>
+        <v>1755</v>
       </c>
       <c r="B1129" s="31" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
       <c r="C1129" s="6" t="s">
-        <v>1761</v>
+        <v>1755</v>
       </c>
       <c r="D1129" s="36" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="E1129" s="1">
-        <v>206</v>
+        <v>1390</v>
       </c>
       <c r="F1129" s="1" t="s">
         <v>372</v>
@@ -23429,19 +23460,19 @@
     </row>
     <row r="1130" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1130" s="6" t="s">
-        <v>1836</v>
+        <v>1761</v>
       </c>
       <c r="B1130" s="31" t="s">
-        <v>1838</v>
+        <v>1760</v>
       </c>
       <c r="C1130" s="6" t="s">
-        <v>1836</v>
+        <v>1761</v>
       </c>
       <c r="D1130" s="36" t="s">
-        <v>1839</v>
+        <v>1759</v>
       </c>
       <c r="E1130" s="1">
-        <v>2154</v>
+        <v>206</v>
       </c>
       <c r="F1130" s="1" t="s">
         <v>372</v>
@@ -23449,19 +23480,19 @@
     </row>
     <row r="1131" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1131" s="6" t="s">
-        <v>1840</v>
+        <v>1836</v>
       </c>
       <c r="B1131" s="31" t="s">
-        <v>1842</v>
+        <v>1838</v>
       </c>
       <c r="C1131" s="6" t="s">
-        <v>1841</v>
+        <v>1836</v>
       </c>
       <c r="D1131" s="36" t="s">
-        <v>1843</v>
+        <v>1839</v>
       </c>
       <c r="E1131" s="1">
-        <v>1005</v>
+        <v>2154</v>
       </c>
       <c r="F1131" s="1" t="s">
         <v>372</v>
@@ -23469,21 +23500,41 @@
     </row>
     <row r="1132" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1132" s="6" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B1132" s="31" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C1132" s="6" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D1132" s="36" t="s">
+        <v>1843</v>
+      </c>
+      <c r="E1132" s="1">
+        <v>1005</v>
+      </c>
+      <c r="F1132" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1133" s="6" t="s">
         <v>1862</v>
       </c>
-      <c r="B1132" s="31" t="s">
+      <c r="B1133" s="31" t="s">
         <v>1863</v>
       </c>
-      <c r="C1132" s="6" t="s">
+      <c r="C1133" s="6" t="s">
         <v>1862</v>
       </c>
-      <c r="D1132" s="36" t="s">
+      <c r="D1133" s="36" t="s">
         <v>1864</v>
       </c>
-      <c r="E1132" s="1">
+      <c r="E1133" s="1">
         <v>1539</v>
       </c>
-      <c r="F1132" s="1" t="s">
+      <c r="F1133" s="1" t="s">
         <v>1578</v>
       </c>
     </row>
@@ -23493,19 +23544,19 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B1075" r:id="rId1" display="https://www.zhihu.com/answer/2206506644" xr:uid="{FD543D92-B2D6-4586-B9BE-4E7643BEE202}"/>
-    <hyperlink ref="B1076" r:id="rId2" display="https://www.zhihu.com/answer/2549539718" xr:uid="{90B4B888-2171-4330-BDA1-0249BD5FAA50}"/>
-    <hyperlink ref="B1077" r:id="rId3" display="https://www.zhihu.com/answer/1617385809" xr:uid="{8B7A5A62-3930-4D38-9D74-12575D3EA61A}"/>
-    <hyperlink ref="D1077" r:id="rId4" display="https://maifile.cn/est/d2896776481343/pdf" xr:uid="{3261EE0E-041C-49C3-92DE-0CBEF27B994D}"/>
-    <hyperlink ref="D1078" r:id="rId5" xr:uid="{965051A6-BEBC-424A-A9DC-1B4B2B1BD256}"/>
-    <hyperlink ref="B1079" r:id="rId6" xr:uid="{E813229B-BB77-4B01-BE55-84872587AC13}"/>
-    <hyperlink ref="D1079" r:id="rId7" xr:uid="{F574E58A-D082-4189-9529-BC1DDD5C7873}"/>
-    <hyperlink ref="B1084" r:id="rId8" xr:uid="{436EE202-0725-4033-BE39-11ADB31CF2AE}"/>
-    <hyperlink ref="D1084" r:id="rId9" xr:uid="{00578C14-2493-4FC1-B73F-270E850F7F0A}"/>
-    <hyperlink ref="B1085" r:id="rId10" display="https://www.zhihu.com/answer/887331920" xr:uid="{3AAAFD6F-2470-47CF-A5E8-C1FB6E329A67}"/>
-    <hyperlink ref="B1086" r:id="rId11" xr:uid="{473BE29B-5A1C-4229-BE5E-9B7E2EB605AA}"/>
-    <hyperlink ref="D1086" r:id="rId12" xr:uid="{106957C5-2BD1-4424-BDD8-27BCD8A476FF}"/>
-    <hyperlink ref="D1087" r:id="rId13" display="https://maifile.cn/est/d32356758849103/pdf" xr:uid="{9D9A7E63-B059-4059-9355-0DD7EBEA2C68}"/>
+    <hyperlink ref="B1076" r:id="rId1" display="https://www.zhihu.com/answer/2206506644" xr:uid="{FD543D92-B2D6-4586-B9BE-4E7643BEE202}"/>
+    <hyperlink ref="B1077" r:id="rId2" display="https://www.zhihu.com/answer/2549539718" xr:uid="{90B4B888-2171-4330-BDA1-0249BD5FAA50}"/>
+    <hyperlink ref="B1078" r:id="rId3" display="https://www.zhihu.com/answer/1617385809" xr:uid="{8B7A5A62-3930-4D38-9D74-12575D3EA61A}"/>
+    <hyperlink ref="D1078" r:id="rId4" display="https://maifile.cn/est/d2896776481343/pdf" xr:uid="{3261EE0E-041C-49C3-92DE-0CBEF27B994D}"/>
+    <hyperlink ref="D1079" r:id="rId5" xr:uid="{965051A6-BEBC-424A-A9DC-1B4B2B1BD256}"/>
+    <hyperlink ref="B1080" r:id="rId6" xr:uid="{E813229B-BB77-4B01-BE55-84872587AC13}"/>
+    <hyperlink ref="D1080" r:id="rId7" xr:uid="{F574E58A-D082-4189-9529-BC1DDD5C7873}"/>
+    <hyperlink ref="B1085" r:id="rId8" xr:uid="{436EE202-0725-4033-BE39-11ADB31CF2AE}"/>
+    <hyperlink ref="D1085" r:id="rId9" xr:uid="{00578C14-2493-4FC1-B73F-270E850F7F0A}"/>
+    <hyperlink ref="B1086" r:id="rId10" display="https://www.zhihu.com/answer/887331920" xr:uid="{3AAAFD6F-2470-47CF-A5E8-C1FB6E329A67}"/>
+    <hyperlink ref="B1087" r:id="rId11" xr:uid="{473BE29B-5A1C-4229-BE5E-9B7E2EB605AA}"/>
+    <hyperlink ref="D1087" r:id="rId12" xr:uid="{106957C5-2BD1-4424-BDD8-27BCD8A476FF}"/>
+    <hyperlink ref="D1088" r:id="rId13" display="https://maifile.cn/est/d32356758849103/pdf" xr:uid="{9D9A7E63-B059-4059-9355-0DD7EBEA2C68}"/>
     <hyperlink ref="B2" r:id="rId14" xr:uid="{0023F52F-A235-4BEA-A90A-41BC2E9CAF1D}"/>
     <hyperlink ref="B3" r:id="rId15" xr:uid="{2F31EE3F-C9D1-4F7E-9455-3C253F1D003B}"/>
     <hyperlink ref="D8" r:id="rId16" display="https://maifile.cn/est/d32266751686979/pdf" xr:uid="{2AB42D47-826E-42DE-8927-46A8248D8BCE}"/>
@@ -23636,8 +23687,8 @@
     <hyperlink ref="D435" r:id="rId141" display="https://maifile.cn/est/d2296775287129/pdf" xr:uid="{3BE0F0EC-628E-4254-94AD-DE9C84C707ED}"/>
     <hyperlink ref="B436" r:id="rId142" xr:uid="{6420EDE3-76AA-40AC-B39E-6F749FF4E316}"/>
     <hyperlink ref="D436" r:id="rId143" xr:uid="{C6A908DA-1678-4000-8B2F-6597C97B1A01}"/>
-    <hyperlink ref="B1116" r:id="rId144" xr:uid="{03D247D8-5453-44A3-9CCC-5B69E84C372B}"/>
-    <hyperlink ref="D1116" r:id="rId145" xr:uid="{72202FB2-41AD-4B5A-953D-C62223B367A1}"/>
+    <hyperlink ref="B1117" r:id="rId144" xr:uid="{03D247D8-5453-44A3-9CCC-5B69E84C372B}"/>
+    <hyperlink ref="D1117" r:id="rId145" xr:uid="{72202FB2-41AD-4B5A-953D-C62223B367A1}"/>
     <hyperlink ref="D440" r:id="rId146" display="https://maifile.cn/est/d2886761365610/pdf" xr:uid="{797E52FC-7533-4CA4-B60C-7A57ECD1B520}"/>
     <hyperlink ref="D442" r:id="rId147" display="https://maifile.cn/est/d3136776588653/pdf" xr:uid="{C4568019-5137-4CE9-959C-16801E290032}"/>
     <hyperlink ref="B455" r:id="rId148" xr:uid="{0D1C16B2-531C-4F7A-89EE-5B265392F9C7}"/>
@@ -23820,41 +23871,41 @@
     <hyperlink ref="D1064" r:id="rId325" display="https://maifile.cn/est/d3236761252658/pdf" xr:uid="{CA6E0F9D-E1C8-4BCF-A48B-6702B1113CD5}"/>
     <hyperlink ref="D1065" r:id="rId326" display="https://maifile.cn/est/d2236769495398/pdf" xr:uid="{810D787B-1B25-430B-A9AD-A01EAB335D8D}"/>
     <hyperlink ref="D1068" r:id="rId327" display="https://maifile.cn/est/d2326761198401/pdf" xr:uid="{5A7540AF-B37F-4EED-8908-90FB5CF1B2EA}"/>
-    <hyperlink ref="D1071" r:id="rId328" xr:uid="{C9A49D05-5DF9-4F01-9F4D-B4D0011BA79B}"/>
-    <hyperlink ref="B1073" r:id="rId329" display="https://www.zhihu.com/answer/2201428112" xr:uid="{03D7D225-EC5D-45B1-A2B9-6A8E0AA6FD24}"/>
-    <hyperlink ref="B1074" r:id="rId330" display="https://www.zhihu.com/answer/2067171324" xr:uid="{ADD6A3A5-BEA5-435F-B913-2F781CE07455}"/>
+    <hyperlink ref="D1072" r:id="rId328" xr:uid="{C9A49D05-5DF9-4F01-9F4D-B4D0011BA79B}"/>
+    <hyperlink ref="B1074" r:id="rId329" display="https://www.zhihu.com/answer/2201428112" xr:uid="{03D7D225-EC5D-45B1-A2B9-6A8E0AA6FD24}"/>
+    <hyperlink ref="B1075" r:id="rId330" display="https://www.zhihu.com/answer/2067171324" xr:uid="{ADD6A3A5-BEA5-435F-B913-2F781CE07455}"/>
     <hyperlink ref="B349" r:id="rId331" xr:uid="{5F557FBA-073B-4C57-A839-4073E54194FC}"/>
     <hyperlink ref="B479" r:id="rId332" xr:uid="{A827D520-0E6D-46DB-8EDC-B2F7FBE7F5C9}"/>
     <hyperlink ref="B251" r:id="rId333" xr:uid="{9ABB49D8-782D-4015-B91D-8CF9983B82DF}"/>
     <hyperlink ref="D252" r:id="rId334" xr:uid="{06C3054C-42FD-4CC0-B66A-630811FE51EA}"/>
     <hyperlink ref="D251" r:id="rId335" xr:uid="{7071F04F-BEBD-4203-956D-28FFE7A006BE}"/>
     <hyperlink ref="D479" r:id="rId336" xr:uid="{031468BA-0476-41CC-92C2-EAEED38D2DAC}"/>
-    <hyperlink ref="B1088" r:id="rId337" xr:uid="{86D87583-3695-47FF-8A00-15EC8D70E624}"/>
-    <hyperlink ref="B1089" r:id="rId338" xr:uid="{171826A3-7781-4F86-A0F4-3A95C1423140}"/>
-    <hyperlink ref="B1090" r:id="rId339" xr:uid="{D62D2803-3E91-45FE-862B-F84F52F8EE08}"/>
-    <hyperlink ref="B1091" r:id="rId340" xr:uid="{5D8D03E3-46F1-4156-A95E-5EF2B1913875}"/>
-    <hyperlink ref="B1092" r:id="rId341" xr:uid="{1548E48F-ADD2-4E16-ACB9-CF624EE47109}"/>
-    <hyperlink ref="B1093" r:id="rId342" xr:uid="{4E619F91-CBE2-4B52-A98A-9AAD8F3C199D}"/>
-    <hyperlink ref="B1094" r:id="rId343" xr:uid="{6A26999E-8FAD-4EC4-92F7-BE4A3777424B}"/>
-    <hyperlink ref="B1095" r:id="rId344" xr:uid="{5A23C4D0-9C68-4494-9E51-3A84C4991AD3}"/>
-    <hyperlink ref="B1113" r:id="rId345" xr:uid="{C1C4B2CB-5A6D-4890-9E7B-D32CB1E31B96}"/>
-    <hyperlink ref="D1113" r:id="rId346" xr:uid="{C7CD8190-381B-4775-88D8-195B1F9C162F}"/>
-    <hyperlink ref="D1104" r:id="rId347" xr:uid="{8B445DC8-A958-43C5-A3CD-7F31D9B4E320}"/>
-    <hyperlink ref="B1102" r:id="rId348" xr:uid="{867E3EBD-346F-43E1-A984-2B37AB599400}"/>
-    <hyperlink ref="B1104" r:id="rId349" xr:uid="{17DA43FB-4D94-46C7-98A8-F6F497D5FF0B}"/>
-    <hyperlink ref="D1102" r:id="rId350" xr:uid="{B248F0B9-3363-44B2-862F-FE59BDD271E0}"/>
-    <hyperlink ref="D1101" r:id="rId351" xr:uid="{EA3B9E12-1CB4-45C9-A7D6-F76544EBAF1F}"/>
-    <hyperlink ref="D1105" r:id="rId352" xr:uid="{20225791-17A1-45C8-A1CF-03C111FA7BC6}"/>
+    <hyperlink ref="B1089" r:id="rId337" xr:uid="{86D87583-3695-47FF-8A00-15EC8D70E624}"/>
+    <hyperlink ref="B1090" r:id="rId338" xr:uid="{171826A3-7781-4F86-A0F4-3A95C1423140}"/>
+    <hyperlink ref="B1091" r:id="rId339" xr:uid="{D62D2803-3E91-45FE-862B-F84F52F8EE08}"/>
+    <hyperlink ref="B1092" r:id="rId340" xr:uid="{5D8D03E3-46F1-4156-A95E-5EF2B1913875}"/>
+    <hyperlink ref="B1093" r:id="rId341" xr:uid="{1548E48F-ADD2-4E16-ACB9-CF624EE47109}"/>
+    <hyperlink ref="B1094" r:id="rId342" xr:uid="{4E619F91-CBE2-4B52-A98A-9AAD8F3C199D}"/>
+    <hyperlink ref="B1095" r:id="rId343" xr:uid="{6A26999E-8FAD-4EC4-92F7-BE4A3777424B}"/>
+    <hyperlink ref="B1096" r:id="rId344" xr:uid="{5A23C4D0-9C68-4494-9E51-3A84C4991AD3}"/>
+    <hyperlink ref="B1114" r:id="rId345" xr:uid="{C1C4B2CB-5A6D-4890-9E7B-D32CB1E31B96}"/>
+    <hyperlink ref="D1114" r:id="rId346" xr:uid="{C7CD8190-381B-4775-88D8-195B1F9C162F}"/>
+    <hyperlink ref="D1105" r:id="rId347" xr:uid="{8B445DC8-A958-43C5-A3CD-7F31D9B4E320}"/>
+    <hyperlink ref="B1103" r:id="rId348" xr:uid="{867E3EBD-346F-43E1-A984-2B37AB599400}"/>
+    <hyperlink ref="B1105" r:id="rId349" xr:uid="{17DA43FB-4D94-46C7-98A8-F6F497D5FF0B}"/>
+    <hyperlink ref="D1103" r:id="rId350" xr:uid="{B248F0B9-3363-44B2-862F-FE59BDD271E0}"/>
+    <hyperlink ref="D1102" r:id="rId351" xr:uid="{EA3B9E12-1CB4-45C9-A7D6-F76544EBAF1F}"/>
+    <hyperlink ref="D1106" r:id="rId352" xr:uid="{20225791-17A1-45C8-A1CF-03C111FA7BC6}"/>
     <hyperlink ref="D237" r:id="rId353" xr:uid="{81FB87CC-39F8-4F44-9734-E49A24DF2044}"/>
     <hyperlink ref="B237" r:id="rId354" xr:uid="{A7940D1D-800D-49A1-B984-3E669BED1723}"/>
-    <hyperlink ref="B1109" r:id="rId355" xr:uid="{4B08DE7E-8142-4224-BC8D-06950BBB3D51}"/>
-    <hyperlink ref="D1109" r:id="rId356" xr:uid="{3E0FA748-F559-4816-8796-61F97B580E98}"/>
-    <hyperlink ref="D1118" r:id="rId357" xr:uid="{C2FF5C32-2509-4A36-9AF3-6895329370B1}"/>
-    <hyperlink ref="B1118" r:id="rId358" xr:uid="{09EB5B2E-4D08-4EEB-8D49-7A778140619C}"/>
-    <hyperlink ref="D1119" r:id="rId359" xr:uid="{BD243E93-BE85-4537-891A-3EC0AB30167F}"/>
-    <hyperlink ref="B1119" r:id="rId360" xr:uid="{06EBDCDD-A787-437E-BFBD-93977D78527B}"/>
-    <hyperlink ref="B1120" r:id="rId361" xr:uid="{CD0A644C-AEA5-4A4D-A23D-6DA32D1A67E6}"/>
-    <hyperlink ref="D1120" r:id="rId362" xr:uid="{C30A13C3-935D-4422-959E-A1EA925F0824}"/>
+    <hyperlink ref="B1110" r:id="rId355" xr:uid="{4B08DE7E-8142-4224-BC8D-06950BBB3D51}"/>
+    <hyperlink ref="D1110" r:id="rId356" xr:uid="{3E0FA748-F559-4816-8796-61F97B580E98}"/>
+    <hyperlink ref="D1119" r:id="rId357" xr:uid="{C2FF5C32-2509-4A36-9AF3-6895329370B1}"/>
+    <hyperlink ref="B1119" r:id="rId358" xr:uid="{09EB5B2E-4D08-4EEB-8D49-7A778140619C}"/>
+    <hyperlink ref="D1120" r:id="rId359" xr:uid="{BD243E93-BE85-4537-891A-3EC0AB30167F}"/>
+    <hyperlink ref="B1120" r:id="rId360" xr:uid="{06EBDCDD-A787-437E-BFBD-93977D78527B}"/>
+    <hyperlink ref="B1121" r:id="rId361" xr:uid="{CD0A644C-AEA5-4A4D-A23D-6DA32D1A67E6}"/>
+    <hyperlink ref="D1121" r:id="rId362" xr:uid="{C30A13C3-935D-4422-959E-A1EA925F0824}"/>
     <hyperlink ref="B238" r:id="rId363" xr:uid="{32CE57BA-DA38-4302-9EAA-577773F96628}"/>
     <hyperlink ref="D238" r:id="rId364" xr:uid="{62A11293-16A4-4EFF-9A47-187407F91E9B}"/>
     <hyperlink ref="D250" r:id="rId365" xr:uid="{DA08B749-D252-4832-BE4F-6F7356C21C06}"/>
@@ -23867,8 +23918,8 @@
     <hyperlink ref="B1003" r:id="rId372" xr:uid="{5D110323-6005-485B-823E-59D8C16430A3}"/>
     <hyperlink ref="B65" r:id="rId373" xr:uid="{74E115D7-B84E-4295-9B94-1C9DEBB2FEE7}"/>
     <hyperlink ref="D65" r:id="rId374" xr:uid="{7D65DA0A-F2EA-4609-820B-3B7F049BBBC4}"/>
-    <hyperlink ref="B1111" r:id="rId375" xr:uid="{B266EE16-9BFC-4B28-8E1D-4BCC32720E9D}"/>
-    <hyperlink ref="D1111" r:id="rId376" xr:uid="{ABF4CCE1-E344-44FA-ABDF-E27209DFF199}"/>
+    <hyperlink ref="B1112" r:id="rId375" xr:uid="{B266EE16-9BFC-4B28-8E1D-4BCC32720E9D}"/>
+    <hyperlink ref="D1112" r:id="rId376" xr:uid="{ABF4CCE1-E344-44FA-ABDF-E27209DFF199}"/>
     <hyperlink ref="B130" r:id="rId377" xr:uid="{A22F21B2-9440-4084-ACAD-17AAB46169C9}"/>
     <hyperlink ref="D130" r:id="rId378" xr:uid="{70061459-8C3F-4939-95EB-C74340BCBC60}"/>
     <hyperlink ref="B911" r:id="rId379" xr:uid="{0526BD69-D8A2-4318-89EB-EB4851E10BC0}"/>
@@ -23908,7 +23959,7 @@
     <hyperlink ref="D451" r:id="rId413" xr:uid="{977C02F8-C190-4904-B9A9-B0119B66A76E}"/>
     <hyperlink ref="B451" r:id="rId414" xr:uid="{D85EFBA6-9F14-47C3-8790-C0D49300C2A5}"/>
     <hyperlink ref="B333" r:id="rId415" xr:uid="{64D86166-82D8-44ED-A6B1-2A9805D1A111}"/>
-    <hyperlink ref="B1103" r:id="rId416" xr:uid="{8B5CC89E-75DC-409A-AC79-58C597BDBFEA}"/>
+    <hyperlink ref="B1104" r:id="rId416" xr:uid="{8B5CC89E-75DC-409A-AC79-58C597BDBFEA}"/>
     <hyperlink ref="B521" r:id="rId417" xr:uid="{6AD757F6-411B-4607-A12E-C827734B2F57}"/>
     <hyperlink ref="B652" r:id="rId418" xr:uid="{975E4E7C-21ED-467B-876A-B7A73A555328}"/>
     <hyperlink ref="B651" r:id="rId419" xr:uid="{799C5098-9FAC-45CB-9678-F594A85630C0}"/>
@@ -23933,11 +23984,11 @@
     <hyperlink ref="B765" r:id="rId438" xr:uid="{3029165A-7D55-4E93-905F-AFDD347A257E}"/>
     <hyperlink ref="D576" r:id="rId439" xr:uid="{D226F5E9-7E9D-4886-B8F4-4682196B302E}"/>
     <hyperlink ref="B576" r:id="rId440" xr:uid="{43511C25-750E-432B-AD9F-D0A3EFB14E88}"/>
-    <hyperlink ref="B1122" r:id="rId441" xr:uid="{07B391AE-5946-4981-8037-7D7007BA4B48}"/>
-    <hyperlink ref="D1123" r:id="rId442" xr:uid="{50B3C860-655B-46B4-B35D-ADF7DA5C36E3}"/>
-    <hyperlink ref="B1123" r:id="rId443" xr:uid="{C5DC3C7E-2124-4C99-9A4E-D61F23F1EB3F}"/>
-    <hyperlink ref="B1080" r:id="rId444" xr:uid="{4E176757-05D7-43EF-8D91-B7CC2A5FF687}"/>
-    <hyperlink ref="B1083" r:id="rId445" xr:uid="{670A6523-7387-4052-AA4A-00B719CEC93B}"/>
+    <hyperlink ref="B1123" r:id="rId441" xr:uid="{07B391AE-5946-4981-8037-7D7007BA4B48}"/>
+    <hyperlink ref="D1124" r:id="rId442" xr:uid="{50B3C860-655B-46B4-B35D-ADF7DA5C36E3}"/>
+    <hyperlink ref="B1124" r:id="rId443" xr:uid="{C5DC3C7E-2124-4C99-9A4E-D61F23F1EB3F}"/>
+    <hyperlink ref="B1081" r:id="rId444" xr:uid="{4E176757-05D7-43EF-8D91-B7CC2A5FF687}"/>
+    <hyperlink ref="B1084" r:id="rId445" xr:uid="{670A6523-7387-4052-AA4A-00B719CEC93B}"/>
     <hyperlink ref="D897" r:id="rId446" xr:uid="{D1D045E7-335A-4135-99D2-E736D1163F60}"/>
     <hyperlink ref="B897" r:id="rId447" xr:uid="{DE37B11A-0E4D-41C8-821B-6D13789938DA}"/>
     <hyperlink ref="D861" r:id="rId448" xr:uid="{7494C7DD-01F7-4113-88C9-827BD7EB36CF}"/>
@@ -23946,8 +23997,8 @@
     <hyperlink ref="B177" r:id="rId451" xr:uid="{FCD07469-74A4-497A-BB7C-1F1CD8E1B5A2}"/>
     <hyperlink ref="D714" r:id="rId452" xr:uid="{B33BB05A-AD38-4B90-AB69-7B7BE9E4C125}"/>
     <hyperlink ref="B714" r:id="rId453" xr:uid="{97E546D9-771F-4611-A8F7-A28CCCC64EF5}"/>
-    <hyperlink ref="D1124" r:id="rId454" xr:uid="{9B8B9315-59CB-4C84-943D-F70D96621977}"/>
-    <hyperlink ref="B1124" r:id="rId455" xr:uid="{2D375770-A8C8-4208-9A8B-F7F840A4CA8F}"/>
+    <hyperlink ref="D1125" r:id="rId454" xr:uid="{9B8B9315-59CB-4C84-943D-F70D96621977}"/>
+    <hyperlink ref="B1125" r:id="rId455" xr:uid="{2D375770-A8C8-4208-9A8B-F7F840A4CA8F}"/>
     <hyperlink ref="D883" r:id="rId456" xr:uid="{4EBDA85A-A8A4-452E-BA2A-F5B475F66C21}"/>
     <hyperlink ref="B883" r:id="rId457" xr:uid="{A6468EB7-3ADA-4672-BFAD-D67BEA2187B3}"/>
     <hyperlink ref="D628" r:id="rId458" xr:uid="{4AE9BE7F-3073-41C3-ACBE-84E952574694}"/>
@@ -23968,18 +24019,18 @@
     <hyperlink ref="D1024" r:id="rId473" xr:uid="{FACF2C8C-49C6-4071-81AE-C7557F64D74A}"/>
     <hyperlink ref="B1024" r:id="rId474" xr:uid="{96685B2C-A600-441B-A3F4-4D7818D2DB5D}"/>
     <hyperlink ref="B1025" r:id="rId475" xr:uid="{F1394B5B-B948-4328-A298-7FD3AD25159C}"/>
-    <hyperlink ref="D1076" r:id="rId476" xr:uid="{267599C9-8031-4247-B36B-110323D74622}"/>
+    <hyperlink ref="D1077" r:id="rId476" xr:uid="{267599C9-8031-4247-B36B-110323D74622}"/>
     <hyperlink ref="B75" r:id="rId477" xr:uid="{50A2E7E7-7F17-4CA2-8CD9-AD91642B307E}"/>
     <hyperlink ref="B565" r:id="rId478" xr:uid="{EBA89B21-B627-4262-B036-9B7B763682AA}"/>
-    <hyperlink ref="B1125" r:id="rId479" xr:uid="{F777CB0B-CF29-4F10-84AD-389868A8F2B1}"/>
-    <hyperlink ref="D1125" r:id="rId480" xr:uid="{48D7257C-B331-4DAD-9CF2-BE110979FC6F}"/>
+    <hyperlink ref="B1126" r:id="rId479" xr:uid="{F777CB0B-CF29-4F10-84AD-389868A8F2B1}"/>
+    <hyperlink ref="D1126" r:id="rId480" xr:uid="{48D7257C-B331-4DAD-9CF2-BE110979FC6F}"/>
     <hyperlink ref="B976" r:id="rId481" xr:uid="{5A37F183-E8F4-4712-8C2E-90DF773381F8}"/>
     <hyperlink ref="B977" r:id="rId482" xr:uid="{B975BDE8-226B-49A1-90D7-96C178509537}"/>
     <hyperlink ref="D25" r:id="rId483" xr:uid="{E9EBBA20-E1D9-40B8-AF6B-D8C275B3C72A}"/>
     <hyperlink ref="B25" r:id="rId484" xr:uid="{5E6DF5E0-24D3-4F89-9E7D-6D9A6C3ACF5F}"/>
     <hyperlink ref="B20" r:id="rId485" xr:uid="{25DA848F-1BB7-4E2F-875A-D5819A38AA33}"/>
-    <hyperlink ref="B1112" r:id="rId486" xr:uid="{03270EBC-E58D-4DE7-B4AC-2AF3466EDF8C}"/>
-    <hyperlink ref="D1112" r:id="rId487" xr:uid="{05F6D115-6BA9-4F55-B798-F7D2746BAC71}"/>
+    <hyperlink ref="B1113" r:id="rId486" xr:uid="{03270EBC-E58D-4DE7-B4AC-2AF3466EDF8C}"/>
+    <hyperlink ref="D1113" r:id="rId487" xr:uid="{05F6D115-6BA9-4F55-B798-F7D2746BAC71}"/>
     <hyperlink ref="D76" r:id="rId488" xr:uid="{1A83DC5D-092A-4142-A9C5-013E1A0F7BB7}"/>
     <hyperlink ref="B76" r:id="rId489" xr:uid="{20B08C63-FF8F-4D82-90E9-82C7746B59E5}"/>
     <hyperlink ref="D744" r:id="rId490" xr:uid="{ECCD40B9-01A9-49E7-B530-DAA46DAC126D}"/>
@@ -24014,20 +24065,20 @@
     <hyperlink ref="B943" r:id="rId519" xr:uid="{944AB004-EA1B-4A1F-86FB-C38C2E35848A}"/>
     <hyperlink ref="D961" r:id="rId520" xr:uid="{49864206-7B19-4729-BA67-2ACD17FA64F4}"/>
     <hyperlink ref="B961" r:id="rId521" xr:uid="{05535C34-A75C-4503-9C35-5E3D587F1160}"/>
-    <hyperlink ref="B1126" r:id="rId522" xr:uid="{8E94957E-70AE-4DB0-BDC2-AC4F90BD07F4}"/>
-    <hyperlink ref="D1126" r:id="rId523" xr:uid="{B6CD8A95-BEFE-4065-BD8F-1AA91AE5B830}"/>
-    <hyperlink ref="B1127" r:id="rId524" xr:uid="{95896BA2-ED86-475C-9894-4D8C77944E2D}"/>
+    <hyperlink ref="B1127" r:id="rId522" xr:uid="{8E94957E-70AE-4DB0-BDC2-AC4F90BD07F4}"/>
+    <hyperlink ref="D1127" r:id="rId523" xr:uid="{B6CD8A95-BEFE-4065-BD8F-1AA91AE5B830}"/>
+    <hyperlink ref="B1128" r:id="rId524" xr:uid="{95896BA2-ED86-475C-9894-4D8C77944E2D}"/>
     <hyperlink ref="B399" r:id="rId525" xr:uid="{E6557EB3-3A1D-4956-9BB7-9284F7106C3C}"/>
-    <hyperlink ref="B1128" r:id="rId526" xr:uid="{D551714E-3C11-4AE7-9427-B2458F9D1A95}"/>
-    <hyperlink ref="D1127" r:id="rId527" xr:uid="{C87CAD26-EE73-4119-9852-A02BCFAF13B0}"/>
-    <hyperlink ref="D1129" r:id="rId528" xr:uid="{CA9E9C45-7A71-4676-BDA6-FFCC3C7BFD89}"/>
-    <hyperlink ref="B1129" r:id="rId529" xr:uid="{77A51B37-DBDC-4D95-835B-7085787860BF}"/>
+    <hyperlink ref="B1129" r:id="rId526" xr:uid="{D551714E-3C11-4AE7-9427-B2458F9D1A95}"/>
+    <hyperlink ref="D1128" r:id="rId527" xr:uid="{C87CAD26-EE73-4119-9852-A02BCFAF13B0}"/>
+    <hyperlink ref="D1130" r:id="rId528" xr:uid="{CA9E9C45-7A71-4676-BDA6-FFCC3C7BFD89}"/>
+    <hyperlink ref="B1130" r:id="rId529" xr:uid="{77A51B37-DBDC-4D95-835B-7085787860BF}"/>
     <hyperlink ref="B649" r:id="rId530" xr:uid="{DE42FC59-BCC1-47D3-94C7-16B4F2B29C55}"/>
     <hyperlink ref="D649" r:id="rId531" xr:uid="{6E87EA17-8BDD-422F-80B2-B957B2A0163D}"/>
     <hyperlink ref="D767" r:id="rId532" xr:uid="{33AC5AC9-036D-44E9-B378-0D923A5B7DAE}"/>
     <hyperlink ref="B767" r:id="rId533" xr:uid="{5633AA61-BE61-423F-9FF4-E7261A2CC5AB}"/>
-    <hyperlink ref="B1100" r:id="rId534" xr:uid="{7C7B3F4B-54AE-4141-8FFD-55600EA0DDBC}"/>
-    <hyperlink ref="D1100" r:id="rId535" xr:uid="{61D461CA-2846-4FB6-83FC-F85C4E67CD2E}"/>
+    <hyperlink ref="B1101" r:id="rId534" xr:uid="{7C7B3F4B-54AE-4141-8FFD-55600EA0DDBC}"/>
+    <hyperlink ref="D1101" r:id="rId535" xr:uid="{61D461CA-2846-4FB6-83FC-F85C4E67CD2E}"/>
     <hyperlink ref="D513" r:id="rId536" xr:uid="{FC25D8B4-302E-41C6-A782-E92EAEADFE10}"/>
     <hyperlink ref="B513" r:id="rId537" xr:uid="{CEA47847-CF3C-4065-AADE-80238C211C80}"/>
     <hyperlink ref="D735" r:id="rId538" xr:uid="{335D8AD6-266E-4BB6-818F-6A5F831F59E9}"/>
@@ -24057,10 +24108,10 @@
     <hyperlink ref="B80" r:id="rId562" xr:uid="{3A811EB8-0011-4779-81B0-945D171D73A6}"/>
     <hyperlink ref="D873" r:id="rId563" xr:uid="{2C7E429C-5B0B-486F-9EDE-2F1C69A412F7}"/>
     <hyperlink ref="B873" r:id="rId564" xr:uid="{0571C53B-ADB7-41DB-AA69-152C2C1E6BF3}"/>
-    <hyperlink ref="B1130" r:id="rId565" xr:uid="{99C4FAAC-CAFA-4AA8-8AF3-42FBAE1E90B8}"/>
-    <hyperlink ref="D1130" r:id="rId566" xr:uid="{4533B646-C5B7-4919-B8A1-5799310DAF7F}"/>
-    <hyperlink ref="B1131" r:id="rId567" xr:uid="{61B8AE5D-8849-49DF-A6EC-27025BBDBC6E}"/>
-    <hyperlink ref="D1131" r:id="rId568" xr:uid="{7AD56BF3-3235-4227-B7E7-2CFABE58203D}"/>
+    <hyperlink ref="B1131" r:id="rId565" xr:uid="{99C4FAAC-CAFA-4AA8-8AF3-42FBAE1E90B8}"/>
+    <hyperlink ref="D1131" r:id="rId566" xr:uid="{4533B646-C5B7-4919-B8A1-5799310DAF7F}"/>
+    <hyperlink ref="B1132" r:id="rId567" xr:uid="{61B8AE5D-8849-49DF-A6EC-27025BBDBC6E}"/>
+    <hyperlink ref="D1132" r:id="rId568" xr:uid="{7AD56BF3-3235-4227-B7E7-2CFABE58203D}"/>
     <hyperlink ref="D30" r:id="rId569" xr:uid="{341B89FD-2185-41E9-A6C7-21E5E92794C7}"/>
     <hyperlink ref="B30" r:id="rId570" xr:uid="{8A195F81-1A3B-408C-B13D-483831D8C11C}"/>
     <hyperlink ref="D631" r:id="rId571" xr:uid="{ADE056C0-ACA4-41A8-BF36-1846BEB0280D}"/>
@@ -24071,8 +24122,8 @@
     <hyperlink ref="D685" r:id="rId576" xr:uid="{92C2DFED-4D6C-4A6C-B845-26E30C94B4B6}"/>
     <hyperlink ref="B685" r:id="rId577" xr:uid="{3B18259B-2597-4404-B0D6-9A41812B69B3}"/>
     <hyperlink ref="B132" r:id="rId578" xr:uid="{53117569-1A7F-40E0-B6F5-B035689CAF58}"/>
-    <hyperlink ref="B1132" r:id="rId579" xr:uid="{E013512B-6412-4490-8D23-C9542E2E9F89}"/>
-    <hyperlink ref="D1132" r:id="rId580" xr:uid="{B0632B8F-64BF-4AA7-8AD0-2FA507F20158}"/>
+    <hyperlink ref="B1133" r:id="rId579" xr:uid="{E013512B-6412-4490-8D23-C9542E2E9F89}"/>
+    <hyperlink ref="D1133" r:id="rId580" xr:uid="{B0632B8F-64BF-4AA7-8AD0-2FA507F20158}"/>
     <hyperlink ref="D92" r:id="rId581" xr:uid="{26511810-2814-4E63-842F-4A9ADD80DDDD}"/>
     <hyperlink ref="D777" r:id="rId582" xr:uid="{577A13DA-B168-4564-9FFA-F334A24FCE85}"/>
     <hyperlink ref="B777" r:id="rId583" xr:uid="{ABA48AAD-9ED3-4DB9-BF87-5ACEE8FC9E92}"/>
@@ -24095,11 +24146,11 @@
     <hyperlink ref="D34" r:id="rId600" xr:uid="{97FED713-F69B-49E5-80D0-9A1482A83BD4}"/>
     <hyperlink ref="D914" r:id="rId601" xr:uid="{401EF341-72D3-4300-A236-A1201084F654}"/>
     <hyperlink ref="B914" r:id="rId602" xr:uid="{9E09F618-94B5-48D9-AA0F-9804E2AE76FF}"/>
-    <hyperlink ref="D1075" r:id="rId603" xr:uid="{DB0448BE-03C4-45AB-9138-B07A2E01465F}"/>
+    <hyperlink ref="D1076" r:id="rId603" xr:uid="{DB0448BE-03C4-45AB-9138-B07A2E01465F}"/>
     <hyperlink ref="B485" r:id="rId604" xr:uid="{198F1703-7E7C-4062-AD1C-F03FE6A0C95B}"/>
     <hyperlink ref="D485" r:id="rId605" xr:uid="{BC36775A-741C-472D-8906-E27B41A46425}"/>
-    <hyperlink ref="B1107" r:id="rId606" xr:uid="{060EEB2E-72A3-474B-B48B-4489FB4E0019}"/>
-    <hyperlink ref="D1107" r:id="rId607" xr:uid="{866826E0-B049-428D-9449-170659E4D2E1}"/>
+    <hyperlink ref="B1108" r:id="rId606" xr:uid="{060EEB2E-72A3-474B-B48B-4489FB4E0019}"/>
+    <hyperlink ref="D1108" r:id="rId607" xr:uid="{866826E0-B049-428D-9449-170659E4D2E1}"/>
     <hyperlink ref="B921" r:id="rId608" xr:uid="{B59F4D6E-520D-4AF5-9E05-B7A4D93EB92C}"/>
     <hyperlink ref="D921" r:id="rId609" xr:uid="{ECEB81C1-A28D-4E50-8542-9E45B295B0B6}"/>
     <hyperlink ref="B840" r:id="rId610" xr:uid="{C8487B09-A6EE-473B-AAE7-43FCC34FE759}"/>
@@ -24128,9 +24179,13 @@
     <hyperlink ref="D726" r:id="rId633" xr:uid="{DED0AC56-3F6F-465F-A52B-A4D58DBE1309}"/>
     <hyperlink ref="D321" r:id="rId634" xr:uid="{83E541EB-DA46-4589-B390-F62B5A0E823E}"/>
     <hyperlink ref="B321" r:id="rId635" xr:uid="{C1D1F303-8EF1-486C-ADA1-7249001947B4}"/>
+    <hyperlink ref="D1071" r:id="rId636" xr:uid="{52141B91-6DEB-4103-A6E5-9CD38C36CD0E}"/>
+    <hyperlink ref="B1071" r:id="rId637" xr:uid="{64849601-67D3-457B-9B8F-7B883E78EFAA}"/>
+    <hyperlink ref="B69" r:id="rId638" xr:uid="{3A3BF182-A795-4F02-B392-FFAA179A4712}"/>
+    <hyperlink ref="D69" r:id="rId639" xr:uid="{F1904115-D0BA-4719-AFF1-1A15015CEA77}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId636"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId640"/>
 </worksheet>
 </file>
 
@@ -24792,235 +24847,235 @@
         <v>484</v>
       </c>
       <c r="B89" s="6" t="str">
-        <f>链接汇总!A1088</f>
+        <f>链接汇总!A1089</f>
         <v>好书</v>
       </c>
       <c r="C89" s="1" t="str">
-        <f>链接汇总!B1088</f>
+        <f>链接汇总!B1089</f>
         <v>https://www.zhihu.com/answer/573726231</v>
       </c>
       <c r="D89" s="6" t="str">
-        <f>链接汇总!C1088</f>
+        <f>链接汇总!C1089</f>
         <v>好书</v>
       </c>
       <c r="E89" s="1">
-        <f>链接汇总!D1088</f>
+        <f>链接汇总!D1089</f>
         <v>0</v>
       </c>
       <c r="F89" s="1">
-        <f>链接汇总!E1088</f>
+        <f>链接汇总!E1089</f>
         <v>0</v>
       </c>
       <c r="G89" s="1">
-        <f>链接汇总!F1088</f>
+        <f>链接汇总!F1089</f>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="6" t="str">
-        <f>链接汇总!A1089</f>
+        <f>链接汇总!A1090</f>
         <v>高中书目</v>
       </c>
       <c r="C90" s="1" t="str">
-        <f>链接汇总!B1089</f>
+        <f>链接汇总!B1090</f>
         <v>https://www.zhihu.com/answer/1304983217</v>
       </c>
       <c r="D90" s="6" t="str">
-        <f>链接汇总!C1089</f>
+        <f>链接汇总!C1090</f>
         <v>高中书目</v>
       </c>
       <c r="E90" s="1">
-        <f>链接汇总!D1089</f>
+        <f>链接汇总!D1090</f>
         <v>0</v>
       </c>
       <c r="F90" s="1">
-        <f>链接汇总!E1089</f>
+        <f>链接汇总!E1090</f>
         <v>0</v>
       </c>
       <c r="G90" s="1">
-        <f>链接汇总!F1089</f>
+        <f>链接汇总!F1090</f>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="6" t="str">
-        <f>链接汇总!A1090</f>
+        <f>链接汇总!A1091</f>
         <v>藏书</v>
       </c>
       <c r="C91" s="1" t="str">
-        <f>链接汇总!B1090</f>
+        <f>链接汇总!B1091</f>
         <v>https://www.zhihu.com/answer/1746359388</v>
       </c>
       <c r="D91" s="6" t="str">
-        <f>链接汇总!C1090</f>
+        <f>链接汇总!C1091</f>
         <v>藏书</v>
       </c>
       <c r="E91" s="1">
-        <f>链接汇总!D1090</f>
+        <f>链接汇总!D1091</f>
         <v>0</v>
       </c>
       <c r="F91" s="1">
-        <f>链接汇总!E1090</f>
+        <f>链接汇总!E1091</f>
         <v>0</v>
       </c>
       <c r="G91" s="1">
-        <f>链接汇总!F1090</f>
+        <f>链接汇总!F1091</f>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="6" t="str">
-        <f>链接汇总!A1091</f>
+        <f>链接汇总!A1092</f>
         <v>题词</v>
       </c>
       <c r="C92" s="1" t="str">
-        <f>链接汇总!B1091</f>
+        <f>链接汇总!B1092</f>
         <v>https://www.zhihu.com/answer/2184242445</v>
       </c>
       <c r="D92" s="6" t="str">
-        <f>链接汇总!C1091</f>
+        <f>链接汇总!C1092</f>
         <v>题词</v>
       </c>
       <c r="E92" s="1">
-        <f>链接汇总!D1091</f>
+        <f>链接汇总!D1092</f>
         <v>0</v>
       </c>
       <c r="F92" s="1">
-        <f>链接汇总!E1091</f>
+        <f>链接汇总!E1092</f>
         <v>0</v>
       </c>
       <c r="G92" s="1">
-        <f>链接汇总!F1091</f>
+        <f>链接汇总!F1092</f>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="6" t="str">
-        <f>链接汇总!A1092</f>
+        <f>链接汇总!A1093</f>
         <v>《金枝》</v>
       </c>
       <c r="C93" s="1" t="str">
-        <f>链接汇总!B1092</f>
+        <f>链接汇总!B1093</f>
         <v>https://www.zhihu.com/answer/1336980709</v>
       </c>
       <c r="D93" s="6" t="str">
-        <f>链接汇总!C1092</f>
+        <f>链接汇总!C1093</f>
         <v>《金枝》</v>
       </c>
       <c r="E93" s="1">
-        <f>链接汇总!D1092</f>
+        <f>链接汇总!D1093</f>
         <v>0</v>
       </c>
       <c r="F93" s="1">
-        <f>链接汇总!E1092</f>
+        <f>链接汇总!E1093</f>
         <v>0</v>
       </c>
       <c r="G93" s="1">
-        <f>链接汇总!F1092</f>
+        <f>链接汇总!F1093</f>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="6" t="str">
-        <f>链接汇总!A1093</f>
+        <f>链接汇总!A1094</f>
         <v>读书与行路</v>
       </c>
       <c r="C95" s="1" t="str">
-        <f>链接汇总!B1093</f>
+        <f>链接汇总!B1094</f>
         <v>https://www.zhihu.com/answer/2150054195</v>
       </c>
       <c r="D95" s="6" t="str">
-        <f>链接汇总!C1093</f>
+        <f>链接汇总!C1094</f>
         <v>读书与行路</v>
       </c>
       <c r="E95" s="1">
-        <f>链接汇总!D1093</f>
+        <f>链接汇总!D1094</f>
         <v>0</v>
       </c>
       <c r="F95" s="1">
-        <f>链接汇总!E1093</f>
+        <f>链接汇总!E1094</f>
         <v>0</v>
       </c>
       <c r="G95" s="1">
-        <f>链接汇总!F1093</f>
+        <f>链接汇总!F1094</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="6" t="str">
-        <f>链接汇总!A1094</f>
+        <f>链接汇总!A1095</f>
         <v>全科学习</v>
       </c>
       <c r="C96" s="1" t="str">
-        <f>链接汇总!B1094</f>
+        <f>链接汇总!B1095</f>
         <v>https://www.zhihu.com/answer/550517189</v>
       </c>
       <c r="D96" s="6" t="str">
-        <f>链接汇总!C1094</f>
+        <f>链接汇总!C1095</f>
         <v>全科学习</v>
       </c>
       <c r="E96" s="1">
-        <f>链接汇总!D1094</f>
+        <f>链接汇总!D1095</f>
         <v>0</v>
       </c>
       <c r="F96" s="1">
-        <f>链接汇总!E1094</f>
+        <f>链接汇总!E1095</f>
         <v>0</v>
       </c>
       <c r="G96" s="1">
-        <f>链接汇总!F1094</f>
+        <f>链接汇总!F1095</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="6" t="str">
-        <f>链接汇总!A1095</f>
+        <f>链接汇总!A1096</f>
         <v>123和321</v>
       </c>
       <c r="C97" s="1" t="str">
-        <f>链接汇总!B1095</f>
+        <f>链接汇总!B1096</f>
         <v>https://www.zhihu.com/answer/2505651300</v>
       </c>
       <c r="D97" s="6" t="str">
-        <f>链接汇总!C1095</f>
+        <f>链接汇总!C1096</f>
         <v>123和321</v>
       </c>
       <c r="E97" s="1">
-        <f>链接汇总!D1095</f>
+        <f>链接汇总!D1096</f>
         <v>0</v>
       </c>
       <c r="F97" s="1">
-        <f>链接汇总!E1095</f>
+        <f>链接汇总!E1096</f>
         <v>0</v>
       </c>
       <c r="G97" s="1">
-        <f>链接汇总!F1095</f>
+        <f>链接汇总!F1096</f>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="6" t="str">
-        <f>链接汇总!A1104</f>
+        <f>链接汇总!A1105</f>
         <v>诛心病</v>
       </c>
       <c r="C98" s="1" t="str">
-        <f>链接汇总!B1104</f>
+        <f>链接汇总!B1105</f>
         <v>https://www.zhihu.com/answer/2503912556</v>
       </c>
       <c r="D98" s="6" t="str">
-        <f>链接汇总!C1104</f>
+        <f>链接汇总!C1105</f>
         <v>诛心病</v>
       </c>
       <c r="E98" s="1" t="str">
-        <f>链接汇总!D1104</f>
+        <f>链接汇总!D1105</f>
         <v>https://maifile.cn/est/d2386798992761/pdf</v>
       </c>
       <c r="F98" s="1">
-        <f>链接汇总!E1104</f>
+        <f>链接汇总!E1105</f>
         <v>4022</v>
       </c>
       <c r="G98" s="1" t="str">
-        <f>链接汇总!F1104</f>
+        <f>链接汇总!F1105</f>
         <v>【13】</v>
       </c>
     </row>
@@ -26637,79 +26692,79 @@
     </row>
     <row r="184" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B184" s="6" t="str">
-        <f>链接汇总!A1103</f>
+        <f>链接汇总!A1104</f>
         <v>杀人诛心</v>
       </c>
       <c r="C184" s="1" t="str">
-        <f>链接汇总!B1103</f>
+        <f>链接汇总!B1104</f>
         <v>https://www.zhihu.com/answer/2963036232</v>
       </c>
       <c r="D184" s="6" t="str">
-        <f>链接汇总!C1103</f>
+        <f>链接汇总!C1104</f>
         <v>杀人诛心</v>
       </c>
       <c r="E184" s="1" t="str">
-        <f>链接汇总!D1103</f>
+        <f>链接汇总!D1104</f>
         <v>https://maifile.cn/est/d2466803350800/pdf</v>
       </c>
       <c r="F184" s="1">
-        <f>链接汇总!E1103</f>
+        <f>链接汇总!E1104</f>
         <v>741</v>
       </c>
       <c r="G184" s="1" t="str">
-        <f>链接汇总!F1103</f>
+        <f>链接汇总!F1104</f>
         <v>【13】</v>
       </c>
     </row>
     <row r="185" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B185" s="13" t="str">
-        <f>链接汇总!A1104</f>
+        <f>链接汇总!A1105</f>
         <v>诛心病</v>
       </c>
       <c r="C185" s="18" t="str">
-        <f>链接汇总!B1104</f>
+        <f>链接汇总!B1105</f>
         <v>https://www.zhihu.com/answer/2503912556</v>
       </c>
       <c r="D185" s="17" t="str">
-        <f>链接汇总!C1104</f>
+        <f>链接汇总!C1105</f>
         <v>诛心病</v>
       </c>
       <c r="E185" s="18" t="str">
-        <f>链接汇总!D1104</f>
+        <f>链接汇总!D1105</f>
         <v>https://maifile.cn/est/d2386798992761/pdf</v>
       </c>
       <c r="F185" s="18">
-        <f>链接汇总!E1104</f>
+        <f>链接汇总!E1105</f>
         <v>4022</v>
       </c>
       <c r="G185" s="18" t="str">
-        <f>链接汇总!F1104</f>
+        <f>链接汇总!F1105</f>
         <v>【13】</v>
       </c>
     </row>
     <row r="186" spans="2:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B186" s="13" t="str">
-        <f>链接汇总!A1105</f>
+        <f>链接汇总!A1106</f>
         <v>诛心</v>
       </c>
       <c r="C186" s="18" t="str">
-        <f>链接汇总!B1105</f>
+        <f>链接汇总!B1106</f>
         <v>https://www.zhihu.com/answer/2093678449</v>
       </c>
       <c r="D186" s="17" t="str">
-        <f>链接汇总!C1105</f>
+        <f>链接汇总!C1106</f>
         <v>诛心</v>
       </c>
       <c r="E186" s="18" t="str">
-        <f>链接汇总!D1105</f>
+        <f>链接汇总!D1106</f>
         <v>https://maifile.cn/est/d23996751040760/pdf</v>
       </c>
       <c r="F186" s="18">
-        <f>链接汇总!E1105</f>
+        <f>链接汇总!E1106</f>
         <v>3765</v>
       </c>
       <c r="G186" s="18" t="str">
-        <f>链接汇总!F1105</f>
+        <f>链接汇总!F1106</f>
         <v>【13】</v>
       </c>
     </row>
@@ -27374,184 +27429,184 @@
     </row>
     <row r="240" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B240" s="6" t="str">
-        <f>链接汇总!A1123</f>
+        <f>链接汇总!A1124</f>
         <v>（刚刚好）</v>
       </c>
       <c r="C240" s="1" t="str">
-        <f>链接汇总!B1123</f>
+        <f>链接汇总!B1124</f>
         <v>https://www.zhihu.com/pin/1363474963895382016</v>
       </c>
       <c r="D240" s="6" t="str">
-        <f>链接汇总!C1123</f>
+        <f>链接汇总!C1124</f>
         <v>（刚刚好）</v>
       </c>
       <c r="E240" s="1" t="str">
-        <f>链接汇总!D1123</f>
+        <f>链接汇总!D1124</f>
         <v>https://maifile.cn/est/d2846804374051/pdf</v>
       </c>
       <c r="F240" s="1">
-        <f>链接汇总!E1123</f>
+        <f>链接汇总!E1124</f>
         <v>898</v>
       </c>
       <c r="G240" s="1" t="str">
-        <f>链接汇总!F1123</f>
+        <f>链接汇总!F1124</f>
         <v>【13】</v>
       </c>
       <c r="H240" s="6"/>
     </row>
     <row r="241" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B241" s="6" t="str">
-        <f>链接汇总!A1125</f>
+        <f>链接汇总!A1126</f>
         <v>为了谁</v>
       </c>
       <c r="C241" s="1" t="str">
-        <f>链接汇总!B1125</f>
+        <f>链接汇总!B1126</f>
         <v>https://www.zhihu.com/answer/2666246087</v>
       </c>
       <c r="D241" s="6" t="str">
-        <f>链接汇总!C1125</f>
+        <f>链接汇总!C1126</f>
         <v>为了谁</v>
       </c>
       <c r="E241" s="1" t="str">
-        <f>链接汇总!D1125</f>
+        <f>链接汇总!D1126</f>
         <v>https://maifile.cn/est/d3286804431171/pdf</v>
       </c>
       <c r="F241" s="1">
-        <f>链接汇总!E1125</f>
+        <f>链接汇总!E1126</f>
         <v>783</v>
       </c>
       <c r="G241" s="1" t="str">
-        <f>链接汇总!F1125</f>
+        <f>链接汇总!F1126</f>
         <v>【13】</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B242" s="6" t="str">
-        <f>链接汇总!A1076</f>
+        <f>链接汇总!A1077</f>
         <v>贪爱相生</v>
       </c>
       <c r="C242" s="1" t="str">
-        <f>链接汇总!B1076</f>
+        <f>链接汇总!B1077</f>
         <v xml:space="preserve">https://www.zhihu.com/answer/2549539718 </v>
       </c>
       <c r="D242" s="6" t="str">
-        <f>链接汇总!C1076</f>
+        <f>链接汇总!C1077</f>
         <v>贪爱相生</v>
       </c>
       <c r="E242" s="1" t="str">
-        <f>链接汇总!D1076</f>
+        <f>链接汇总!D1077</f>
         <v>https://maifile.cn/est/d2986805144291/pdf</v>
       </c>
       <c r="F242" s="1">
-        <f>链接汇总!E1076</f>
+        <f>链接汇总!E1077</f>
         <v>3498</v>
       </c>
       <c r="G242" s="1" t="str">
-        <f>链接汇总!F1076</f>
+        <f>链接汇总!F1077</f>
         <v>【13】</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B245" s="6" t="str">
-        <f>链接汇总!A1080</f>
+        <f>链接汇总!A1081</f>
         <v>止损点</v>
       </c>
       <c r="C245" s="1" t="str">
-        <f>链接汇总!B1080</f>
+        <f>链接汇总!B1081</f>
         <v>https://www.zhihu.com/answer/2635507650</v>
       </c>
       <c r="D245" s="6" t="str">
-        <f>链接汇总!C1080</f>
+        <f>链接汇总!C1081</f>
         <v>止损点</v>
       </c>
       <c r="E245" s="1" t="str">
-        <f>链接汇总!D1080</f>
+        <f>链接汇总!D1081</f>
         <v>https://maifile.cn/est/d3126804397320/pdf</v>
       </c>
       <c r="F245" s="1">
-        <f>链接汇总!E1080</f>
+        <f>链接汇总!E1081</f>
         <v>996</v>
       </c>
       <c r="G245" s="1" t="str">
-        <f>链接汇总!F1080</f>
+        <f>链接汇总!F1081</f>
         <v>【13】</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B246" s="6" t="str">
-        <f>链接汇总!A1081</f>
+        <f>链接汇总!A1082</f>
         <v>分手条件</v>
       </c>
       <c r="C246" s="1" t="str">
-        <f>链接汇总!B1081</f>
+        <f>链接汇总!B1082</f>
         <v>https://www.zhihu.com/answer/2859180452</v>
       </c>
       <c r="D246" s="6" t="str">
-        <f>链接汇总!C1081</f>
+        <f>链接汇总!C1082</f>
         <v>分手条件</v>
       </c>
       <c r="E246" s="1" t="str">
-        <f>链接汇总!D1081</f>
+        <f>链接汇总!D1082</f>
         <v>https://maifile.cn/est/d2936804387135/pdf</v>
       </c>
       <c r="F246" s="1">
-        <f>链接汇总!E1081</f>
+        <f>链接汇总!E1082</f>
         <v>1186</v>
       </c>
       <c r="G246" s="1" t="str">
-        <f>链接汇总!F1081</f>
+        <f>链接汇总!F1082</f>
         <v>【13】</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B247" s="6" t="str">
-        <f>链接汇总!A1082</f>
+        <f>链接汇总!A1083</f>
         <v>渣起来</v>
       </c>
       <c r="C247" s="1" t="str">
-        <f>链接汇总!B1082</f>
+        <f>链接汇总!B1083</f>
         <v>https://www.zhihu.com/answer/2081371302</v>
       </c>
       <c r="D247" s="6" t="str">
-        <f>链接汇总!C1082</f>
+        <f>链接汇总!C1083</f>
         <v>渣起来</v>
       </c>
       <c r="E247" s="1" t="str">
-        <f>链接汇总!D1082</f>
+        <f>链接汇总!D1083</f>
         <v>https://maifile.cn/est/d2966804403455/pdf</v>
       </c>
       <c r="F247" s="1">
-        <f>链接汇总!E1082</f>
+        <f>链接汇总!E1083</f>
         <v>1706</v>
       </c>
       <c r="G247" s="1" t="str">
-        <f>链接汇总!F1082</f>
+        <f>链接汇总!F1083</f>
         <v>【13】</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B248" s="6" t="str">
-        <f>链接汇总!A1083</f>
+        <f>链接汇总!A1084</f>
         <v>（额外承诺）</v>
       </c>
       <c r="C248" s="1" t="str">
-        <f>链接汇总!B1083</f>
+        <f>链接汇总!B1084</f>
         <v>https://www.zhihu.com/answer/686830636</v>
       </c>
       <c r="D248" s="6" t="str">
-        <f>链接汇总!C1083</f>
+        <f>链接汇总!C1084</f>
         <v>（额外承诺）</v>
       </c>
       <c r="E248" s="1" t="str">
-        <f>链接汇总!D1083</f>
+        <f>链接汇总!D1084</f>
         <v>https://maifile.cn/est/d2556804416227/pdf</v>
       </c>
       <c r="F248" s="1">
-        <f>链接汇总!E1083</f>
+        <f>链接汇总!E1084</f>
         <v>2580</v>
       </c>
       <c r="G248" s="1" t="str">
-        <f>链接汇总!F1083</f>
+        <f>链接汇总!F1084</f>
         <v>【13】</v>
       </c>
     </row>
@@ -27664,27 +27719,27 @@
     </row>
     <row r="257" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B257" s="6" t="str">
-        <f>链接汇总!A1076</f>
+        <f>链接汇总!A1077</f>
         <v>贪爱相生</v>
       </c>
       <c r="C257" s="1" t="str">
-        <f>链接汇总!B1076</f>
+        <f>链接汇总!B1077</f>
         <v xml:space="preserve">https://www.zhihu.com/answer/2549539718 </v>
       </c>
       <c r="D257" s="6" t="str">
-        <f>链接汇总!C1076</f>
+        <f>链接汇总!C1077</f>
         <v>贪爱相生</v>
       </c>
       <c r="E257" s="1" t="str">
-        <f>链接汇总!D1076</f>
+        <f>链接汇总!D1077</f>
         <v>https://maifile.cn/est/d2986805144291/pdf</v>
       </c>
       <c r="F257" s="1">
-        <f>链接汇总!E1076</f>
+        <f>链接汇总!E1077</f>
         <v>3498</v>
       </c>
       <c r="G257" s="1" t="str">
-        <f>链接汇总!F1076</f>
+        <f>链接汇总!F1077</f>
         <v>【13】</v>
       </c>
     </row>
@@ -28438,27 +28493,27 @@
         <v>1783</v>
       </c>
       <c r="B306" s="6" t="str">
-        <f>链接汇总!A1100</f>
+        <f>链接汇总!A1101</f>
         <v>废话</v>
       </c>
       <c r="C306" s="1" t="str">
-        <f>链接汇总!B1100</f>
+        <f>链接汇总!B1101</f>
         <v>https://www.zhihu.com/answer/2965645980</v>
       </c>
       <c r="D306" s="6" t="str">
-        <f>链接汇总!C1100</f>
+        <f>链接汇总!C1101</f>
         <v>废话</v>
       </c>
       <c r="E306" s="1" t="str">
-        <f>链接汇总!D1100</f>
+        <f>链接汇总!D1101</f>
         <v>https://maifile.cn/est/d2906806191039/pdf</v>
       </c>
       <c r="F306" s="1">
-        <f>链接汇总!E1100</f>
+        <f>链接汇总!E1101</f>
         <v>724</v>
       </c>
       <c r="G306" s="1" t="str">
-        <f>链接汇总!F1100</f>
+        <f>链接汇总!F1101</f>
         <v>【13】</v>
       </c>
     </row>
@@ -28610,27 +28665,27 @@
         <v>1726</v>
       </c>
       <c r="B320" s="6" t="str">
-        <f>链接汇总!A1112</f>
+        <f>链接汇总!A1113</f>
         <v>（受劝不劝）</v>
       </c>
       <c r="C320" s="1" t="str">
-        <f>链接汇总!B1112</f>
+        <f>链接汇总!B1113</f>
         <v>https://www.zhihu.com/answer/2074162381</v>
       </c>
       <c r="D320" s="6" t="str">
-        <f>链接汇总!C1112</f>
+        <f>链接汇总!C1113</f>
         <v>（受劝不劝）</v>
       </c>
       <c r="E320" s="1" t="str">
-        <f>链接汇总!D1112</f>
+        <f>链接汇总!D1113</f>
         <v>https://maifile.cn/est/d3056805296717/pdf</v>
       </c>
       <c r="F320" s="1">
-        <f>链接汇总!E1112</f>
+        <f>链接汇总!E1113</f>
         <v>950</v>
       </c>
       <c r="G320" s="1" t="str">
-        <f>链接汇总!F1112</f>
+        <f>链接汇总!F1113</f>
         <v>【13】</v>
       </c>
     </row>
@@ -28662,27 +28717,27 @@
     </row>
     <row r="322" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B322" s="6" t="str">
-        <f>链接汇总!A1108</f>
+        <f>链接汇总!A1109</f>
         <v>批评</v>
       </c>
       <c r="C322" s="1">
-        <f>链接汇总!B1108</f>
+        <f>链接汇总!B1109</f>
         <v>0</v>
       </c>
       <c r="D322" s="6" t="str">
-        <f>链接汇总!C1108</f>
+        <f>链接汇总!C1109</f>
         <v>批评</v>
       </c>
       <c r="E322" s="1">
-        <f>链接汇总!D1108</f>
+        <f>链接汇总!D1109</f>
         <v>0</v>
       </c>
       <c r="F322" s="1">
-        <f>链接汇总!E1108</f>
+        <f>链接汇总!E1109</f>
         <v>0</v>
       </c>
       <c r="G322" s="1">
-        <f>链接汇总!F1108</f>
+        <f>链接汇总!F1109</f>
         <v>0</v>
       </c>
     </row>
@@ -28740,27 +28795,27 @@
     </row>
     <row r="327" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B327" s="6" t="str">
-        <f>链接汇总!A1107</f>
+        <f>链接汇总!A1108</f>
         <v>（whine、complain &amp; critique）</v>
       </c>
       <c r="C327" s="1" t="str">
-        <f>链接汇总!B1107</f>
+        <f>链接汇总!B1108</f>
         <v>https://www.zhihu.com/answer/1109670842</v>
       </c>
       <c r="D327" s="6" t="str">
-        <f>链接汇总!C1107</f>
+        <f>链接汇总!C1108</f>
         <v>（whine、complain &amp; critique）</v>
       </c>
       <c r="E327" s="1" t="str">
-        <f>链接汇总!D1107</f>
+        <f>链接汇总!D1108</f>
         <v>https://maifile.cn/est/d2376810496593/pdf</v>
       </c>
       <c r="F327" s="1">
-        <f>链接汇总!E1107</f>
+        <f>链接汇总!E1108</f>
         <v>3509</v>
       </c>
       <c r="G327" s="1" t="str">
-        <f>链接汇总!F1107</f>
+        <f>链接汇总!F1108</f>
         <v>【13】</v>
       </c>
     </row>
@@ -29367,27 +29422,27 @@
         <v>1716</v>
       </c>
       <c r="B367" s="6" t="str">
-        <f>链接汇总!A1123</f>
+        <f>链接汇总!A1124</f>
         <v>（刚刚好）</v>
       </c>
       <c r="C367" s="1" t="str">
-        <f>链接汇总!B1123</f>
+        <f>链接汇总!B1124</f>
         <v>https://www.zhihu.com/pin/1363474963895382016</v>
       </c>
       <c r="D367" s="6" t="str">
-        <f>链接汇总!C1123</f>
+        <f>链接汇总!C1124</f>
         <v>（刚刚好）</v>
       </c>
       <c r="E367" s="1" t="str">
-        <f>链接汇总!D1123</f>
+        <f>链接汇总!D1124</f>
         <v>https://maifile.cn/est/d2846804374051/pdf</v>
       </c>
       <c r="F367" s="1">
-        <f>链接汇总!E1123</f>
+        <f>链接汇总!E1124</f>
         <v>898</v>
       </c>
       <c r="G367" s="1" t="str">
-        <f>链接汇总!F1123</f>
+        <f>链接汇总!F1124</f>
         <v>【13】</v>
       </c>
     </row>
@@ -29626,27 +29681,27 @@
         <v>1837</v>
       </c>
       <c r="B386" s="6" t="str">
-        <f>链接汇总!A1130</f>
+        <f>链接汇总!A1131</f>
         <v>不是肝炎</v>
       </c>
       <c r="C386" s="1" t="str">
-        <f>链接汇总!B1130</f>
+        <f>链接汇总!B1131</f>
         <v>https://www.zhihu.com/answer/778043770</v>
       </c>
       <c r="D386" s="6" t="str">
-        <f>链接汇总!C1130</f>
+        <f>链接汇总!C1131</f>
         <v>不是肝炎</v>
       </c>
       <c r="E386" s="1" t="str">
-        <f>链接汇总!D1130</f>
+        <f>链接汇总!D1131</f>
         <v>https://maifile.cn/est/d2846808767991/pdf</v>
       </c>
       <c r="F386" s="1">
-        <f>链接汇总!E1130</f>
+        <f>链接汇总!E1131</f>
         <v>2154</v>
       </c>
       <c r="G386" s="1" t="str">
-        <f>链接汇总!F1130</f>
+        <f>链接汇总!F1131</f>
         <v>【13】</v>
       </c>
     </row>
@@ -29802,79 +29857,79 @@
         <v>1738</v>
       </c>
       <c r="B411" s="6" t="str">
-        <f>链接汇总!A1126</f>
+        <f>链接汇总!A1127</f>
         <v>你们仨</v>
       </c>
       <c r="C411" s="1" t="str">
-        <f>链接汇总!B1126</f>
+        <f>链接汇总!B1127</f>
         <v>https://www.zhihu.com/answer/2403793659</v>
       </c>
       <c r="D411" s="6" t="str">
-        <f>链接汇总!C1126</f>
+        <f>链接汇总!C1127</f>
         <v>你们仨</v>
       </c>
       <c r="E411" s="1" t="str">
-        <f>链接汇总!D1126</f>
+        <f>链接汇总!D1127</f>
         <v>https://maifile.cn/est/d2776805014969/pdf</v>
       </c>
       <c r="F411" s="1">
-        <f>链接汇总!E1126</f>
+        <f>链接汇总!E1127</f>
         <v>1067</v>
       </c>
       <c r="G411" s="1" t="str">
-        <f>链接汇总!F1126</f>
+        <f>链接汇总!F1127</f>
         <v>【13】</v>
       </c>
     </row>
     <row r="412" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B412" s="6" t="str">
-        <f>链接汇总!A1127</f>
+        <f>链接汇总!A1128</f>
         <v>中国的不足</v>
       </c>
       <c r="C412" s="1" t="str">
-        <f>链接汇总!B1127</f>
+        <f>链接汇总!B1128</f>
         <v>https://www.zhihu.com/answer/1273523696</v>
       </c>
       <c r="D412" s="6" t="str">
-        <f>链接汇总!C1127</f>
+        <f>链接汇总!C1128</f>
         <v>中国的不足</v>
       </c>
       <c r="E412" s="1" t="str">
-        <f>链接汇总!D1127</f>
+        <f>链接汇总!D1128</f>
         <v>https://maifile.cn/est/d3016805992782/pdf</v>
       </c>
       <c r="F412" s="1">
-        <f>链接汇总!E1127</f>
+        <f>链接汇总!E1128</f>
         <v>7781</v>
       </c>
       <c r="G412" s="1" t="str">
-        <f>链接汇总!F1127</f>
+        <f>链接汇总!F1128</f>
         <v>【13】</v>
       </c>
     </row>
     <row r="413" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B413" s="6" t="str">
-        <f>链接汇总!A1086</f>
+        <f>链接汇总!A1087</f>
         <v>Circle-Of-Shame</v>
       </c>
       <c r="C413" s="1" t="str">
-        <f>链接汇总!B1086</f>
+        <f>链接汇总!B1087</f>
         <v>https://www.zhihu.com/answer/2124963458</v>
       </c>
       <c r="D413" s="6" t="str">
-        <f>链接汇总!C1086</f>
+        <f>链接汇总!C1087</f>
         <v>Circle-Of-Shame</v>
       </c>
       <c r="E413" s="1" t="str">
-        <f>链接汇总!D1086</f>
+        <f>链接汇总!D1087</f>
         <v>https://maifile.cn/est/d3226810131806/pdf</v>
       </c>
       <c r="F413" s="1">
-        <f>链接汇总!E1086</f>
+        <f>链接汇总!E1087</f>
         <v>1061</v>
       </c>
       <c r="G413" s="1" t="str">
-        <f>链接汇总!F1086</f>
+        <f>链接汇总!F1087</f>
         <v>【13】</v>
       </c>
     </row>
@@ -30031,27 +30086,27 @@
     </row>
     <row r="431" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B431" s="6" t="str">
-        <f>链接汇总!A1128</f>
+        <f>链接汇总!A1129</f>
         <v>你肯吗</v>
       </c>
       <c r="C431" s="1" t="str">
-        <f>链接汇总!B1128</f>
+        <f>链接汇总!B1129</f>
         <v>https://www.zhihu.com/answer/2049883668</v>
       </c>
       <c r="D431" s="6" t="str">
-        <f>链接汇总!C1128</f>
+        <f>链接汇总!C1129</f>
         <v>你肯吗</v>
       </c>
       <c r="E431" s="1" t="str">
-        <f>链接汇总!D1128</f>
+        <f>链接汇总!D1129</f>
         <v>https://maifile.cn/est/d2826805972443/pdf</v>
       </c>
       <c r="F431" s="1">
-        <f>链接汇总!E1128</f>
+        <f>链接汇总!E1129</f>
         <v>1390</v>
       </c>
       <c r="G431" s="1" t="str">
-        <f>链接汇总!F1128</f>
+        <f>链接汇总!F1129</f>
         <v>【13】</v>
       </c>
     </row>

--- a/链接汇总.xlsx
+++ b/链接汇总.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01 Git\Caritas-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6CA08A-365B-486B-B5AD-426AA5A91F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC03A88-2EAC-459D-813C-774DA597D5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10800" xr2:uid="{12AA15F0-ECEF-4F1B-8245-B996CA146F0A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{12AA15F0-ECEF-4F1B-8245-B996CA146F0A}"/>
   </bookViews>
   <sheets>
     <sheet name="链接汇总" sheetId="1" r:id="rId1"/>
@@ -7930,10 +7930,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://github.com/AaNingNing/Sth-Matters/blob/main/Anonymity/01%20-%20%E5%AE%B6%E6%97%8F%E7%AD%94%E9%9B%86/%E6%89%80%E8%B0%93%E5%9B%BD%E7%B1%8D.md</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.zhihu.com/answer/2741935946</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -8246,6 +8242,9 @@
   <si>
     <t>【3】</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/itrewub/jh-notes/blob/main/titled/%E6%89%80%E8%B0%93%E5%9B%BD%E7%B1%8D.md</t>
   </si>
 </sst>
 </file>
@@ -8465,7 +8464,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8599,33 +8598,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8946,8 +8918,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H1199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C935" zoomScale="52" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G944" sqref="G944"/>
+    <sheetView tabSelected="1" topLeftCell="A255" zoomScale="52" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B271" sqref="B271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8986,7 +8958,7 @@
         <v>509</v>
       </c>
       <c r="H1" s="41" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9464,7 +9436,7 @@
         <v>530</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="E25" s="3">
         <v>867</v>
@@ -9691,10 +9663,10 @@
     </row>
     <row r="36" spans="1:8" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
+        <v>2327</v>
+      </c>
+      <c r="B36" s="36" t="s">
         <v>2328</v>
-      </c>
-      <c r="B36" s="50" t="s">
-        <v>2329</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>539</v>
@@ -10085,16 +10057,16 @@
     </row>
     <row r="58" spans="1:8" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
+        <v>2261</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>2263</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>2261</v>
+      </c>
+      <c r="D58" s="17" t="s">
         <v>2262</v>
-      </c>
-      <c r="B58" s="21" t="s">
-        <v>2264</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>2262</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>2263</v>
       </c>
       <c r="E58" s="3">
         <v>990</v>
@@ -10103,22 +10075,22 @@
         <v>1559</v>
       </c>
       <c r="G58" s="42" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="H58" s="42"/>
     </row>
     <row r="59" spans="1:8" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B59" s="21" t="s">
         <v>2267</v>
       </c>
-      <c r="B59" s="21" t="s">
+      <c r="C59" s="7" t="s">
+        <v>2266</v>
+      </c>
+      <c r="D59" s="17" t="s">
         <v>2268</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>2267</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>2269</v>
       </c>
       <c r="E59" s="3">
         <v>1238</v>
@@ -10127,7 +10099,7 @@
         <v>1559</v>
       </c>
       <c r="G59" s="43" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="H59" s="43"/>
     </row>
@@ -10136,7 +10108,7 @@
         <v>560</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="C60" s="9" t="s">
         <v>560</v>
@@ -10151,41 +10123,41 @@
     </row>
     <row r="61" spans="1:8" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
-        <v>2312</v>
-      </c>
-      <c r="B61" s="50" t="s">
-        <v>2316</v>
-      </c>
-      <c r="C61" s="47" t="s">
-        <v>2312</v>
+        <v>2311</v>
+      </c>
+      <c r="B61" s="36" t="s">
+        <v>2315</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>2311</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
-      <c r="G61" s="47" t="s">
-        <v>2312</v>
+      <c r="G61" s="7" t="s">
+        <v>2311</v>
       </c>
       <c r="H61" s="42"/>
     </row>
     <row r="62" spans="1:8" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="B62" s="22"/>
       <c r="C62" s="9" t="s">
+        <v>2313</v>
+      </c>
+      <c r="D62" s="37" t="s">
         <v>2314</v>
-      </c>
-      <c r="D62" s="37" t="s">
-        <v>2315</v>
       </c>
       <c r="E62" s="3">
         <v>1280</v>
       </c>
       <c r="F62" s="38" t="s">
-        <v>2274</v>
-      </c>
-      <c r="G62" s="47" t="s">
-        <v>2313</v>
+        <v>2273</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>2312</v>
       </c>
       <c r="H62" s="42"/>
     </row>
@@ -11113,25 +11085,25 @@
     </row>
     <row r="113" spans="1:8" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="7" t="s">
+        <v>2270</v>
+      </c>
+      <c r="B113" s="36" t="s">
         <v>2271</v>
       </c>
-      <c r="B113" s="36" t="s">
+      <c r="C113" s="9" t="s">
+        <v>2269</v>
+      </c>
+      <c r="D113" s="37" t="s">
         <v>2272</v>
-      </c>
-      <c r="C113" s="9" t="s">
-        <v>2270</v>
-      </c>
-      <c r="D113" s="37" t="s">
-        <v>2273</v>
       </c>
       <c r="E113" s="3">
         <v>656</v>
       </c>
       <c r="F113" s="38" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="G113" s="42" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="H113" s="42"/>
     </row>
@@ -12667,23 +12639,23 @@
       </c>
       <c r="H196" s="42"/>
     </row>
-    <row r="197" spans="1:8" s="45" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A197" s="47" t="s">
+    <row r="197" spans="1:8" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A197" s="7" t="s">
+        <v>2331</v>
+      </c>
+      <c r="B197" s="36" t="s">
         <v>2332</v>
       </c>
-      <c r="B197" s="50" t="s">
-        <v>2333</v>
-      </c>
-      <c r="C197" s="48" t="s">
-        <v>2331</v>
-      </c>
-      <c r="D197" s="49"/>
-      <c r="E197" s="46"/>
-      <c r="F197" s="46"/>
-      <c r="G197" s="53" t="s">
-        <v>2331</v>
-      </c>
-      <c r="H197" s="53"/>
+      <c r="C197" s="9" t="s">
+        <v>2330</v>
+      </c>
+      <c r="D197" s="17"/>
+      <c r="E197" s="3"/>
+      <c r="F197" s="3"/>
+      <c r="G197" s="42" t="s">
+        <v>2330</v>
+      </c>
+      <c r="H197" s="42"/>
     </row>
     <row r="198" spans="1:8" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="7" t="s">
@@ -13215,83 +13187,83 @@
       <c r="A227" s="7" t="s">
         <v>708</v>
       </c>
-      <c r="B227" s="50" t="s">
-        <v>2317</v>
+      <c r="B227" s="36" t="s">
+        <v>2316</v>
       </c>
       <c r="C227" s="9" t="s">
         <v>708</v>
       </c>
-      <c r="D227" s="51" t="s">
-        <v>2318</v>
+      <c r="D227" s="37" t="s">
+        <v>2317</v>
       </c>
       <c r="E227" s="3">
         <v>810</v>
       </c>
       <c r="F227" s="38" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="G227" s="42" t="s">
         <v>708</v>
       </c>
       <c r="H227" s="42"/>
     </row>
-    <row r="228" spans="1:8" s="45" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A228" s="47" t="s">
+    <row r="228" spans="1:8" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A228" s="7" t="s">
+        <v>2320</v>
+      </c>
+      <c r="B228" s="36" t="s">
+        <v>2318</v>
+      </c>
+      <c r="C228" s="9" t="s">
+        <v>2319</v>
+      </c>
+      <c r="D228" s="37" t="s">
         <v>2321</v>
       </c>
-      <c r="B228" s="50" t="s">
+      <c r="E228" s="3">
+        <v>7133</v>
+      </c>
+      <c r="F228" s="38" t="s">
+        <v>2273</v>
+      </c>
+      <c r="G228" s="42" t="s">
         <v>2319</v>
       </c>
-      <c r="C228" s="48" t="s">
-        <v>2320</v>
-      </c>
-      <c r="D228" s="51" t="s">
+      <c r="H228" s="42"/>
+    </row>
+    <row r="229" spans="1:8" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A229" s="7" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B229" s="36" t="s">
+        <v>2324</v>
+      </c>
+      <c r="C229" s="9" t="s">
         <v>2322</v>
       </c>
-      <c r="E228" s="46">
-        <v>7133</v>
-      </c>
-      <c r="F228" s="52" t="s">
-        <v>2274</v>
-      </c>
-      <c r="G228" s="53" t="s">
-        <v>2320</v>
-      </c>
-      <c r="H228" s="53"/>
-    </row>
-    <row r="229" spans="1:8" s="45" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A229" s="47" t="s">
-        <v>2324</v>
-      </c>
-      <c r="B229" s="50" t="s">
+      <c r="D229" s="37"/>
+      <c r="E229" s="3"/>
+      <c r="F229" s="38"/>
+      <c r="G229" s="42" t="s">
+        <v>2322</v>
+      </c>
+      <c r="H229" s="42"/>
+    </row>
+    <row r="230" spans="1:8" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A230" s="7" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B230" s="36"/>
+      <c r="C230" s="9" t="s">
         <v>2325</v>
       </c>
-      <c r="C229" s="48" t="s">
-        <v>2323</v>
-      </c>
-      <c r="D229" s="51"/>
-      <c r="E229" s="46"/>
-      <c r="F229" s="52"/>
-      <c r="G229" s="53" t="s">
-        <v>2323</v>
-      </c>
-      <c r="H229" s="53"/>
-    </row>
-    <row r="230" spans="1:8" s="45" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A230" s="47" t="s">
-        <v>2327</v>
-      </c>
-      <c r="B230" s="50"/>
-      <c r="C230" s="48" t="s">
-        <v>2326</v>
-      </c>
-      <c r="D230" s="51"/>
-      <c r="E230" s="46"/>
-      <c r="F230" s="52"/>
-      <c r="G230" s="53" t="s">
-        <v>2326</v>
-      </c>
-      <c r="H230" s="53"/>
+      <c r="D230" s="37"/>
+      <c r="E230" s="3"/>
+      <c r="F230" s="38"/>
+      <c r="G230" s="42" t="s">
+        <v>2325</v>
+      </c>
+      <c r="H230" s="42"/>
     </row>
     <row r="231" spans="1:8" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" s="7" t="s">
@@ -13988,13 +13960,13 @@
     </row>
     <row r="270" spans="1:8" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A270" s="7" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="B270" s="21" t="s">
-        <v>2254</v>
-      </c>
-      <c r="C270" s="47" t="s">
-        <v>2334</v>
+        <v>2335</v>
+      </c>
+      <c r="C270" s="7" t="s">
+        <v>2333</v>
       </c>
       <c r="D270" s="17"/>
       <c r="E270" s="3">
@@ -14003,8 +13975,8 @@
       <c r="F270" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="G270" s="47" t="s">
-        <v>2334</v>
+      <c r="G270" s="7" t="s">
+        <v>2333</v>
       </c>
       <c r="H270" s="42"/>
     </row>
@@ -14839,25 +14811,25 @@
         <v>786</v>
       </c>
       <c r="B315" s="36" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="C315" s="9" t="s">
         <v>786</v>
       </c>
       <c r="D315" s="37" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="E315" s="3">
         <v>1433</v>
       </c>
       <c r="F315" s="38" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="G315" s="42" t="s">
         <v>786</v>
       </c>
       <c r="H315" s="40" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="316" spans="1:8" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -14865,7 +14837,7 @@
         <v>787</v>
       </c>
       <c r="B316" s="36" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="C316" s="9" t="s">
         <v>787</v>
@@ -14880,47 +14852,47 @@
     </row>
     <row r="317" spans="1:8" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A317" s="7" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="B317" s="36" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="C317" s="9" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="D317" s="37" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="E317" s="3">
         <v>1498</v>
       </c>
       <c r="F317" s="38" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="G317" s="42" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="H317" s="42"/>
     </row>
     <row r="318" spans="1:8" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A318" s="7" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="B318" s="22"/>
       <c r="C318" s="9" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="D318" s="37" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="E318" s="3">
         <v>2575</v>
       </c>
       <c r="F318" s="38" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="G318" s="42" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="H318" s="42"/>
     </row>
@@ -15996,13 +15968,13 @@
         <v>839</v>
       </c>
       <c r="B377" s="26" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="C377" s="9" t="s">
         <v>839</v>
       </c>
       <c r="D377" s="27" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="E377" s="3">
         <v>3371</v>
@@ -18436,13 +18408,13 @@
         <v>959</v>
       </c>
       <c r="B512" s="36" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="C512" s="9" t="s">
         <v>959</v>
       </c>
       <c r="D512" s="37" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="E512" s="3">
         <v>1122</v>
@@ -20299,16 +20271,16 @@
     </row>
     <row r="612" spans="1:8" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A612" s="7" t="s">
+        <v>2303</v>
+      </c>
+      <c r="B612" s="36" t="s">
         <v>2304</v>
       </c>
-      <c r="B612" s="36" t="s">
+      <c r="C612" s="7" t="s">
+        <v>2303</v>
+      </c>
+      <c r="D612" s="37" t="s">
         <v>2305</v>
-      </c>
-      <c r="C612" s="7" t="s">
-        <v>2304</v>
-      </c>
-      <c r="D612" s="37" t="s">
-        <v>2306</v>
       </c>
       <c r="E612" s="3">
         <v>1034</v>
@@ -20317,22 +20289,22 @@
         <v>359</v>
       </c>
       <c r="G612" s="7" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="H612" s="42"/>
     </row>
     <row r="613" spans="1:8" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A613" s="7" t="s">
+        <v>2307</v>
+      </c>
+      <c r="B613" s="36" t="s">
         <v>2308</v>
       </c>
-      <c r="B613" s="36" t="s">
+      <c r="C613" s="9" t="s">
+        <v>2306</v>
+      </c>
+      <c r="D613" s="37" t="s">
         <v>2309</v>
-      </c>
-      <c r="C613" s="9" t="s">
-        <v>2307</v>
-      </c>
-      <c r="D613" s="37" t="s">
-        <v>2310</v>
       </c>
       <c r="E613" s="3">
         <v>1549</v>
@@ -20341,7 +20313,7 @@
         <v>359</v>
       </c>
       <c r="G613" s="42" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="H613" s="42"/>
     </row>
@@ -21018,25 +20990,25 @@
         <v>1083</v>
       </c>
       <c r="B650" s="36" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="C650" s="9" t="s">
         <v>1083</v>
       </c>
       <c r="D650" s="37" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="E650" s="3">
         <v>7009</v>
       </c>
       <c r="F650" s="38" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="G650" s="42" t="s">
         <v>1083</v>
       </c>
       <c r="H650" s="40" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="651" spans="1:8" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -24499,16 +24471,16 @@
         <v>1238</v>
       </c>
       <c r="B841" s="26" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="C841" s="9" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="D841" s="3"/>
       <c r="E841" s="3"/>
       <c r="F841" s="3"/>
       <c r="G841" s="42" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="H841" s="42"/>
     </row>
@@ -24517,13 +24489,13 @@
         <v>1239</v>
       </c>
       <c r="B842" s="26" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="C842" s="9" t="s">
         <v>1239</v>
       </c>
       <c r="D842" s="27" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="E842" s="3">
         <v>4466</v>
@@ -24931,19 +24903,19 @@
         <v>1261</v>
       </c>
       <c r="B864" s="36" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="C864" s="9" t="s">
         <v>1261</v>
       </c>
       <c r="D864" s="37" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="E864" s="3">
         <v>2042</v>
       </c>
       <c r="F864" s="38" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="G864" s="42" t="s">
         <v>1261</v>
@@ -26087,19 +26059,19 @@
         <v>1317</v>
       </c>
       <c r="B927" s="36" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="C927" s="9" t="s">
         <v>1317</v>
       </c>
       <c r="D927" s="17" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="E927" s="3">
         <v>3926</v>
       </c>
       <c r="F927" s="38" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="G927" s="42" t="s">
         <v>1317</v>
@@ -26175,13 +26147,13 @@
         <v>1319</v>
       </c>
       <c r="B931" s="36" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="C931" s="9" t="s">
         <v>1319</v>
       </c>
       <c r="D931" s="37" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="E931" s="3">
         <v>2347</v>
@@ -26212,22 +26184,22 @@
     </row>
     <row r="933" spans="1:8" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A933" s="7" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B933" s="36" t="s">
         <v>2299</v>
-      </c>
-      <c r="B933" s="36" t="s">
-        <v>2300</v>
       </c>
       <c r="C933" s="9" t="s">
         <v>1321</v>
       </c>
       <c r="D933" s="37" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="E933" s="3">
         <v>5983</v>
       </c>
       <c r="F933" s="38" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="G933" s="42" t="s">
         <v>1321</v>
@@ -26436,16 +26408,16 @@
     </row>
     <row r="944" spans="1:8" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A944" s="7" t="s">
+        <v>2274</v>
+      </c>
+      <c r="B944" s="36" t="s">
         <v>2275</v>
       </c>
-      <c r="B944" s="36" t="s">
+      <c r="C944" s="7" t="s">
+        <v>2274</v>
+      </c>
+      <c r="D944" s="37" t="s">
         <v>2276</v>
-      </c>
-      <c r="C944" s="7" t="s">
-        <v>2275</v>
-      </c>
-      <c r="D944" s="37" t="s">
-        <v>2277</v>
       </c>
       <c r="E944" s="3">
         <v>1253</v>
@@ -26454,7 +26426,7 @@
         <v>1559</v>
       </c>
       <c r="G944" s="43" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="H944" s="43"/>
     </row>
@@ -28144,7 +28116,7 @@
         <v>830</v>
       </c>
       <c r="F1038" s="38" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="G1038" s="43" t="s">
         <v>1643</v>
@@ -32081,55 +32053,54 @@
     <hyperlink ref="B33" r:id="rId776" xr:uid="{93531DA4-BBB0-49A0-BA41-AFF1C764FBB2}"/>
     <hyperlink ref="B34" r:id="rId777" xr:uid="{9D094127-80AA-4E36-9F76-96560E5AAAD9}"/>
     <hyperlink ref="B1132" r:id="rId778" xr:uid="{39AF9D1B-3786-4A10-A593-7143AB26A2A7}"/>
-    <hyperlink ref="B270" r:id="rId779" xr:uid="{876C606C-BA93-4F13-81DA-CC9C4DFD66FE}"/>
-    <hyperlink ref="B842" r:id="rId780" xr:uid="{C3E3FAE0-3157-4B41-9FDF-406E254DC30F}"/>
-    <hyperlink ref="D842" r:id="rId781" xr:uid="{05A0F945-C286-4EEC-8EF2-8E10B271D36C}"/>
-    <hyperlink ref="B841" r:id="rId782" xr:uid="{DD7B4645-D52C-4539-BB6F-849ACAB9BA35}"/>
-    <hyperlink ref="B377" r:id="rId783" xr:uid="{717C4AD7-0931-4B92-A21C-FA31B862A88B}"/>
-    <hyperlink ref="D377" r:id="rId784" xr:uid="{0E5D1E2E-D6B9-4C07-A6D1-56CA7F74047E}"/>
-    <hyperlink ref="D58" r:id="rId785" xr:uid="{9239D011-1155-4347-A86F-9630FD972E18}"/>
-    <hyperlink ref="B58" r:id="rId786" xr:uid="{04DEA684-45BC-4267-901E-3BFBFE3356E8}"/>
-    <hyperlink ref="B60" r:id="rId787" xr:uid="{4F04AF65-925D-4E5D-9BA1-E04F3E688467}"/>
-    <hyperlink ref="B59" r:id="rId788" xr:uid="{DECE7C9A-DDC4-48BB-80F5-FC5A36D1CDA2}"/>
-    <hyperlink ref="D59" r:id="rId789" xr:uid="{ABFE62B8-C428-431C-A423-9E7BB29E7CF8}"/>
-    <hyperlink ref="B113" r:id="rId790" xr:uid="{01890A81-08BC-432A-BFF0-C53515CF645B}"/>
-    <hyperlink ref="D113" r:id="rId791" xr:uid="{FC131CAC-600D-4506-BB7D-48E3A38D07D7}"/>
-    <hyperlink ref="B944" r:id="rId792" xr:uid="{77ED1D4B-F384-487C-91F7-DF85B9F9C18C}"/>
-    <hyperlink ref="D944" r:id="rId793" xr:uid="{ACEBD04F-8F05-4542-91E6-9C729EE7F191}"/>
-    <hyperlink ref="D315" r:id="rId794" xr:uid="{9E56A952-6353-44DA-B2EA-4B6AB6A34032}"/>
-    <hyperlink ref="D317" r:id="rId795" xr:uid="{CF202233-C980-4797-AF2A-935502C29796}"/>
-    <hyperlink ref="B317" r:id="rId796" xr:uid="{19AAD986-F206-4690-B83A-4DD713F2C779}"/>
-    <hyperlink ref="D318" r:id="rId797" xr:uid="{6CDC6982-8F07-4DE2-9648-65EAF68D7858}"/>
-    <hyperlink ref="B316" r:id="rId798" xr:uid="{3CC1ED5D-606B-489C-B459-8465776A8D12}"/>
-    <hyperlink ref="B315" r:id="rId799" xr:uid="{30E8AFA7-4A7C-4804-A844-07E1D14A615F}"/>
-    <hyperlink ref="H315" r:id="rId800" xr:uid="{A979EB3A-83EC-424B-A6BB-82579E3EB9EF}"/>
-    <hyperlink ref="B927" r:id="rId801" xr:uid="{CBE56BD8-F58F-4C79-BB8E-733193DD45F9}"/>
-    <hyperlink ref="D864" r:id="rId802" xr:uid="{09AD1F8E-04E6-4C42-958B-1805EF2FBBF5}"/>
-    <hyperlink ref="B864" r:id="rId803" xr:uid="{0E6A9CDB-6E0D-471B-9267-FC132636B54F}"/>
-    <hyperlink ref="D512" r:id="rId804" xr:uid="{40F58C51-FC0A-4F55-A34C-2246EE87D0A3}"/>
-    <hyperlink ref="B512" r:id="rId805" xr:uid="{211BA5AE-877E-4F2E-8EA7-56E0C021062E}"/>
-    <hyperlink ref="B650" r:id="rId806" xr:uid="{5D8BC2A2-72B5-4676-A3A5-3E11D301754F}"/>
-    <hyperlink ref="D650" r:id="rId807" xr:uid="{14F421F2-85FF-49AD-A682-8DEBCB7A96B0}"/>
-    <hyperlink ref="H650" r:id="rId808" xr:uid="{833CC075-3C31-426E-93C5-7B98C62A781F}"/>
-    <hyperlink ref="B933" r:id="rId809" xr:uid="{215463C3-3C7F-4F1F-8F48-BA1321892D42}"/>
-    <hyperlink ref="D933" r:id="rId810" xr:uid="{895EDAEE-721B-4F97-A2D9-7163489F5EA9}"/>
-    <hyperlink ref="D931" r:id="rId811" xr:uid="{9CA9A91E-5970-4E4F-822B-1B8CA0BBAE45}"/>
-    <hyperlink ref="B931" r:id="rId812" xr:uid="{38CB451C-D952-42D7-B6F5-553D877637C6}"/>
-    <hyperlink ref="B612" r:id="rId813" xr:uid="{DA535A3A-891E-46B7-B3C4-49A61C324572}"/>
-    <hyperlink ref="D612" r:id="rId814" xr:uid="{A4F02BFB-E94E-4EB6-B996-1E71590D643D}"/>
-    <hyperlink ref="B613" r:id="rId815" xr:uid="{864506E2-38C5-48AC-AFF6-07A723F384E3}"/>
-    <hyperlink ref="D613" r:id="rId816" xr:uid="{C6A5661F-3F37-4FD2-96FF-82826E4F37BD}"/>
-    <hyperlink ref="D62" r:id="rId817" xr:uid="{A6F3241D-4C31-4AB9-A4C5-A301C9E4679B}"/>
-    <hyperlink ref="B61" r:id="rId818" xr:uid="{314D2925-2B58-4ADC-9CAA-1E8AFE384236}"/>
-    <hyperlink ref="B227" r:id="rId819" xr:uid="{F822566A-D2FC-4C3C-81C2-44916620B2AB}"/>
-    <hyperlink ref="D227" r:id="rId820" xr:uid="{AF57B49C-CD4F-4473-9527-35BCC4970E9E}"/>
-    <hyperlink ref="B228" r:id="rId821" xr:uid="{4E22C245-711A-4FA4-820F-E45EB67DE1C1}"/>
-    <hyperlink ref="B229" r:id="rId822" xr:uid="{7268B95F-D09C-4C04-8EF6-43F4D9D08DCE}"/>
-    <hyperlink ref="B36" r:id="rId823" xr:uid="{50BFB4CE-321D-4C01-9973-C1A36B2C0280}"/>
-    <hyperlink ref="B197" r:id="rId824" xr:uid="{47F77581-B78D-46A5-B1AF-59943A07BABF}"/>
+    <hyperlink ref="B842" r:id="rId779" xr:uid="{C3E3FAE0-3157-4B41-9FDF-406E254DC30F}"/>
+    <hyperlink ref="D842" r:id="rId780" xr:uid="{05A0F945-C286-4EEC-8EF2-8E10B271D36C}"/>
+    <hyperlink ref="B841" r:id="rId781" xr:uid="{DD7B4645-D52C-4539-BB6F-849ACAB9BA35}"/>
+    <hyperlink ref="B377" r:id="rId782" xr:uid="{717C4AD7-0931-4B92-A21C-FA31B862A88B}"/>
+    <hyperlink ref="D377" r:id="rId783" xr:uid="{0E5D1E2E-D6B9-4C07-A6D1-56CA7F74047E}"/>
+    <hyperlink ref="D58" r:id="rId784" xr:uid="{9239D011-1155-4347-A86F-9630FD972E18}"/>
+    <hyperlink ref="B58" r:id="rId785" xr:uid="{04DEA684-45BC-4267-901E-3BFBFE3356E8}"/>
+    <hyperlink ref="B60" r:id="rId786" xr:uid="{4F04AF65-925D-4E5D-9BA1-E04F3E688467}"/>
+    <hyperlink ref="B59" r:id="rId787" xr:uid="{DECE7C9A-DDC4-48BB-80F5-FC5A36D1CDA2}"/>
+    <hyperlink ref="D59" r:id="rId788" xr:uid="{ABFE62B8-C428-431C-A423-9E7BB29E7CF8}"/>
+    <hyperlink ref="B113" r:id="rId789" xr:uid="{01890A81-08BC-432A-BFF0-C53515CF645B}"/>
+    <hyperlink ref="D113" r:id="rId790" xr:uid="{FC131CAC-600D-4506-BB7D-48E3A38D07D7}"/>
+    <hyperlink ref="B944" r:id="rId791" xr:uid="{77ED1D4B-F384-487C-91F7-DF85B9F9C18C}"/>
+    <hyperlink ref="D944" r:id="rId792" xr:uid="{ACEBD04F-8F05-4542-91E6-9C729EE7F191}"/>
+    <hyperlink ref="D315" r:id="rId793" xr:uid="{9E56A952-6353-44DA-B2EA-4B6AB6A34032}"/>
+    <hyperlink ref="D317" r:id="rId794" xr:uid="{CF202233-C980-4797-AF2A-935502C29796}"/>
+    <hyperlink ref="B317" r:id="rId795" xr:uid="{19AAD986-F206-4690-B83A-4DD713F2C779}"/>
+    <hyperlink ref="D318" r:id="rId796" xr:uid="{6CDC6982-8F07-4DE2-9648-65EAF68D7858}"/>
+    <hyperlink ref="B316" r:id="rId797" xr:uid="{3CC1ED5D-606B-489C-B459-8465776A8D12}"/>
+    <hyperlink ref="B315" r:id="rId798" xr:uid="{30E8AFA7-4A7C-4804-A844-07E1D14A615F}"/>
+    <hyperlink ref="H315" r:id="rId799" xr:uid="{A979EB3A-83EC-424B-A6BB-82579E3EB9EF}"/>
+    <hyperlink ref="B927" r:id="rId800" xr:uid="{CBE56BD8-F58F-4C79-BB8E-733193DD45F9}"/>
+    <hyperlink ref="D864" r:id="rId801" xr:uid="{09AD1F8E-04E6-4C42-958B-1805EF2FBBF5}"/>
+    <hyperlink ref="B864" r:id="rId802" xr:uid="{0E6A9CDB-6E0D-471B-9267-FC132636B54F}"/>
+    <hyperlink ref="D512" r:id="rId803" xr:uid="{40F58C51-FC0A-4F55-A34C-2246EE87D0A3}"/>
+    <hyperlink ref="B512" r:id="rId804" xr:uid="{211BA5AE-877E-4F2E-8EA7-56E0C021062E}"/>
+    <hyperlink ref="B650" r:id="rId805" xr:uid="{5D8BC2A2-72B5-4676-A3A5-3E11D301754F}"/>
+    <hyperlink ref="D650" r:id="rId806" xr:uid="{14F421F2-85FF-49AD-A682-8DEBCB7A96B0}"/>
+    <hyperlink ref="H650" r:id="rId807" xr:uid="{833CC075-3C31-426E-93C5-7B98C62A781F}"/>
+    <hyperlink ref="B933" r:id="rId808" xr:uid="{215463C3-3C7F-4F1F-8F48-BA1321892D42}"/>
+    <hyperlink ref="D933" r:id="rId809" xr:uid="{895EDAEE-721B-4F97-A2D9-7163489F5EA9}"/>
+    <hyperlink ref="D931" r:id="rId810" xr:uid="{9CA9A91E-5970-4E4F-822B-1B8CA0BBAE45}"/>
+    <hyperlink ref="B931" r:id="rId811" xr:uid="{38CB451C-D952-42D7-B6F5-553D877637C6}"/>
+    <hyperlink ref="B612" r:id="rId812" xr:uid="{DA535A3A-891E-46B7-B3C4-49A61C324572}"/>
+    <hyperlink ref="D612" r:id="rId813" xr:uid="{A4F02BFB-E94E-4EB6-B996-1E71590D643D}"/>
+    <hyperlink ref="B613" r:id="rId814" xr:uid="{864506E2-38C5-48AC-AFF6-07A723F384E3}"/>
+    <hyperlink ref="D613" r:id="rId815" xr:uid="{C6A5661F-3F37-4FD2-96FF-82826E4F37BD}"/>
+    <hyperlink ref="D62" r:id="rId816" xr:uid="{A6F3241D-4C31-4AB9-A4C5-A301C9E4679B}"/>
+    <hyperlink ref="B61" r:id="rId817" xr:uid="{314D2925-2B58-4ADC-9CAA-1E8AFE384236}"/>
+    <hyperlink ref="B227" r:id="rId818" xr:uid="{F822566A-D2FC-4C3C-81C2-44916620B2AB}"/>
+    <hyperlink ref="D227" r:id="rId819" xr:uid="{AF57B49C-CD4F-4473-9527-35BCC4970E9E}"/>
+    <hyperlink ref="B228" r:id="rId820" xr:uid="{4E22C245-711A-4FA4-820F-E45EB67DE1C1}"/>
+    <hyperlink ref="B229" r:id="rId821" xr:uid="{7268B95F-D09C-4C04-8EF6-43F4D9D08DCE}"/>
+    <hyperlink ref="B36" r:id="rId822" xr:uid="{50BFB4CE-321D-4C01-9973-C1A36B2C0280}"/>
+    <hyperlink ref="B197" r:id="rId823" xr:uid="{47F77581-B78D-46A5-B1AF-59943A07BABF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId825"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId824"/>
 </worksheet>
 </file>
 
@@ -32335,7 +32306,7 @@
       </c>
       <c r="C37" s="1" t="str">
         <f>链接汇总!B270</f>
-        <v>https://github.com/AaNingNing/Sth-Matters/blob/main/Anonymity/01%20-%20%E5%AE%B6%E6%97%8F%E7%AD%94%E9%9B%86/%E6%89%80%E8%B0%93%E5%9B%BD%E7%B1%8D.md</v>
+        <v>https://github.com/itrewub/jh-notes/blob/main/titled/%E6%89%80%E8%B0%93%E5%9B%BD%E7%B1%8D.md</v>
       </c>
       <c r="D37" s="6" t="str">
         <f>链接汇总!C270</f>
@@ -40907,7 +40878,7 @@
     </row>
     <row r="640" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A640" s="6" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="B640" s="6" t="str">
         <f>链接汇总!A512</f>
@@ -41453,7 +41424,7 @@
     </row>
     <row r="668" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A668" s="6" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="B668" s="6" t="str">
         <f>链接汇总!A315</f>
@@ -42789,7 +42760,7 @@
     </row>
     <row r="747" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A747" s="6" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="748" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
@@ -42799,12 +42770,12 @@
     </row>
     <row r="749" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A749" s="6" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="752" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A752" s="6" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
     </row>
   </sheetData>

--- a/链接汇总.xlsx
+++ b/链接汇总.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01 Git\Caritas-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC03A88-2EAC-459D-813C-774DA597D5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BF7443-C3AE-4F0C-98DB-D8BAF3A821A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{12AA15F0-ECEF-4F1B-8245-B996CA146F0A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{12AA15F0-ECEF-4F1B-8245-B996CA146F0A}"/>
   </bookViews>
   <sheets>
     <sheet name="链接汇总" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5080" uniqueCount="2336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5084" uniqueCount="2339">
   <si>
     <t>TheWholePackage</t>
   </si>
@@ -8245,6 +8245,18 @@
   </si>
   <si>
     <t>https://github.com/itrewub/jh-notes/blob/main/titled/%E6%89%80%E8%B0%93%E5%9B%BD%E7%B1%8D.md</t>
+  </si>
+  <si>
+    <t>https://maifile.cn/est/d2636835080704/pdf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/answer/1839075613</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>战后婴儿潮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -8918,8 +8930,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H1199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A255" zoomScale="52" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B271" sqref="B271"/>
+    <sheetView topLeftCell="A859" zoomScale="52" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B683" sqref="B683"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -21597,13 +21609,21 @@
       <c r="A682" s="7" t="s">
         <v>1109</v>
       </c>
-      <c r="B682" s="22"/>
+      <c r="B682" s="36" t="s">
+        <v>2337</v>
+      </c>
       <c r="C682" s="9" t="s">
         <v>1109</v>
       </c>
-      <c r="D682" s="3"/>
-      <c r="E682" s="3"/>
-      <c r="F682" s="3"/>
+      <c r="D682" s="37" t="s">
+        <v>2336</v>
+      </c>
+      <c r="E682" s="3">
+        <v>591</v>
+      </c>
+      <c r="F682" s="38" t="s">
+        <v>2273</v>
+      </c>
       <c r="G682" s="42" t="s">
         <v>1109</v>
       </c>
@@ -32098,18 +32118,20 @@
     <hyperlink ref="B229" r:id="rId821" xr:uid="{7268B95F-D09C-4C04-8EF6-43F4D9D08DCE}"/>
     <hyperlink ref="B36" r:id="rId822" xr:uid="{50BFB4CE-321D-4C01-9973-C1A36B2C0280}"/>
     <hyperlink ref="B197" r:id="rId823" xr:uid="{47F77581-B78D-46A5-B1AF-59943A07BABF}"/>
+    <hyperlink ref="D682" r:id="rId824" xr:uid="{FC65D08C-574F-47D3-90B8-0A54A47279AA}"/>
+    <hyperlink ref="B682" r:id="rId825" xr:uid="{879BB584-68A9-47B9-A716-BD6EDB86924A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId824"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId826"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B295A9-F646-4D05-9ABC-30A8FA955D11}">
-  <dimension ref="A1:M752"/>
+  <dimension ref="A1:M759"/>
   <sheetViews>
-    <sheetView topLeftCell="A738" zoomScale="66" workbookViewId="0">
-      <selection activeCell="A762" sqref="A762"/>
+    <sheetView tabSelected="1" topLeftCell="A738" zoomScale="66" workbookViewId="0">
+      <selection activeCell="E760" sqref="E760"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -42778,6 +42800,39 @@
         <v>2329</v>
       </c>
     </row>
+    <row r="755" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A755" s="6" t="s">
+        <v>2338</v>
+      </c>
+      <c r="B755" s="6" t="str">
+        <f>链接汇总!A681</f>
+        <v>合理（2）</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B756" s="6" t="str">
+        <f>链接汇总!A682</f>
+        <v>合理</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B757" s="6" t="str">
+        <f>链接汇总!A626</f>
+        <v>教养</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B758" s="6" t="str">
+        <f>链接汇总!A510</f>
+        <v>门当户对</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B759" s="6" t="str">
+        <f>链接汇总!A874</f>
+        <v>财富观</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
